--- a/Doc/ExcelConfig/Datas/dota/RoundBoardConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/RoundBoardConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="198">
   <si>
     <t>##</t>
   </si>
@@ -62,15 +62,12 @@
     <t>float</t>
   </si>
   <si>
-    <t>map,string,Dota.RoundEnemyConfigBean</t>
+    <t>list,Dota.RoundEnemyConfigBean</t>
   </si>
   <si>
     <t>##var</t>
   </si>
   <si>
-    <t>__key__</t>
-  </si>
-  <si>
     <t>unitname</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
     <t>回合持续时间</t>
   </si>
   <si>
+    <t>索引</t>
+  </si>
+  <si>
     <t>回合单位名</t>
   </si>
   <si>
@@ -257,37 +257,37 @@
     <t>basic10001</t>
   </si>
   <si>
-    <t>wave_1</t>
+    <t>building_enemy_1</t>
   </si>
   <si>
     <t>basic10002</t>
   </si>
   <si>
-    <t>wave_2</t>
+    <t>building_enemy_2</t>
   </si>
   <si>
     <t>basic10003</t>
   </si>
   <si>
-    <t>wave_3</t>
+    <t>building_enemy_3</t>
   </si>
   <si>
     <t>basic10004</t>
   </si>
   <si>
-    <t>wave_4</t>
+    <t>building_enemy_4</t>
   </si>
   <si>
     <t>basic10005</t>
   </si>
   <si>
-    <t>wave_5</t>
+    <t>building_enemy_5</t>
   </si>
   <si>
     <t>basic10006</t>
   </si>
   <si>
-    <t>wave_gold</t>
+    <t>building_enemy_6</t>
   </si>
   <si>
     <t>n1_3</t>
@@ -296,37 +296,37 @@
     <t>basic10007</t>
   </si>
   <si>
-    <t>wave_6</t>
+    <t>building_enemy_7</t>
   </si>
   <si>
     <t>basic10008</t>
   </si>
   <si>
-    <t>wave_7</t>
+    <t>building_enemy_8</t>
   </si>
   <si>
     <t>basic10009</t>
   </si>
   <si>
-    <t>wave_8</t>
+    <t>building_enemy_9</t>
   </si>
   <si>
     <t>basic10010</t>
   </si>
   <si>
-    <t>wave_9</t>
+    <t>building_enemy_10</t>
   </si>
   <si>
     <t>basic10011</t>
   </si>
   <si>
-    <t>wave_10</t>
+    <t>building_enemy_11</t>
   </si>
   <si>
     <t>basic10012</t>
   </si>
   <si>
-    <t>wave_goldx3</t>
+    <t>building_enemy_12</t>
   </si>
   <si>
     <t>n1_4</t>
@@ -335,145 +335,154 @@
     <t>basic10013</t>
   </si>
   <si>
-    <t>wave_11</t>
+    <t>building_enemy_13</t>
   </si>
   <si>
     <t>basic10014</t>
   </si>
   <si>
-    <t>wave_12</t>
+    <t>building_enemy_14</t>
   </si>
   <si>
     <t>basic10015</t>
   </si>
   <si>
-    <t>wave_13</t>
+    <t>building_enemy_15</t>
   </si>
   <si>
     <t>basic10016</t>
   </si>
   <si>
-    <t>wave_14</t>
+    <t>building_enemy_16</t>
   </si>
   <si>
     <t>basic10017</t>
   </si>
   <si>
-    <t>wave_15</t>
+    <t>building_enemy_17</t>
   </si>
   <si>
     <t>basic10018</t>
   </si>
   <si>
+    <t>building_enemy_18</t>
+  </si>
+  <si>
     <t>n1_5</t>
   </si>
   <si>
     <t>basic10019</t>
   </si>
   <si>
-    <t>wave_16</t>
+    <t>building_enemy_19</t>
   </si>
   <si>
     <t>basic10020</t>
   </si>
   <si>
-    <t>wave_17</t>
+    <t>building_enemy_20</t>
   </si>
   <si>
     <t>basic10021</t>
   </si>
   <si>
-    <t>wave_18</t>
+    <t>building_enemy_21</t>
   </si>
   <si>
     <t>basic10022</t>
   </si>
   <si>
-    <t>wave_19</t>
+    <t>building_enemy_22</t>
   </si>
   <si>
     <t>basic10023</t>
   </si>
   <si>
-    <t>wave_20</t>
+    <t>building_enemy_23</t>
   </si>
   <si>
     <t>basic10024</t>
   </si>
   <si>
+    <t>building_enemy_24</t>
+  </si>
+  <si>
     <t>n1_6</t>
   </si>
   <si>
     <t>basic10025</t>
   </si>
   <si>
-    <t>wave_21</t>
+    <t>building_enemy_boss_1</t>
   </si>
   <si>
     <t>basic10026</t>
   </si>
   <si>
-    <t>wave_22</t>
+    <t>building_enemy_boss_2</t>
   </si>
   <si>
     <t>basic10027</t>
   </si>
   <si>
-    <t>wave_23</t>
+    <t>building_enemy_boss_3</t>
   </si>
   <si>
     <t>basic10028</t>
   </si>
   <si>
-    <t>wave_24</t>
+    <t>building_enemy_boss_4</t>
   </si>
   <si>
     <t>basic10029</t>
   </si>
   <si>
-    <t>wave_25</t>
+    <t>building_enemy_boss_5</t>
   </si>
   <si>
     <t>basic10030</t>
   </si>
   <si>
+    <t>building_enemy_boss_6</t>
+  </si>
+  <si>
     <t>n1_7</t>
   </si>
   <si>
     <t>basic10031</t>
   </si>
   <si>
-    <t>wave_26</t>
+    <t>building_enemy_boss_7</t>
   </si>
   <si>
     <t>basic10032</t>
   </si>
   <si>
-    <t>wave_27</t>
+    <t>building_enemy_boss_8</t>
   </si>
   <si>
     <t>basic10033</t>
   </si>
   <si>
-    <t>wave_28</t>
+    <t>building_enemy_maintask_1_2</t>
   </si>
   <si>
     <t>basic10034</t>
   </si>
   <si>
-    <t>wave_29</t>
+    <t>building_enemy_maintask_1_3</t>
   </si>
   <si>
     <t>basic10035</t>
   </si>
   <si>
-    <t>wave_30</t>
+    <t>building_enemy_maintask_1_4_1</t>
   </si>
   <si>
     <t>basic10036</t>
   </si>
   <si>
-    <t>wave_phantom_roshan</t>
+    <t>building_enemy_maintask_1_4_2</t>
   </si>
   <si>
     <t>n1_8</t>
@@ -482,109 +491,118 @@
     <t>basic10037</t>
   </si>
   <si>
-    <t>wave_31</t>
+    <t>building_enemy_maintask_1_4_3</t>
   </si>
   <si>
     <t>basic10038</t>
   </si>
   <si>
-    <t>wave_32</t>
+    <t>building_enemy_maintask_1_5_1</t>
   </si>
   <si>
     <t>basic10039</t>
   </si>
   <si>
-    <t>wave_33</t>
+    <t>building_enemy_maintask_1_5_2</t>
   </si>
   <si>
     <t>basic10040</t>
   </si>
   <si>
-    <t>wave_34</t>
+    <t>building_enemy_maintask_1_6</t>
   </si>
   <si>
     <t>basic10041</t>
   </si>
   <si>
-    <t>wave_35</t>
+    <t>building_enemy_maintask_1_7</t>
   </si>
   <si>
     <t>basic10042</t>
   </si>
   <si>
+    <t>building_enemy_maintask_1_8</t>
+  </si>
+  <si>
     <t>n1_9</t>
   </si>
   <si>
     <t>basic10043</t>
   </si>
   <si>
-    <t>wave_36</t>
+    <t>building_enemy_maintask_1_9</t>
   </si>
   <si>
     <t>basic10044</t>
   </si>
   <si>
-    <t>wave_37</t>
+    <t>building_enemy_maintask_2_1</t>
   </si>
   <si>
     <t>basic10045</t>
   </si>
   <si>
-    <t>wave_38</t>
+    <t>building_enemy_maintask_2_2</t>
   </si>
   <si>
     <t>basic10046</t>
   </si>
   <si>
-    <t>wave_43</t>
+    <t>building_enemy_maintask_2_3</t>
   </si>
   <si>
     <t>basic10047</t>
   </si>
   <si>
-    <t>wave_44</t>
+    <t>building_enemy_maintask_2_4</t>
   </si>
   <si>
     <t>basic10048</t>
   </si>
   <si>
+    <t>building_enemy_maintask_2_5</t>
+  </si>
+  <si>
     <t>basic10049</t>
   </si>
   <si>
-    <t>wave_41</t>
+    <t>building_enemy_maintask_2_6</t>
   </si>
   <si>
     <t>basic10050</t>
   </si>
   <si>
-    <t>wave_42</t>
+    <t>building_enemy_maintask_2_7</t>
   </si>
   <si>
     <t>basic10051</t>
   </si>
   <si>
-    <t>wave_39</t>
+    <t>building_enemy_maintask_2_8</t>
   </si>
   <si>
     <t>basic10052</t>
   </si>
   <si>
-    <t>wave_40</t>
+    <t>building_enemy_maintask_2_9</t>
   </si>
   <si>
     <t>basic10053</t>
   </si>
   <si>
+    <t>building_enemy_maintask_3_1</t>
+  </si>
+  <si>
     <t>basic10054</t>
   </si>
   <si>
-    <t>wave_55</t>
+    <t>building_enemy_maintask_3_2</t>
   </si>
   <si>
     <t>basic10055</t>
   </si>
   <si>
-    <t>candy_boss</t>
+    <t>building_enemy_maintask_4_1</t>
   </si>
   <si>
     <t>k</t>
@@ -603,7 +621,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +653,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1096,10 +1120,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,34 +1132,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1147,98 +1168,101 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1275,6 +1299,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1597,8 +1624,8 @@
   <sheetPr/>
   <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1612,7 +1639,7 @@
     <col min="8" max="8" width="15.9166666666667" customWidth="1"/>
     <col min="9" max="9" width="15.3333333333333" customWidth="1"/>
     <col min="10" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="20.5833333333333" customWidth="1"/>
+    <col min="12" max="12" width="27.9166666666667" customWidth="1"/>
     <col min="13" max="13" width="11.3333333333333" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
@@ -1730,80 +1757,80 @@
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="U3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AA3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AB3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AC3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AE3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AG3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AH3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AI3" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="AI3" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:35">
@@ -1811,34 +1838,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>1</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>51</v>
@@ -1944,7 +1971,7 @@
       <c r="K5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="15" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="5">
@@ -2014,7 +2041,7 @@
       <c r="K6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="15" t="s">
         <v>82</v>
       </c>
       <c r="M6" s="5">
@@ -2084,7 +2111,7 @@
       <c r="K7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="15" t="s">
         <v>84</v>
       </c>
       <c r="M7" s="5">
@@ -2154,7 +2181,7 @@
       <c r="K8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="15" t="s">
         <v>86</v>
       </c>
       <c r="M8" s="5">
@@ -2224,7 +2251,7 @@
       <c r="K9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="15" t="s">
         <v>88</v>
       </c>
       <c r="M9" s="5">
@@ -2294,7 +2321,7 @@
       <c r="K10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="15" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="11">
@@ -2390,7 +2417,7 @@
       <c r="K11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="15" t="s">
         <v>93</v>
       </c>
       <c r="M11" s="5">
@@ -2460,7 +2487,7 @@
       <c r="K12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="15" t="s">
         <v>95</v>
       </c>
       <c r="M12" s="5">
@@ -2530,7 +2557,7 @@
       <c r="K13" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="15" t="s">
         <v>97</v>
       </c>
       <c r="M13" s="5">
@@ -2600,7 +2627,7 @@
       <c r="K14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="15" t="s">
         <v>99</v>
       </c>
       <c r="M14" s="5">
@@ -2670,7 +2697,7 @@
       <c r="K15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="15" t="s">
         <v>101</v>
       </c>
       <c r="M15" s="5">
@@ -2740,7 +2767,7 @@
       <c r="K16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="15" t="s">
         <v>103</v>
       </c>
       <c r="M16" s="11">
@@ -2836,7 +2863,7 @@
       <c r="K17" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="15" t="s">
         <v>106</v>
       </c>
       <c r="M17" s="5">
@@ -2906,7 +2933,7 @@
       <c r="K18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="15" t="s">
         <v>108</v>
       </c>
       <c r="M18" s="5">
@@ -2976,7 +3003,7 @@
       <c r="K19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="15" t="s">
         <v>110</v>
       </c>
       <c r="M19" s="5">
@@ -3046,7 +3073,7 @@
       <c r="K20" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="15" t="s">
         <v>112</v>
       </c>
       <c r="M20" s="5">
@@ -3116,7 +3143,7 @@
       <c r="K21" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="15" t="s">
         <v>114</v>
       </c>
       <c r="M21" s="5">
@@ -3186,8 +3213,8 @@
       <c r="K22" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="L22" s="11" t="s">
-        <v>90</v>
+      <c r="L22" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="M22" s="11">
         <v>3</v>
@@ -3261,7 +3288,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>77</v>
@@ -3282,10 +3309,10 @@
         <v>45</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L23" s="5" t="s">
         <v>118</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="M23" s="5">
         <v>1</v>
@@ -3352,10 +3379,10 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="L24" s="5" t="s">
         <v>120</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="M24" s="5">
         <v>2</v>
@@ -3422,10 +3449,10 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L25" s="5" t="s">
         <v>122</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="M25" s="5">
         <v>3</v>
@@ -3492,10 +3519,10 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="L26" s="5" t="s">
         <v>124</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="M26" s="5">
         <v>4</v>
@@ -3562,10 +3589,10 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="L27" s="5" t="s">
         <v>126</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="M27" s="5">
         <v>5</v>
@@ -3632,10 +3659,10 @@
       <c r="I28" s="5"/>
       <c r="J28" s="11"/>
       <c r="K28" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>103</v>
+        <v>128</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="M28" s="11">
         <v>3</v>
@@ -3703,13 +3730,13 @@
     </row>
     <row r="29" spans="2:35">
       <c r="B29" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C29" s="5">
         <v>5</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>77</v>
@@ -3730,10 +3757,10 @@
         <v>45</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="M29" s="5">
         <v>1</v>
@@ -3800,10 +3827,10 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="M30" s="5">
         <v>2</v>
@@ -3870,10 +3897,10 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="M31" s="5">
         <v>3</v>
@@ -3940,10 +3967,10 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="M32" s="5">
         <v>4</v>
@@ -4010,10 +4037,10 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="M33" s="5">
         <v>5</v>
@@ -4080,10 +4107,10 @@
       <c r="I34" s="5"/>
       <c r="J34" s="11"/>
       <c r="K34" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>90</v>
+        <v>141</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="M34" s="11">
         <v>3</v>
@@ -4151,13 +4178,13 @@
     </row>
     <row r="35" spans="2:35">
       <c r="B35" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C35" s="5">
         <v>6</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>77</v>
@@ -4178,10 +4205,10 @@
         <v>50</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="M35" s="5">
         <v>1</v>
@@ -4248,10 +4275,10 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="M36" s="5">
         <v>2</v>
@@ -4318,10 +4345,10 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="M37" s="5">
         <v>3</v>
@@ -4388,10 +4415,10 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="M38" s="5">
         <v>4</v>
@@ -4458,10 +4485,10 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="M39" s="5">
         <v>5</v>
@@ -4528,10 +4555,10 @@
       <c r="I40" s="5"/>
       <c r="J40" s="11"/>
       <c r="K40" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="M40" s="11">
         <v>3</v>
@@ -4587,13 +4614,13 @@
     </row>
     <row r="41" spans="2:35">
       <c r="B41" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C41" s="5">
         <v>7</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>77</v>
@@ -4614,10 +4641,10 @@
         <v>20</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="M41" s="5">
         <v>1</v>
@@ -4684,10 +4711,10 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="M42" s="5">
         <v>2</v>
@@ -4754,10 +4781,10 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="M43" s="5">
         <v>3</v>
@@ -4824,10 +4851,10 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="M44" s="5">
         <v>4</v>
@@ -4894,10 +4921,10 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="M45" s="5">
         <v>5</v>
@@ -4964,10 +4991,10 @@
       <c r="I46" s="5"/>
       <c r="J46" s="11"/>
       <c r="K46" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>103</v>
+        <v>167</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="M46" s="11">
         <v>3</v>
@@ -5035,13 +5062,13 @@
     </row>
     <row r="47" spans="2:35">
       <c r="B47" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C47" s="5">
         <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>77</v>
@@ -5062,10 +5089,10 @@
         <v>45</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="M47" s="5">
         <v>1</v>
@@ -5132,10 +5159,10 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="M48" s="5">
         <v>2</v>
@@ -5202,10 +5229,10 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="M49" s="5">
         <v>3</v>
@@ -5272,10 +5299,10 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="M50" s="5">
         <v>4</v>
@@ -5342,10 +5369,10 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="M51" s="5">
         <v>5</v>
@@ -5412,10 +5439,10 @@
       <c r="I52" s="5"/>
       <c r="J52" s="11"/>
       <c r="K52" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>90</v>
+        <v>180</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="M52" s="11">
         <v>3</v>
@@ -5483,7 +5510,7 @@
     </row>
     <row r="53" spans="2:35">
       <c r="B53" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C53" s="5">
         <v>9</v>
@@ -5508,10 +5535,10 @@
         <v>45</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="M53" s="5">
         <v>1</v>
@@ -5578,10 +5605,10 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="M54" s="5">
         <v>2</v>
@@ -5648,10 +5675,10 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="M55" s="5">
         <v>3</v>
@@ -5718,10 +5745,10 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="M56" s="5">
         <v>4</v>
@@ -5788,10 +5815,10 @@
       <c r="I57" s="5"/>
       <c r="J57" s="11"/>
       <c r="K57" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="L57" s="11" t="s">
-        <v>103</v>
+        <v>190</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="M57" s="5">
         <v>5</v>
@@ -5868,10 +5895,10 @@
       <c r="I58" s="5"/>
       <c r="J58" s="11"/>
       <c r="K58" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L58" s="11" t="s">
-        <v>187</v>
+        <v>192</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>193</v>
       </c>
       <c r="M58" s="11">
         <v>3</v>
@@ -5938,10 +5965,10 @@
       <c r="I59" s="5"/>
       <c r="J59" s="11"/>
       <c r="K59" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="L59" s="11" t="s">
-        <v>189</v>
+        <v>194</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="M59" s="11">
         <v>4</v>
@@ -6012,8 +6039,8 @@
   <sheetPr/>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:AI4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -6114,85 +6141,85 @@
         <v>16</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="28" spans="1:35">
       <c r="A4" s="7"/>
       <c r="K4" s="5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>51</v>

--- a/Doc/ExcelConfig/Datas/dota/RoundBoardConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/RoundBoardConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="189">
   <si>
     <t>##</t>
   </si>
@@ -257,37 +257,37 @@
     <t>basic10001</t>
   </si>
   <si>
-    <t>building_enemy_1</t>
+    <t>building_enemy_abaddon</t>
   </si>
   <si>
     <t>basic10002</t>
   </si>
   <si>
-    <t>building_enemy_2</t>
+    <t>building_enemy_abyssal_underlord</t>
   </si>
   <si>
     <t>basic10003</t>
   </si>
   <si>
-    <t>building_enemy_3</t>
+    <t>building_enemy_alchemist</t>
   </si>
   <si>
     <t>basic10004</t>
   </si>
   <si>
-    <t>building_enemy_4</t>
+    <t>building_enemy_ancient_apparition</t>
   </si>
   <si>
     <t>basic10005</t>
   </si>
   <si>
-    <t>building_enemy_5</t>
+    <t>building_enemy_antimage</t>
   </si>
   <si>
     <t>basic10006</t>
   </si>
   <si>
-    <t>building_enemy_6</t>
+    <t>building_enemy_arc_warden</t>
   </si>
   <si>
     <t>n1_3</t>
@@ -296,37 +296,37 @@
     <t>basic10007</t>
   </si>
   <si>
-    <t>building_enemy_7</t>
+    <t>building_enemy_axe</t>
   </si>
   <si>
     <t>basic10008</t>
   </si>
   <si>
-    <t>building_enemy_8</t>
+    <t>building_enemy_bane</t>
   </si>
   <si>
     <t>basic10009</t>
   </si>
   <si>
-    <t>building_enemy_9</t>
+    <t>building_enemy_batrider</t>
   </si>
   <si>
     <t>basic10010</t>
   </si>
   <si>
-    <t>building_enemy_10</t>
+    <t>building_enemy_beastmaster</t>
   </si>
   <si>
     <t>basic10011</t>
   </si>
   <si>
-    <t>building_enemy_11</t>
+    <t>building_enemy_bloodseeker</t>
   </si>
   <si>
     <t>basic10012</t>
   </si>
   <si>
-    <t>building_enemy_12</t>
+    <t>building_enemy_bounty_hunter</t>
   </si>
   <si>
     <t>n1_4</t>
@@ -335,37 +335,37 @@
     <t>basic10013</t>
   </si>
   <si>
-    <t>building_enemy_13</t>
+    <t>building_enemy_brewmaster</t>
   </si>
   <si>
     <t>basic10014</t>
   </si>
   <si>
-    <t>building_enemy_14</t>
+    <t>building_enemy_bristleback</t>
   </si>
   <si>
     <t>basic10015</t>
   </si>
   <si>
-    <t>building_enemy_15</t>
+    <t>building_enemy_broodmother</t>
   </si>
   <si>
     <t>basic10016</t>
   </si>
   <si>
-    <t>building_enemy_16</t>
+    <t>building_enemy_centaur</t>
   </si>
   <si>
     <t>basic10017</t>
   </si>
   <si>
-    <t>building_enemy_17</t>
+    <t>building_enemy_chaos_knight</t>
   </si>
   <si>
     <t>basic10018</t>
   </si>
   <si>
-    <t>building_enemy_18</t>
+    <t>building_enemy_chen</t>
   </si>
   <si>
     <t>n1_5</t>
@@ -374,37 +374,37 @@
     <t>basic10019</t>
   </si>
   <si>
-    <t>building_enemy_19</t>
+    <t>building_enemy_clinkz</t>
   </si>
   <si>
     <t>basic10020</t>
   </si>
   <si>
-    <t>building_enemy_20</t>
+    <t>building_enemy_crystal_maiden</t>
   </si>
   <si>
     <t>basic10021</t>
   </si>
   <si>
-    <t>building_enemy_21</t>
+    <t>building_enemy_dark_seer</t>
   </si>
   <si>
     <t>basic10022</t>
   </si>
   <si>
-    <t>building_enemy_22</t>
+    <t>building_enemy_dark_willow</t>
   </si>
   <si>
     <t>basic10023</t>
   </si>
   <si>
-    <t>building_enemy_23</t>
+    <t>building_enemy_dawnbreaker</t>
   </si>
   <si>
     <t>basic10024</t>
   </si>
   <si>
-    <t>building_enemy_24</t>
+    <t>building_enemy_dazzle</t>
   </si>
   <si>
     <t>n1_6</t>
@@ -413,37 +413,37 @@
     <t>basic10025</t>
   </si>
   <si>
-    <t>building_enemy_boss_1</t>
+    <t>building_enemy_death_prophet</t>
   </si>
   <si>
     <t>basic10026</t>
   </si>
   <si>
-    <t>building_enemy_boss_2</t>
+    <t>building_enemy_disruptor</t>
   </si>
   <si>
     <t>basic10027</t>
   </si>
   <si>
-    <t>building_enemy_boss_3</t>
+    <t>building_enemy_doom_bringer</t>
   </si>
   <si>
     <t>basic10028</t>
   </si>
   <si>
-    <t>building_enemy_boss_4</t>
+    <t>building_enemy_dragon_knight</t>
   </si>
   <si>
     <t>basic10029</t>
   </si>
   <si>
-    <t>building_enemy_boss_5</t>
+    <t>building_enemy_drow_ranger</t>
   </si>
   <si>
     <t>basic10030</t>
   </si>
   <si>
-    <t>building_enemy_boss_6</t>
+    <t>building_enemy_earth_spirit</t>
   </si>
   <si>
     <t>n1_7</t>
@@ -452,37 +452,37 @@
     <t>basic10031</t>
   </si>
   <si>
-    <t>building_enemy_boss_7</t>
+    <t>building_enemy_earthshaker</t>
   </si>
   <si>
     <t>basic10032</t>
   </si>
   <si>
-    <t>building_enemy_boss_8</t>
+    <t>building_enemy_elder_titan</t>
   </si>
   <si>
     <t>basic10033</t>
   </si>
   <si>
-    <t>building_enemy_maintask_1_2</t>
+    <t>building_enemy_ember_spirit</t>
   </si>
   <si>
     <t>basic10034</t>
   </si>
   <si>
-    <t>building_enemy_maintask_1_3</t>
+    <t>building_enemy_enchantress</t>
   </si>
   <si>
     <t>basic10035</t>
   </si>
   <si>
-    <t>building_enemy_maintask_1_4_1</t>
+    <t>building_enemy_enigma</t>
   </si>
   <si>
     <t>basic10036</t>
   </si>
   <si>
-    <t>building_enemy_maintask_1_4_2</t>
+    <t>building_enemy_faceless_void</t>
   </si>
   <si>
     <t>n1_8</t>
@@ -491,37 +491,37 @@
     <t>basic10037</t>
   </si>
   <si>
-    <t>building_enemy_maintask_1_4_3</t>
+    <t>building_enemy_furion</t>
   </si>
   <si>
     <t>basic10038</t>
   </si>
   <si>
-    <t>building_enemy_maintask_1_5_1</t>
+    <t>building_enemy_grimstroke</t>
   </si>
   <si>
     <t>basic10039</t>
   </si>
   <si>
-    <t>building_enemy_maintask_1_5_2</t>
+    <t>building_enemy_gyrocopter</t>
   </si>
   <si>
     <t>basic10040</t>
   </si>
   <si>
-    <t>building_enemy_maintask_1_6</t>
+    <t>building_enemy_hoodwink</t>
   </si>
   <si>
     <t>basic10041</t>
   </si>
   <si>
-    <t>building_enemy_maintask_1_7</t>
+    <t>building_enemy_huskar</t>
   </si>
   <si>
     <t>basic10042</t>
   </si>
   <si>
-    <t>building_enemy_maintask_1_8</t>
+    <t>building_enemy_invoker</t>
   </si>
   <si>
     <t>n1_9</t>
@@ -530,79 +530,52 @@
     <t>basic10043</t>
   </si>
   <si>
-    <t>building_enemy_maintask_1_9</t>
+    <t>building_enemy_jakiro</t>
   </si>
   <si>
     <t>basic10044</t>
   </si>
   <si>
-    <t>building_enemy_maintask_2_1</t>
+    <t>building_enemy_juggernaut</t>
   </si>
   <si>
     <t>basic10045</t>
   </si>
   <si>
-    <t>building_enemy_maintask_2_2</t>
+    <t>building_enemy_keeper_of_the_light</t>
   </si>
   <si>
     <t>basic10046</t>
   </si>
   <si>
-    <t>building_enemy_maintask_2_3</t>
+    <t>building_enemy_kunkka</t>
   </si>
   <si>
     <t>basic10047</t>
   </si>
   <si>
-    <t>building_enemy_maintask_2_4</t>
-  </si>
-  <si>
     <t>basic10048</t>
   </si>
   <si>
-    <t>building_enemy_maintask_2_5</t>
-  </si>
-  <si>
     <t>basic10049</t>
   </si>
   <si>
-    <t>building_enemy_maintask_2_6</t>
-  </si>
-  <si>
     <t>basic10050</t>
   </si>
   <si>
-    <t>building_enemy_maintask_2_7</t>
-  </si>
-  <si>
     <t>basic10051</t>
   </si>
   <si>
-    <t>building_enemy_maintask_2_8</t>
-  </si>
-  <si>
     <t>basic10052</t>
   </si>
   <si>
-    <t>building_enemy_maintask_2_9</t>
-  </si>
-  <si>
     <t>basic10053</t>
   </si>
   <si>
-    <t>building_enemy_maintask_3_1</t>
-  </si>
-  <si>
     <t>basic10054</t>
   </si>
   <si>
-    <t>building_enemy_maintask_3_2</t>
-  </si>
-  <si>
     <t>basic10055</t>
-  </si>
-  <si>
-    <t>building_enemy_maintask_4_1</t>
   </si>
   <si>
     <t>k</t>
@@ -621,7 +594,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,12 +626,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -808,7 +775,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,6 +798,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFACB9CA"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1120,10 +1093,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,31 +1105,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1168,101 +1144,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,8 +1273,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1624,8 +1600,8 @@
   <sheetPr/>
   <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1639,7 +1615,7 @@
     <col min="8" max="8" width="15.9166666666667" customWidth="1"/>
     <col min="9" max="9" width="15.3333333333333" customWidth="1"/>
     <col min="10" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="27.9166666666667" customWidth="1"/>
+    <col min="12" max="12" width="33.75" customWidth="1"/>
     <col min="13" max="13" width="11.3333333333333" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
@@ -1940,7 +1916,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="2:35">
+    <row r="5" ht="15.5" spans="2:35">
       <c r="B5" s="5" t="s">
         <v>75</v>
       </c>
@@ -2028,7 +2004,7 @@
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
     </row>
-    <row r="6" spans="2:35">
+    <row r="6" ht="15.5" spans="2:35">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2098,7 +2074,7 @@
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
     </row>
-    <row r="7" spans="2:35">
+    <row r="7" ht="15.5" spans="2:35">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2168,7 +2144,7 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
     </row>
-    <row r="8" spans="2:35">
+    <row r="8" ht="15.5" spans="2:35">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2238,7 +2214,7 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
     </row>
-    <row r="9" spans="2:35">
+    <row r="9" ht="15.5" spans="2:35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2308,7 +2284,7 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
     </row>
-    <row r="10" spans="2:35">
+    <row r="10" ht="15.5" spans="2:35">
       <c r="B10" s="5"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5"/>
@@ -2386,7 +2362,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="2:35">
+    <row r="11" ht="15.5" spans="2:35">
       <c r="B11" s="5" t="s">
         <v>76</v>
       </c>
@@ -2474,7 +2450,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
     </row>
-    <row r="12" spans="2:35">
+    <row r="12" ht="15.5" spans="2:35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2544,7 +2520,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
     </row>
-    <row r="13" spans="2:35">
+    <row r="13" ht="15.5" spans="2:35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2614,7 +2590,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
     </row>
-    <row r="14" spans="2:35">
+    <row r="14" ht="15.5" spans="2:35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2684,7 +2660,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
     </row>
-    <row r="15" spans="2:35">
+    <row r="15" ht="15.5" spans="2:35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2754,7 +2730,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
     </row>
-    <row r="16" spans="2:35">
+    <row r="16" ht="15.5" spans="2:35">
       <c r="B16" s="5"/>
       <c r="C16" s="11"/>
       <c r="D16" s="5"/>
@@ -2832,7 +2808,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="17" spans="2:35">
+    <row r="17" ht="15.5" spans="2:35">
       <c r="B17" s="5" t="s">
         <v>91</v>
       </c>
@@ -2920,7 +2896,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
     </row>
-    <row r="18" spans="2:35">
+    <row r="18" ht="15.5" spans="2:35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2990,7 +2966,7 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
     </row>
-    <row r="19" spans="2:35">
+    <row r="19" ht="15.5" spans="2:35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -3060,7 +3036,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
     </row>
-    <row r="20" spans="2:35">
+    <row r="20" ht="15.5" spans="2:35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -3130,7 +3106,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
     </row>
-    <row r="21" spans="2:35">
+    <row r="21" ht="15.5" spans="2:35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -3200,7 +3176,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
     </row>
-    <row r="22" spans="2:35">
+    <row r="22" ht="15.5" spans="2:35">
       <c r="B22" s="5"/>
       <c r="C22" s="11"/>
       <c r="D22" s="5"/>
@@ -3280,7 +3256,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="23" spans="2:35">
+    <row r="23" ht="15.5" spans="2:35">
       <c r="B23" s="5" t="s">
         <v>104</v>
       </c>
@@ -3368,7 +3344,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
     </row>
-    <row r="24" spans="2:35">
+    <row r="24" ht="15.5" spans="2:35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -3438,7 +3414,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
     </row>
-    <row r="25" spans="2:35">
+    <row r="25" ht="15.5" spans="2:35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -3508,7 +3484,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
     </row>
-    <row r="26" spans="2:35">
+    <row r="26" ht="15.5" spans="2:35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -3578,7 +3554,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
     </row>
-    <row r="27" spans="2:35">
+    <row r="27" ht="15.5" spans="2:35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -3591,7 +3567,7 @@
       <c r="K27" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="L27" s="16" t="s">
         <v>127</v>
       </c>
       <c r="M27" s="5">
@@ -3648,7 +3624,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
     </row>
-    <row r="28" spans="2:35">
+    <row r="28" ht="15.5" spans="2:35">
       <c r="B28" s="5"/>
       <c r="C28" s="11"/>
       <c r="D28" s="5"/>
@@ -3728,7 +3704,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="29" spans="2:35">
+    <row r="29" ht="15.5" spans="2:35">
       <c r="B29" s="5" t="s">
         <v>117</v>
       </c>
@@ -3759,7 +3735,7 @@
       <c r="K29" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="L29" s="16" t="s">
         <v>132</v>
       </c>
       <c r="M29" s="5">
@@ -3816,7 +3792,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
     </row>
-    <row r="30" spans="2:35">
+    <row r="30" ht="15.5" spans="2:35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -3886,7 +3862,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
     </row>
-    <row r="31" spans="2:35">
+    <row r="31" ht="15.5" spans="2:35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -3899,7 +3875,7 @@
       <c r="K31" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="L31" s="15" t="s">
+      <c r="L31" s="16" t="s">
         <v>136</v>
       </c>
       <c r="M31" s="5">
@@ -3956,7 +3932,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
     </row>
-    <row r="32" spans="2:35">
+    <row r="32" ht="15.5" spans="2:35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -4026,7 +4002,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
     </row>
-    <row r="33" spans="2:35">
+    <row r="33" ht="15.5" spans="2:35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -4096,7 +4072,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
     </row>
-    <row r="34" spans="2:35">
+    <row r="34" ht="15.5" spans="2:35">
       <c r="B34" s="5"/>
       <c r="C34" s="11"/>
       <c r="D34" s="5"/>
@@ -4176,7 +4152,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="35" spans="2:35">
+    <row r="35" ht="15.5" spans="2:35">
       <c r="B35" s="5" t="s">
         <v>130</v>
       </c>
@@ -4264,7 +4240,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
     </row>
-    <row r="36" spans="2:35">
+    <row r="36" ht="15.5" spans="2:35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -4334,7 +4310,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
     </row>
-    <row r="37" spans="2:35">
+    <row r="37" ht="15.5" spans="2:35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -4404,7 +4380,7 @@
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
     </row>
-    <row r="38" spans="2:35">
+    <row r="38" ht="15.5" spans="2:35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -4474,7 +4450,7 @@
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
     </row>
-    <row r="39" spans="2:35">
+    <row r="39" ht="15.5" spans="2:35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -4544,7 +4520,7 @@
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
     </row>
-    <row r="40" spans="2:35">
+    <row r="40" ht="15.5" spans="2:35">
       <c r="B40" s="5"/>
       <c r="C40" s="11"/>
       <c r="D40" s="5"/>
@@ -4612,7 +4588,7 @@
       <c r="AH40" s="11"/>
       <c r="AI40" s="11"/>
     </row>
-    <row r="41" spans="2:35">
+    <row r="41" ht="15.5" spans="2:35">
       <c r="B41" s="5" t="s">
         <v>143</v>
       </c>
@@ -4643,7 +4619,7 @@
       <c r="K41" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="L41" s="15" t="s">
+      <c r="L41" s="16" t="s">
         <v>158</v>
       </c>
       <c r="M41" s="5">
@@ -4700,7 +4676,7 @@
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
     </row>
-    <row r="42" spans="2:35">
+    <row r="42" ht="15.5" spans="2:35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -4770,7 +4746,7 @@
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
     </row>
-    <row r="43" spans="2:35">
+    <row r="43" ht="15.5" spans="2:35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -4840,7 +4816,7 @@
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
     </row>
-    <row r="44" spans="2:35">
+    <row r="44" ht="15.5" spans="2:35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -4853,7 +4829,7 @@
       <c r="K44" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="L44" s="15" t="s">
+      <c r="L44" s="16" t="s">
         <v>164</v>
       </c>
       <c r="M44" s="5">
@@ -4910,7 +4886,7 @@
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
     </row>
-    <row r="45" spans="2:35">
+    <row r="45" ht="15.5" spans="2:35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -4980,7 +4956,7 @@
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
     </row>
-    <row r="46" spans="2:35">
+    <row r="46" ht="15.5" spans="2:35">
       <c r="B46" s="5"/>
       <c r="C46" s="11"/>
       <c r="D46" s="5"/>
@@ -5060,7 +5036,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="47" spans="2:35">
+    <row r="47" ht="15.5" spans="2:35">
       <c r="B47" s="5" t="s">
         <v>156</v>
       </c>
@@ -5148,7 +5124,7 @@
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
     </row>
-    <row r="48" spans="2:35">
+    <row r="48" ht="15.5" spans="2:35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -5218,7 +5194,7 @@
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
     </row>
-    <row r="49" spans="2:35">
+    <row r="49" ht="15.5" spans="2:35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -5288,7 +5264,7 @@
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
     </row>
-    <row r="50" spans="2:35">
+    <row r="50" ht="15.5" spans="2:35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -5358,7 +5334,7 @@
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
     </row>
-    <row r="51" spans="2:35">
+    <row r="51" ht="15.5" spans="2:35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -5372,7 +5348,7 @@
         <v>178</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="M51" s="5">
         <v>5</v>
@@ -5428,7 +5404,7 @@
       <c r="AH51" s="5"/>
       <c r="AI51" s="5"/>
     </row>
-    <row r="52" spans="2:35">
+    <row r="52" ht="15.5" spans="2:35">
       <c r="B52" s="5"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -5439,10 +5415,10 @@
       <c r="I52" s="5"/>
       <c r="J52" s="11"/>
       <c r="K52" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M52" s="11">
         <v>3</v>
@@ -5508,7 +5484,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="53" spans="2:35">
+    <row r="53" ht="15.5" spans="2:35">
       <c r="B53" s="5" t="s">
         <v>169</v>
       </c>
@@ -5535,10 +5511,10 @@
         <v>45</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="L53" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="M53" s="5">
         <v>1</v>
@@ -5594,7 +5570,7 @@
       <c r="AH53" s="5"/>
       <c r="AI53" s="5"/>
     </row>
-    <row r="54" spans="2:35">
+    <row r="54" ht="15.5" spans="2:35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -5605,10 +5581,10 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="M54" s="5">
         <v>2</v>
@@ -5664,7 +5640,7 @@
       <c r="AH54" s="5"/>
       <c r="AI54" s="5"/>
     </row>
-    <row r="55" spans="2:35">
+    <row r="55" ht="15.5" spans="2:35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -5675,10 +5651,10 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="M55" s="5">
         <v>3</v>
@@ -5734,7 +5710,7 @@
       <c r="AH55" s="5"/>
       <c r="AI55" s="5"/>
     </row>
-    <row r="56" spans="2:35">
+    <row r="56" ht="15.5" spans="2:35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -5745,10 +5721,10 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="M56" s="5">
         <v>4</v>
@@ -5804,7 +5780,7 @@
       <c r="AH56" s="5"/>
       <c r="AI56" s="5"/>
     </row>
-    <row r="57" spans="2:35">
+    <row r="57" ht="15.5" spans="2:35">
       <c r="B57" s="5"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -5815,10 +5791,10 @@
       <c r="I57" s="5"/>
       <c r="J57" s="11"/>
       <c r="K57" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="M57" s="5">
         <v>5</v>
@@ -5884,7 +5860,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="58" spans="2:35">
+    <row r="58" ht="15.5" spans="2:35">
       <c r="B58" s="5"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -5895,10 +5871,10 @@
       <c r="I58" s="5"/>
       <c r="J58" s="11"/>
       <c r="K58" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L58" s="15" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="M58" s="11">
         <v>3</v>
@@ -5954,7 +5930,7 @@
       <c r="AH58" s="11"/>
       <c r="AI58" s="11"/>
     </row>
-    <row r="59" spans="2:35">
+    <row r="59" ht="15.5" spans="2:35">
       <c r="B59" s="5"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -5965,10 +5941,10 @@
       <c r="I59" s="5"/>
       <c r="J59" s="11"/>
       <c r="K59" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="M59" s="11">
         <v>4</v>
@@ -6141,7 +6117,7 @@
         <v>16</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>17</v>
@@ -6219,7 +6195,7 @@
     <row r="4" s="2" customFormat="1" ht="28" spans="1:35">
       <c r="A4" s="7"/>
       <c r="K4" s="5" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>51</v>

--- a/Doc/ExcelConfig/Datas/dota/RoundBoardConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/RoundBoardConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="221">
   <si>
     <t>##</t>
   </si>
@@ -95,526 +95,532 @@
     <t>isground</t>
   </si>
   <si>
+    <t>atkpect</t>
+  </si>
+  <si>
+    <t>hppect</t>
+  </si>
+  <si>
+    <t>phyarmpect</t>
+  </si>
+  <si>
+    <t>magicarmpect</t>
+  </si>
+  <si>
+    <t>gold_min</t>
+  </si>
+  <si>
+    <t>gold_max</t>
+  </si>
+  <si>
+    <t>elite_drop_index</t>
+  </si>
+  <si>
+    <t>spawn_buff</t>
+  </si>
+  <si>
+    <t>回合编号</t>
+  </si>
+  <si>
+    <t>回合显示数</t>
+  </si>
+  <si>
+    <t>下一回合编号</t>
+  </si>
+  <si>
+    <t>回合类型</t>
+  </si>
+  <si>
+    <t>回合标签</t>
+  </si>
+  <si>
+    <t>奖励金币</t>
+  </si>
+  <si>
+    <t>奖励木材</t>
+  </si>
+  <si>
+    <t>回合准备时间</t>
+  </si>
+  <si>
+    <t>回合持续时间</t>
+  </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t>回合单位名</t>
+  </si>
+  <si>
+    <t>星级</t>
+  </si>
+  <si>
+    <t>位置x[0-7]</t>
+  </si>
+  <si>
+    <t>位置y[1-9]</t>
+  </si>
+  <si>
+    <t>朝向x</t>
+  </si>
+  <si>
+    <t>朝向y</t>
+  </si>
+  <si>
+    <t>朝向z</t>
+  </si>
+  <si>
+    <t>是否随机坐标</t>
+  </si>
+  <si>
+    <t>是否在地面上</t>
+  </si>
+  <si>
+    <t>回合攻击系数</t>
+  </si>
+  <si>
+    <t>回合血量系数</t>
+  </si>
+  <si>
+    <t>物理护甲系数</t>
+  </si>
+  <si>
+    <t>魔法护甲系数</t>
+  </si>
+  <si>
+    <t>单个怪物击杀金币min</t>
+  </si>
+  <si>
+    <t>单个怪物击杀金币max</t>
+  </si>
+  <si>
+    <t>精英怪掉落池编号</t>
+  </si>
+  <si>
+    <t>单位自带buff</t>
+  </si>
+  <si>
+    <t>n1_1</t>
+  </si>
+  <si>
+    <t>n1_2</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>basic10001</t>
+  </si>
+  <si>
+    <t>building_enemy_abaddon</t>
+  </si>
+  <si>
+    <t>basic10002</t>
+  </si>
+  <si>
+    <t>building_enemy_abyssal_underlord</t>
+  </si>
+  <si>
+    <t>basic10003</t>
+  </si>
+  <si>
+    <t>building_enemy_alchemist</t>
+  </si>
+  <si>
+    <t>basic10004</t>
+  </si>
+  <si>
+    <t>building_enemy_ancient_apparition</t>
+  </si>
+  <si>
+    <t>basic10005</t>
+  </si>
+  <si>
+    <t>building_enemy_antimage</t>
+  </si>
+  <si>
+    <t>basic10006</t>
+  </si>
+  <si>
+    <t>building_enemy_arc_warden</t>
+  </si>
+  <si>
+    <t>n1_3</t>
+  </si>
+  <si>
+    <t>basic10007</t>
+  </si>
+  <si>
+    <t>building_enemy_axe</t>
+  </si>
+  <si>
+    <t>basic10008</t>
+  </si>
+  <si>
+    <t>building_enemy_bane</t>
+  </si>
+  <si>
+    <t>basic10009</t>
+  </si>
+  <si>
+    <t>building_enemy_batrider</t>
+  </si>
+  <si>
+    <t>basic10010</t>
+  </si>
+  <si>
+    <t>building_enemy_beastmaster</t>
+  </si>
+  <si>
+    <t>basic10011</t>
+  </si>
+  <si>
+    <t>building_enemy_bloodseeker</t>
+  </si>
+  <si>
+    <t>basic10012</t>
+  </si>
+  <si>
+    <t>building_enemy_bounty_hunter</t>
+  </si>
+  <si>
+    <t>n1_4</t>
+  </si>
+  <si>
+    <t>basic10013</t>
+  </si>
+  <si>
+    <t>building_enemy_brewmaster</t>
+  </si>
+  <si>
+    <t>basic10014</t>
+  </si>
+  <si>
+    <t>building_enemy_bristleback</t>
+  </si>
+  <si>
+    <t>basic10015</t>
+  </si>
+  <si>
+    <t>building_enemy_broodmother</t>
+  </si>
+  <si>
+    <t>basic10016</t>
+  </si>
+  <si>
+    <t>building_enemy_centaur</t>
+  </si>
+  <si>
+    <t>basic10017</t>
+  </si>
+  <si>
+    <t>building_enemy_chaos_knight</t>
+  </si>
+  <si>
+    <t>basic10018</t>
+  </si>
+  <si>
+    <t>building_enemy_chen</t>
+  </si>
+  <si>
+    <t>n1_5</t>
+  </si>
+  <si>
+    <t>basic10019</t>
+  </si>
+  <si>
+    <t>building_enemy_clinkz</t>
+  </si>
+  <si>
+    <t>basic10020</t>
+  </si>
+  <si>
+    <t>building_enemy_crystal_maiden</t>
+  </si>
+  <si>
+    <t>basic10021</t>
+  </si>
+  <si>
+    <t>building_enemy_dark_seer</t>
+  </si>
+  <si>
+    <t>basic10022</t>
+  </si>
+  <si>
+    <t>building_enemy_dark_willow</t>
+  </si>
+  <si>
+    <t>basic10023</t>
+  </si>
+  <si>
+    <t>building_enemy_dawnbreaker</t>
+  </si>
+  <si>
+    <t>basic10024</t>
+  </si>
+  <si>
+    <t>building_enemy_dazzle</t>
+  </si>
+  <si>
+    <t>n1_6</t>
+  </si>
+  <si>
+    <t>basic10025</t>
+  </si>
+  <si>
+    <t>building_enemy_death_prophet</t>
+  </si>
+  <si>
+    <t>basic10026</t>
+  </si>
+  <si>
+    <t>building_enemy_disruptor</t>
+  </si>
+  <si>
+    <t>basic10027</t>
+  </si>
+  <si>
+    <t>building_enemy_doom_bringer</t>
+  </si>
+  <si>
+    <t>basic10028</t>
+  </si>
+  <si>
+    <t>building_enemy_dragon_knight</t>
+  </si>
+  <si>
+    <t>basic10029</t>
+  </si>
+  <si>
+    <t>building_enemy_drow_ranger</t>
+  </si>
+  <si>
+    <t>basic10030</t>
+  </si>
+  <si>
+    <t>building_enemy_earth_spirit</t>
+  </si>
+  <si>
+    <t>n1_7</t>
+  </si>
+  <si>
+    <t>basic10031</t>
+  </si>
+  <si>
+    <t>building_enemy_earthshaker</t>
+  </si>
+  <si>
+    <t>basic10032</t>
+  </si>
+  <si>
+    <t>building_enemy_elder_titan</t>
+  </si>
+  <si>
+    <t>basic10033</t>
+  </si>
+  <si>
+    <t>building_enemy_ember_spirit</t>
+  </si>
+  <si>
+    <t>basic10034</t>
+  </si>
+  <si>
+    <t>building_enemy_enchantress</t>
+  </si>
+  <si>
+    <t>basic10035</t>
+  </si>
+  <si>
+    <t>building_enemy_enigma</t>
+  </si>
+  <si>
+    <t>basic10036</t>
+  </si>
+  <si>
+    <t>building_enemy_faceless_void</t>
+  </si>
+  <si>
+    <t>n1_8</t>
+  </si>
+  <si>
+    <t>basic10037</t>
+  </si>
+  <si>
+    <t>building_enemy_furion</t>
+  </si>
+  <si>
+    <t>basic10038</t>
+  </si>
+  <si>
+    <t>building_enemy_grimstroke</t>
+  </si>
+  <si>
+    <t>basic10039</t>
+  </si>
+  <si>
+    <t>building_enemy_gyrocopter</t>
+  </si>
+  <si>
+    <t>basic10040</t>
+  </si>
+  <si>
+    <t>building_enemy_hoodwink</t>
+  </si>
+  <si>
+    <t>basic10041</t>
+  </si>
+  <si>
+    <t>building_enemy_huskar</t>
+  </si>
+  <si>
+    <t>basic10042</t>
+  </si>
+  <si>
+    <t>building_enemy_invoker</t>
+  </si>
+  <si>
+    <t>n1_9</t>
+  </si>
+  <si>
+    <t>basic10043</t>
+  </si>
+  <si>
+    <t>building_enemy_jakiro</t>
+  </si>
+  <si>
+    <t>basic10044</t>
+  </si>
+  <si>
+    <t>building_enemy_juggernaut</t>
+  </si>
+  <si>
+    <t>basic10045</t>
+  </si>
+  <si>
+    <t>building_enemy_keeper_of_the_light</t>
+  </si>
+  <si>
+    <t>basic10046</t>
+  </si>
+  <si>
+    <t>building_enemy_kunkka</t>
+  </si>
+  <si>
+    <t>basic10047</t>
+  </si>
+  <si>
+    <t>basic10048</t>
+  </si>
+  <si>
+    <t>n1_10</t>
+  </si>
+  <si>
+    <t>basic10049</t>
+  </si>
+  <si>
+    <t>basic10050</t>
+  </si>
+  <si>
+    <t>basic10051</t>
+  </si>
+  <si>
+    <t>basic10052</t>
+  </si>
+  <si>
+    <t>basic10053</t>
+  </si>
+  <si>
+    <t>basic10054</t>
+  </si>
+  <si>
+    <t>n1_11</t>
+  </si>
+  <si>
+    <t>n1_12</t>
+  </si>
+  <si>
+    <t>n1_13</t>
+  </si>
+  <si>
+    <t>n1_14</t>
+  </si>
+  <si>
+    <t>n1_15</t>
+  </si>
+  <si>
+    <t>n1_16</t>
+  </si>
+  <si>
+    <t>n1_17</t>
+  </si>
+  <si>
+    <t>n1_18</t>
+  </si>
+  <si>
+    <t>n1_19</t>
+  </si>
+  <si>
+    <t>n1_20</t>
+  </si>
+  <si>
+    <t>n1_21</t>
+  </si>
+  <si>
+    <t>n1_22</t>
+  </si>
+  <si>
+    <t>n1_23</t>
+  </si>
+  <si>
+    <t>n1_24</t>
+  </si>
+  <si>
+    <t>n1_25</t>
+  </si>
+  <si>
+    <t>n1_26</t>
+  </si>
+  <si>
+    <t>n1_27</t>
+  </si>
+  <si>
+    <t>n1_28</t>
+  </si>
+  <si>
+    <t>n1_29</t>
+  </si>
+  <si>
+    <t>n1_30</t>
+  </si>
+  <si>
+    <t>n1_31</t>
+  </si>
+  <si>
+    <t>n1_32</t>
+  </si>
+  <si>
+    <t>n1_33</t>
+  </si>
+  <si>
+    <t>n1_34</t>
+  </si>
+  <si>
+    <t>n1_35</t>
+  </si>
+  <si>
+    <t>n1_36</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
     <t>atk</t>
   </si>
   <si>
     <t>hp</t>
-  </si>
-  <si>
-    <t>phyarm</t>
-  </si>
-  <si>
-    <t>magicarm</t>
-  </si>
-  <si>
-    <t>gold_min</t>
-  </si>
-  <si>
-    <t>gold_max</t>
-  </si>
-  <si>
-    <t>elite_drop_index</t>
-  </si>
-  <si>
-    <t>spawn_buff</t>
-  </si>
-  <si>
-    <t>回合编号</t>
-  </si>
-  <si>
-    <t>回合显示数</t>
-  </si>
-  <si>
-    <t>下一回合编号</t>
-  </si>
-  <si>
-    <t>回合类型</t>
-  </si>
-  <si>
-    <t>回合标签</t>
-  </si>
-  <si>
-    <t>奖励金币</t>
-  </si>
-  <si>
-    <t>奖励木材</t>
-  </si>
-  <si>
-    <t>回合准备时间</t>
-  </si>
-  <si>
-    <t>回合持续时间</t>
-  </si>
-  <si>
-    <t>索引</t>
-  </si>
-  <si>
-    <t>回合单位名</t>
-  </si>
-  <si>
-    <t>星级</t>
-  </si>
-  <si>
-    <t>位置x[0-7]</t>
-  </si>
-  <si>
-    <t>位置y[1-9]</t>
-  </si>
-  <si>
-    <t>朝向x</t>
-  </si>
-  <si>
-    <t>朝向y</t>
-  </si>
-  <si>
-    <t>朝向z</t>
-  </si>
-  <si>
-    <t>是否随机坐标</t>
-  </si>
-  <si>
-    <t>是否在地面上</t>
-  </si>
-  <si>
-    <t>回合攻击系数</t>
-  </si>
-  <si>
-    <t>回合血量系数</t>
-  </si>
-  <si>
-    <t>物理护甲系数</t>
-  </si>
-  <si>
-    <t>魔法护甲系数</t>
-  </si>
-  <si>
-    <t>单个怪物击杀金币min</t>
-  </si>
-  <si>
-    <t>单个怪物击杀金币max</t>
-  </si>
-  <si>
-    <t>精英怪掉落池编号</t>
-  </si>
-  <si>
-    <t>单位自带buff</t>
-  </si>
-  <si>
-    <t>n1_1</t>
-  </si>
-  <si>
-    <t>n1_2</t>
-  </si>
-  <si>
-    <t>basic</t>
-  </si>
-  <si>
-    <t>n1</t>
-  </si>
-  <si>
-    <t>basic10001</t>
-  </si>
-  <si>
-    <t>building_enemy_abaddon</t>
-  </si>
-  <si>
-    <t>basic10002</t>
-  </si>
-  <si>
-    <t>building_enemy_abyssal_underlord</t>
-  </si>
-  <si>
-    <t>basic10003</t>
-  </si>
-  <si>
-    <t>building_enemy_alchemist</t>
-  </si>
-  <si>
-    <t>basic10004</t>
-  </si>
-  <si>
-    <t>building_enemy_ancient_apparition</t>
-  </si>
-  <si>
-    <t>basic10005</t>
-  </si>
-  <si>
-    <t>building_enemy_antimage</t>
-  </si>
-  <si>
-    <t>basic10006</t>
-  </si>
-  <si>
-    <t>building_enemy_arc_warden</t>
-  </si>
-  <si>
-    <t>n1_3</t>
-  </si>
-  <si>
-    <t>basic10007</t>
-  </si>
-  <si>
-    <t>building_enemy_axe</t>
-  </si>
-  <si>
-    <t>basic10008</t>
-  </si>
-  <si>
-    <t>building_enemy_bane</t>
-  </si>
-  <si>
-    <t>basic10009</t>
-  </si>
-  <si>
-    <t>building_enemy_batrider</t>
-  </si>
-  <si>
-    <t>basic10010</t>
-  </si>
-  <si>
-    <t>building_enemy_beastmaster</t>
-  </si>
-  <si>
-    <t>basic10011</t>
-  </si>
-  <si>
-    <t>building_enemy_bloodseeker</t>
-  </si>
-  <si>
-    <t>basic10012</t>
-  </si>
-  <si>
-    <t>building_enemy_bounty_hunter</t>
-  </si>
-  <si>
-    <t>n1_4</t>
-  </si>
-  <si>
-    <t>basic10013</t>
-  </si>
-  <si>
-    <t>building_enemy_brewmaster</t>
-  </si>
-  <si>
-    <t>basic10014</t>
-  </si>
-  <si>
-    <t>building_enemy_bristleback</t>
-  </si>
-  <si>
-    <t>basic10015</t>
-  </si>
-  <si>
-    <t>building_enemy_broodmother</t>
-  </si>
-  <si>
-    <t>basic10016</t>
-  </si>
-  <si>
-    <t>building_enemy_centaur</t>
-  </si>
-  <si>
-    <t>basic10017</t>
-  </si>
-  <si>
-    <t>building_enemy_chaos_knight</t>
-  </si>
-  <si>
-    <t>basic10018</t>
-  </si>
-  <si>
-    <t>building_enemy_chen</t>
-  </si>
-  <si>
-    <t>n1_5</t>
-  </si>
-  <si>
-    <t>basic10019</t>
-  </si>
-  <si>
-    <t>building_enemy_clinkz</t>
-  </si>
-  <si>
-    <t>basic10020</t>
-  </si>
-  <si>
-    <t>building_enemy_crystal_maiden</t>
-  </si>
-  <si>
-    <t>basic10021</t>
-  </si>
-  <si>
-    <t>building_enemy_dark_seer</t>
-  </si>
-  <si>
-    <t>basic10022</t>
-  </si>
-  <si>
-    <t>building_enemy_dark_willow</t>
-  </si>
-  <si>
-    <t>basic10023</t>
-  </si>
-  <si>
-    <t>building_enemy_dawnbreaker</t>
-  </si>
-  <si>
-    <t>basic10024</t>
-  </si>
-  <si>
-    <t>building_enemy_dazzle</t>
-  </si>
-  <si>
-    <t>n1_6</t>
-  </si>
-  <si>
-    <t>basic10025</t>
-  </si>
-  <si>
-    <t>building_enemy_death_prophet</t>
-  </si>
-  <si>
-    <t>basic10026</t>
-  </si>
-  <si>
-    <t>building_enemy_disruptor</t>
-  </si>
-  <si>
-    <t>basic10027</t>
-  </si>
-  <si>
-    <t>building_enemy_doom_bringer</t>
-  </si>
-  <si>
-    <t>basic10028</t>
-  </si>
-  <si>
-    <t>building_enemy_dragon_knight</t>
-  </si>
-  <si>
-    <t>basic10029</t>
-  </si>
-  <si>
-    <t>building_enemy_drow_ranger</t>
-  </si>
-  <si>
-    <t>basic10030</t>
-  </si>
-  <si>
-    <t>building_enemy_earth_spirit</t>
-  </si>
-  <si>
-    <t>n1_7</t>
-  </si>
-  <si>
-    <t>basic10031</t>
-  </si>
-  <si>
-    <t>building_enemy_earthshaker</t>
-  </si>
-  <si>
-    <t>basic10032</t>
-  </si>
-  <si>
-    <t>building_enemy_elder_titan</t>
-  </si>
-  <si>
-    <t>basic10033</t>
-  </si>
-  <si>
-    <t>building_enemy_ember_spirit</t>
-  </si>
-  <si>
-    <t>basic10034</t>
-  </si>
-  <si>
-    <t>building_enemy_enchantress</t>
-  </si>
-  <si>
-    <t>basic10035</t>
-  </si>
-  <si>
-    <t>building_enemy_enigma</t>
-  </si>
-  <si>
-    <t>basic10036</t>
-  </si>
-  <si>
-    <t>building_enemy_faceless_void</t>
-  </si>
-  <si>
-    <t>n1_8</t>
-  </si>
-  <si>
-    <t>basic10037</t>
-  </si>
-  <si>
-    <t>building_enemy_furion</t>
-  </si>
-  <si>
-    <t>basic10038</t>
-  </si>
-  <si>
-    <t>building_enemy_grimstroke</t>
-  </si>
-  <si>
-    <t>basic10039</t>
-  </si>
-  <si>
-    <t>building_enemy_gyrocopter</t>
-  </si>
-  <si>
-    <t>basic10040</t>
-  </si>
-  <si>
-    <t>building_enemy_hoodwink</t>
-  </si>
-  <si>
-    <t>basic10041</t>
-  </si>
-  <si>
-    <t>building_enemy_huskar</t>
-  </si>
-  <si>
-    <t>basic10042</t>
-  </si>
-  <si>
-    <t>building_enemy_invoker</t>
-  </si>
-  <si>
-    <t>n1_9</t>
-  </si>
-  <si>
-    <t>basic10043</t>
-  </si>
-  <si>
-    <t>building_enemy_jakiro</t>
-  </si>
-  <si>
-    <t>basic10044</t>
-  </si>
-  <si>
-    <t>building_enemy_juggernaut</t>
-  </si>
-  <si>
-    <t>basic10045</t>
-  </si>
-  <si>
-    <t>building_enemy_keeper_of_the_light</t>
-  </si>
-  <si>
-    <t>basic10046</t>
-  </si>
-  <si>
-    <t>building_enemy_kunkka</t>
-  </si>
-  <si>
-    <t>basic10047</t>
-  </si>
-  <si>
-    <t>basic10048</t>
-  </si>
-  <si>
-    <t>n1_10</t>
-  </si>
-  <si>
-    <t>basic10049</t>
-  </si>
-  <si>
-    <t>basic10050</t>
-  </si>
-  <si>
-    <t>basic10051</t>
-  </si>
-  <si>
-    <t>basic10052</t>
-  </si>
-  <si>
-    <t>basic10053</t>
-  </si>
-  <si>
-    <t>basic10054</t>
-  </si>
-  <si>
-    <t>n1_11</t>
-  </si>
-  <si>
-    <t>n1_12</t>
-  </si>
-  <si>
-    <t>n1_13</t>
-  </si>
-  <si>
-    <t>n1_14</t>
-  </si>
-  <si>
-    <t>n1_15</t>
-  </si>
-  <si>
-    <t>n1_16</t>
-  </si>
-  <si>
-    <t>n1_17</t>
-  </si>
-  <si>
-    <t>n1_18</t>
-  </si>
-  <si>
-    <t>n1_19</t>
-  </si>
-  <si>
-    <t>n1_20</t>
-  </si>
-  <si>
-    <t>n1_21</t>
-  </si>
-  <si>
-    <t>n1_22</t>
-  </si>
-  <si>
-    <t>n1_23</t>
-  </si>
-  <si>
-    <t>n1_24</t>
-  </si>
-  <si>
-    <t>n1_25</t>
-  </si>
-  <si>
-    <t>n1_26</t>
-  </si>
-  <si>
-    <t>n1_27</t>
-  </si>
-  <si>
-    <t>n1_28</t>
-  </si>
-  <si>
-    <t>n1_29</t>
-  </si>
-  <si>
-    <t>n1_30</t>
-  </si>
-  <si>
-    <t>n1_31</t>
-  </si>
-  <si>
-    <t>n1_32</t>
-  </si>
-  <si>
-    <t>n1_33</t>
-  </si>
-  <si>
-    <t>n1_34</t>
-  </si>
-  <si>
-    <t>n1_35</t>
-  </si>
-  <si>
-    <t>n1_36</t>
-  </si>
-  <si>
-    <t>k</t>
   </si>
   <si>
     <t>mp</t>
@@ -1691,7 +1697,7 @@
   <dimension ref="A1:AB220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1972,10 +1978,10 @@
         <v>64</v>
       </c>
       <c r="G5" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H5" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I5" s="5">
         <v>30</v>
@@ -2011,17 +2017,17 @@
       <c r="T5" s="5">
         <v>1</v>
       </c>
-      <c r="U5" s="5">
-        <v>1</v>
-      </c>
-      <c r="V5" s="5">
-        <v>1</v>
-      </c>
-      <c r="W5" s="5">
-        <v>1</v>
-      </c>
-      <c r="X5" s="5">
-        <v>1</v>
+      <c r="U5" s="14">
+        <v>10</v>
+      </c>
+      <c r="V5" s="14">
+        <v>10</v>
+      </c>
+      <c r="W5" s="14">
+        <v>10</v>
+      </c>
+      <c r="X5" s="14">
+        <v>10</v>
       </c>
       <c r="Y5" s="5">
         <v>10</v>
@@ -2072,17 +2078,17 @@
       <c r="T6" s="5">
         <v>1</v>
       </c>
-      <c r="U6" s="5">
-        <v>1</v>
-      </c>
-      <c r="V6" s="5">
-        <v>1</v>
-      </c>
-      <c r="W6" s="5">
-        <v>1</v>
-      </c>
-      <c r="X6" s="5">
-        <v>1</v>
+      <c r="U6" s="14">
+        <v>10</v>
+      </c>
+      <c r="V6" s="14">
+        <v>10</v>
+      </c>
+      <c r="W6" s="14">
+        <v>10</v>
+      </c>
+      <c r="X6" s="14">
+        <v>10</v>
       </c>
       <c r="Y6" s="5">
         <v>10</v>
@@ -2133,17 +2139,17 @@
       <c r="T7" s="5">
         <v>1</v>
       </c>
-      <c r="U7" s="5">
-        <v>1</v>
-      </c>
-      <c r="V7" s="5">
-        <v>1</v>
-      </c>
-      <c r="W7" s="5">
-        <v>1</v>
-      </c>
-      <c r="X7" s="5">
-        <v>1</v>
+      <c r="U7" s="14">
+        <v>10</v>
+      </c>
+      <c r="V7" s="14">
+        <v>10</v>
+      </c>
+      <c r="W7" s="14">
+        <v>10</v>
+      </c>
+      <c r="X7" s="14">
+        <v>10</v>
       </c>
       <c r="Y7" s="5">
         <v>10</v>
@@ -2194,17 +2200,17 @@
       <c r="T8" s="5">
         <v>1</v>
       </c>
-      <c r="U8" s="5">
-        <v>1</v>
-      </c>
-      <c r="V8" s="5">
-        <v>1</v>
-      </c>
-      <c r="W8" s="5">
-        <v>1</v>
-      </c>
-      <c r="X8" s="5">
-        <v>1</v>
+      <c r="U8" s="14">
+        <v>10</v>
+      </c>
+      <c r="V8" s="14">
+        <v>10</v>
+      </c>
+      <c r="W8" s="14">
+        <v>10</v>
+      </c>
+      <c r="X8" s="14">
+        <v>10</v>
       </c>
       <c r="Y8" s="5">
         <v>10</v>
@@ -2255,17 +2261,17 @@
       <c r="T9" s="5">
         <v>1</v>
       </c>
-      <c r="U9" s="5">
-        <v>5</v>
-      </c>
-      <c r="V9" s="5">
-        <v>5</v>
-      </c>
-      <c r="W9" s="5">
-        <v>1</v>
-      </c>
-      <c r="X9" s="5">
-        <v>1</v>
+      <c r="U9" s="14">
+        <v>10</v>
+      </c>
+      <c r="V9" s="14">
+        <v>10</v>
+      </c>
+      <c r="W9" s="14">
+        <v>10</v>
+      </c>
+      <c r="X9" s="14">
+        <v>10</v>
       </c>
       <c r="Y9" s="5">
         <v>10</v>
@@ -2316,17 +2322,17 @@
       <c r="T10" s="11">
         <v>1</v>
       </c>
-      <c r="U10" s="11">
-        <v>5</v>
-      </c>
-      <c r="V10" s="11">
-        <v>5</v>
-      </c>
-      <c r="W10" s="11">
-        <v>1</v>
-      </c>
-      <c r="X10" s="11">
-        <v>1</v>
+      <c r="U10" s="14">
+        <v>10</v>
+      </c>
+      <c r="V10" s="14">
+        <v>10</v>
+      </c>
+      <c r="W10" s="14">
+        <v>10</v>
+      </c>
+      <c r="X10" s="14">
+        <v>10</v>
       </c>
       <c r="Y10" s="11">
         <v>10</v>
@@ -2354,10 +2360,10 @@
         <v>64</v>
       </c>
       <c r="G11" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H11" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I11" s="5">
         <v>30</v>
@@ -2393,17 +2399,17 @@
       <c r="T11" s="5">
         <v>1</v>
       </c>
-      <c r="U11" s="5">
-        <v>2</v>
-      </c>
-      <c r="V11" s="5">
-        <v>2</v>
-      </c>
-      <c r="W11" s="5">
-        <v>1</v>
-      </c>
-      <c r="X11" s="5">
-        <v>1</v>
+      <c r="U11" s="14">
+        <v>10</v>
+      </c>
+      <c r="V11" s="14">
+        <v>10</v>
+      </c>
+      <c r="W11" s="14">
+        <v>10</v>
+      </c>
+      <c r="X11" s="14">
+        <v>10</v>
       </c>
       <c r="Y11" s="5">
         <v>10</v>
@@ -2454,17 +2460,17 @@
       <c r="T12" s="5">
         <v>1</v>
       </c>
-      <c r="U12" s="5">
-        <v>3</v>
-      </c>
-      <c r="V12" s="5">
-        <v>3</v>
-      </c>
-      <c r="W12" s="5">
-        <v>1</v>
-      </c>
-      <c r="X12" s="5">
-        <v>1</v>
+      <c r="U12" s="14">
+        <v>10</v>
+      </c>
+      <c r="V12" s="14">
+        <v>10</v>
+      </c>
+      <c r="W12" s="14">
+        <v>10</v>
+      </c>
+      <c r="X12" s="14">
+        <v>10</v>
       </c>
       <c r="Y12" s="5">
         <v>10</v>
@@ -2515,17 +2521,17 @@
       <c r="T13" s="5">
         <v>1</v>
       </c>
-      <c r="U13" s="5">
-        <v>5</v>
-      </c>
-      <c r="V13" s="5">
-        <v>5</v>
-      </c>
-      <c r="W13" s="5">
-        <v>1</v>
-      </c>
-      <c r="X13" s="5">
-        <v>1</v>
+      <c r="U13" s="14">
+        <v>10</v>
+      </c>
+      <c r="V13" s="14">
+        <v>10</v>
+      </c>
+      <c r="W13" s="14">
+        <v>10</v>
+      </c>
+      <c r="X13" s="14">
+        <v>10</v>
       </c>
       <c r="Y13" s="5">
         <v>10</v>
@@ -2576,17 +2582,17 @@
       <c r="T14" s="5">
         <v>1</v>
       </c>
-      <c r="U14" s="5">
-        <v>7</v>
-      </c>
-      <c r="V14" s="5">
-        <v>7</v>
-      </c>
-      <c r="W14" s="5">
-        <v>1</v>
-      </c>
-      <c r="X14" s="5">
-        <v>1</v>
+      <c r="U14" s="14">
+        <v>10</v>
+      </c>
+      <c r="V14" s="14">
+        <v>10</v>
+      </c>
+      <c r="W14" s="14">
+        <v>10</v>
+      </c>
+      <c r="X14" s="14">
+        <v>10</v>
       </c>
       <c r="Y14" s="5">
         <v>10</v>
@@ -2637,17 +2643,17 @@
       <c r="T15" s="5">
         <v>1</v>
       </c>
-      <c r="U15" s="5">
-        <v>9</v>
-      </c>
-      <c r="V15" s="5">
-        <v>9</v>
-      </c>
-      <c r="W15" s="5">
-        <v>1</v>
-      </c>
-      <c r="X15" s="5">
-        <v>1</v>
+      <c r="U15" s="14">
+        <v>10</v>
+      </c>
+      <c r="V15" s="14">
+        <v>10</v>
+      </c>
+      <c r="W15" s="14">
+        <v>10</v>
+      </c>
+      <c r="X15" s="14">
+        <v>10</v>
       </c>
       <c r="Y15" s="5">
         <v>10</v>
@@ -2698,17 +2704,17 @@
       <c r="T16" s="11">
         <v>1</v>
       </c>
-      <c r="U16" s="11">
-        <v>5</v>
-      </c>
-      <c r="V16" s="11">
-        <v>5</v>
-      </c>
-      <c r="W16" s="11">
-        <v>1</v>
-      </c>
-      <c r="X16" s="11">
-        <v>1</v>
+      <c r="U16" s="14">
+        <v>10</v>
+      </c>
+      <c r="V16" s="14">
+        <v>10</v>
+      </c>
+      <c r="W16" s="14">
+        <v>10</v>
+      </c>
+      <c r="X16" s="14">
+        <v>10</v>
       </c>
       <c r="Y16" s="11">
         <v>10</v>
@@ -2736,10 +2742,10 @@
         <v>64</v>
       </c>
       <c r="G17" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H17" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I17" s="5">
         <v>30</v>
@@ -2775,17 +2781,17 @@
       <c r="T17" s="5">
         <v>1</v>
       </c>
-      <c r="U17" s="5">
-        <v>3</v>
-      </c>
-      <c r="V17" s="5">
-        <v>3</v>
-      </c>
-      <c r="W17" s="5">
-        <v>1</v>
-      </c>
-      <c r="X17" s="5">
-        <v>1</v>
+      <c r="U17" s="14">
+        <v>10</v>
+      </c>
+      <c r="V17" s="14">
+        <v>10</v>
+      </c>
+      <c r="W17" s="14">
+        <v>10</v>
+      </c>
+      <c r="X17" s="14">
+        <v>10</v>
       </c>
       <c r="Y17" s="5">
         <v>10</v>
@@ -2836,17 +2842,17 @@
       <c r="T18" s="5">
         <v>1</v>
       </c>
-      <c r="U18" s="5">
-        <v>3</v>
-      </c>
-      <c r="V18" s="5">
-        <v>3</v>
-      </c>
-      <c r="W18" s="5">
-        <v>1</v>
-      </c>
-      <c r="X18" s="5">
-        <v>1</v>
+      <c r="U18" s="14">
+        <v>10</v>
+      </c>
+      <c r="V18" s="14">
+        <v>10</v>
+      </c>
+      <c r="W18" s="14">
+        <v>10</v>
+      </c>
+      <c r="X18" s="14">
+        <v>10</v>
       </c>
       <c r="Y18" s="5">
         <v>10</v>
@@ -2897,17 +2903,17 @@
       <c r="T19" s="5">
         <v>1</v>
       </c>
-      <c r="U19" s="5">
-        <v>4</v>
-      </c>
-      <c r="V19" s="5">
-        <v>4</v>
-      </c>
-      <c r="W19" s="5">
-        <v>1</v>
-      </c>
-      <c r="X19" s="5">
-        <v>1</v>
+      <c r="U19" s="14">
+        <v>10</v>
+      </c>
+      <c r="V19" s="14">
+        <v>10</v>
+      </c>
+      <c r="W19" s="14">
+        <v>10</v>
+      </c>
+      <c r="X19" s="14">
+        <v>10</v>
       </c>
       <c r="Y19" s="5">
         <v>10</v>
@@ -2958,17 +2964,17 @@
       <c r="T20" s="5">
         <v>1</v>
       </c>
-      <c r="U20" s="5">
-        <v>5</v>
-      </c>
-      <c r="V20" s="5">
-        <v>5</v>
-      </c>
-      <c r="W20" s="5">
-        <v>1</v>
-      </c>
-      <c r="X20" s="5">
-        <v>1</v>
+      <c r="U20" s="14">
+        <v>10</v>
+      </c>
+      <c r="V20" s="14">
+        <v>10</v>
+      </c>
+      <c r="W20" s="14">
+        <v>10</v>
+      </c>
+      <c r="X20" s="14">
+        <v>10</v>
       </c>
       <c r="Y20" s="5">
         <v>10</v>
@@ -3019,17 +3025,17 @@
       <c r="T21" s="5">
         <v>1</v>
       </c>
-      <c r="U21" s="5">
-        <v>9</v>
-      </c>
-      <c r="V21" s="5">
-        <v>9</v>
-      </c>
-      <c r="W21" s="5">
-        <v>1</v>
-      </c>
-      <c r="X21" s="5">
-        <v>1</v>
+      <c r="U21" s="14">
+        <v>10</v>
+      </c>
+      <c r="V21" s="14">
+        <v>10</v>
+      </c>
+      <c r="W21" s="14">
+        <v>10</v>
+      </c>
+      <c r="X21" s="14">
+        <v>10</v>
       </c>
       <c r="Y21" s="5">
         <v>10</v>
@@ -3080,17 +3086,17 @@
       <c r="T22" s="11">
         <v>1</v>
       </c>
-      <c r="U22" s="11">
-        <v>10</v>
-      </c>
-      <c r="V22" s="11">
-        <v>10</v>
-      </c>
-      <c r="W22" s="11">
-        <v>1</v>
-      </c>
-      <c r="X22" s="11">
-        <v>1</v>
+      <c r="U22" s="14">
+        <v>10</v>
+      </c>
+      <c r="V22" s="14">
+        <v>10</v>
+      </c>
+      <c r="W22" s="14">
+        <v>10</v>
+      </c>
+      <c r="X22" s="14">
+        <v>10</v>
       </c>
       <c r="Y22" s="11">
         <v>10</v>
@@ -3118,10 +3124,10 @@
         <v>64</v>
       </c>
       <c r="G23" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H23" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I23" s="5">
         <v>30</v>
@@ -3157,17 +3163,17 @@
       <c r="T23" s="5">
         <v>1</v>
       </c>
-      <c r="U23" s="5">
-        <v>5</v>
-      </c>
-      <c r="V23" s="5">
-        <v>5</v>
-      </c>
-      <c r="W23" s="5">
-        <v>1</v>
-      </c>
-      <c r="X23" s="5">
-        <v>1</v>
+      <c r="U23" s="14">
+        <v>10</v>
+      </c>
+      <c r="V23" s="14">
+        <v>10</v>
+      </c>
+      <c r="W23" s="14">
+        <v>10</v>
+      </c>
+      <c r="X23" s="14">
+        <v>10</v>
       </c>
       <c r="Y23" s="5">
         <v>10</v>
@@ -3218,17 +3224,17 @@
       <c r="T24" s="5">
         <v>1</v>
       </c>
-      <c r="U24" s="5">
-        <v>5</v>
-      </c>
-      <c r="V24" s="5">
-        <v>5</v>
-      </c>
-      <c r="W24" s="5">
-        <v>1</v>
-      </c>
-      <c r="X24" s="5">
-        <v>1</v>
+      <c r="U24" s="14">
+        <v>10</v>
+      </c>
+      <c r="V24" s="14">
+        <v>10</v>
+      </c>
+      <c r="W24" s="14">
+        <v>10</v>
+      </c>
+      <c r="X24" s="14">
+        <v>10</v>
       </c>
       <c r="Y24" s="5">
         <v>10</v>
@@ -3279,17 +3285,17 @@
       <c r="T25" s="5">
         <v>1</v>
       </c>
-      <c r="U25" s="5">
-        <v>5</v>
-      </c>
-      <c r="V25" s="5">
-        <v>5</v>
-      </c>
-      <c r="W25" s="5">
-        <v>1</v>
-      </c>
-      <c r="X25" s="5">
-        <v>1</v>
+      <c r="U25" s="14">
+        <v>10</v>
+      </c>
+      <c r="V25" s="14">
+        <v>10</v>
+      </c>
+      <c r="W25" s="14">
+        <v>10</v>
+      </c>
+      <c r="X25" s="14">
+        <v>10</v>
       </c>
       <c r="Y25" s="5">
         <v>10</v>
@@ -3340,17 +3346,17 @@
       <c r="T26" s="5">
         <v>1</v>
       </c>
-      <c r="U26" s="5">
-        <v>5</v>
-      </c>
-      <c r="V26" s="5">
-        <v>5</v>
-      </c>
-      <c r="W26" s="5">
-        <v>1</v>
-      </c>
-      <c r="X26" s="5">
-        <v>1</v>
+      <c r="U26" s="14">
+        <v>10</v>
+      </c>
+      <c r="V26" s="14">
+        <v>10</v>
+      </c>
+      <c r="W26" s="14">
+        <v>10</v>
+      </c>
+      <c r="X26" s="14">
+        <v>10</v>
       </c>
       <c r="Y26" s="5">
         <v>10</v>
@@ -3401,17 +3407,17 @@
       <c r="T27" s="5">
         <v>1</v>
       </c>
-      <c r="U27" s="5">
-        <v>10</v>
-      </c>
-      <c r="V27" s="5">
-        <v>10</v>
-      </c>
-      <c r="W27" s="5">
-        <v>1</v>
-      </c>
-      <c r="X27" s="5">
-        <v>1</v>
+      <c r="U27" s="14">
+        <v>10</v>
+      </c>
+      <c r="V27" s="14">
+        <v>10</v>
+      </c>
+      <c r="W27" s="14">
+        <v>10</v>
+      </c>
+      <c r="X27" s="14">
+        <v>10</v>
       </c>
       <c r="Y27" s="5">
         <v>10</v>
@@ -3462,17 +3468,17 @@
       <c r="T28" s="11">
         <v>1</v>
       </c>
-      <c r="U28" s="11">
-        <v>10</v>
-      </c>
-      <c r="V28" s="11">
-        <v>10</v>
-      </c>
-      <c r="W28" s="11">
-        <v>1</v>
-      </c>
-      <c r="X28" s="11">
-        <v>1</v>
+      <c r="U28" s="14">
+        <v>10</v>
+      </c>
+      <c r="V28" s="14">
+        <v>10</v>
+      </c>
+      <c r="W28" s="14">
+        <v>10</v>
+      </c>
+      <c r="X28" s="14">
+        <v>10</v>
       </c>
       <c r="Y28" s="11">
         <v>10</v>
@@ -3500,10 +3506,10 @@
         <v>64</v>
       </c>
       <c r="G29" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H29" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I29" s="5">
         <v>30</v>
@@ -3539,17 +3545,17 @@
       <c r="T29" s="5">
         <v>1</v>
       </c>
-      <c r="U29" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="V29" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="W29" s="5">
-        <v>1</v>
-      </c>
-      <c r="X29" s="5">
-        <v>1</v>
+      <c r="U29" s="14">
+        <v>10</v>
+      </c>
+      <c r="V29" s="14">
+        <v>10</v>
+      </c>
+      <c r="W29" s="14">
+        <v>10</v>
+      </c>
+      <c r="X29" s="14">
+        <v>10</v>
       </c>
       <c r="Y29" s="5">
         <v>10</v>
@@ -3600,17 +3606,17 @@
       <c r="T30" s="5">
         <v>1</v>
       </c>
-      <c r="U30" s="5">
-        <v>6</v>
-      </c>
-      <c r="V30" s="5">
-        <v>6</v>
-      </c>
-      <c r="W30" s="5">
-        <v>1</v>
-      </c>
-      <c r="X30" s="5">
-        <v>1</v>
+      <c r="U30" s="14">
+        <v>10</v>
+      </c>
+      <c r="V30" s="14">
+        <v>10</v>
+      </c>
+      <c r="W30" s="14">
+        <v>10</v>
+      </c>
+      <c r="X30" s="14">
+        <v>10</v>
       </c>
       <c r="Y30" s="5">
         <v>10</v>
@@ -3661,17 +3667,17 @@
       <c r="T31" s="5">
         <v>1</v>
       </c>
-      <c r="U31" s="5">
-        <v>6</v>
-      </c>
-      <c r="V31" s="5">
-        <v>6</v>
-      </c>
-      <c r="W31" s="5">
-        <v>1</v>
-      </c>
-      <c r="X31" s="5">
-        <v>1</v>
+      <c r="U31" s="14">
+        <v>10</v>
+      </c>
+      <c r="V31" s="14">
+        <v>10</v>
+      </c>
+      <c r="W31" s="14">
+        <v>10</v>
+      </c>
+      <c r="X31" s="14">
+        <v>10</v>
       </c>
       <c r="Y31" s="5">
         <v>10</v>
@@ -3722,17 +3728,17 @@
       <c r="T32" s="5">
         <v>1</v>
       </c>
-      <c r="U32" s="5">
-        <v>6</v>
-      </c>
-      <c r="V32" s="5">
-        <v>6</v>
-      </c>
-      <c r="W32" s="5">
-        <v>1</v>
-      </c>
-      <c r="X32" s="5">
-        <v>1</v>
+      <c r="U32" s="14">
+        <v>10</v>
+      </c>
+      <c r="V32" s="14">
+        <v>10</v>
+      </c>
+      <c r="W32" s="14">
+        <v>10</v>
+      </c>
+      <c r="X32" s="14">
+        <v>10</v>
       </c>
       <c r="Y32" s="5">
         <v>10</v>
@@ -3783,17 +3789,17 @@
       <c r="T33" s="5">
         <v>1</v>
       </c>
-      <c r="U33" s="5">
-        <v>12</v>
-      </c>
-      <c r="V33" s="5">
-        <v>12</v>
-      </c>
-      <c r="W33" s="5">
-        <v>1</v>
-      </c>
-      <c r="X33" s="5">
-        <v>1</v>
+      <c r="U33" s="14">
+        <v>10</v>
+      </c>
+      <c r="V33" s="14">
+        <v>10</v>
+      </c>
+      <c r="W33" s="14">
+        <v>10</v>
+      </c>
+      <c r="X33" s="14">
+        <v>10</v>
       </c>
       <c r="Y33" s="5">
         <v>10</v>
@@ -3844,17 +3850,17 @@
       <c r="T34" s="11">
         <v>1</v>
       </c>
-      <c r="U34" s="11">
-        <v>10</v>
-      </c>
-      <c r="V34" s="11">
-        <v>10</v>
-      </c>
-      <c r="W34" s="11">
-        <v>1</v>
-      </c>
-      <c r="X34" s="11">
-        <v>1</v>
+      <c r="U34" s="14">
+        <v>10</v>
+      </c>
+      <c r="V34" s="14">
+        <v>10</v>
+      </c>
+      <c r="W34" s="14">
+        <v>10</v>
+      </c>
+      <c r="X34" s="14">
+        <v>10</v>
       </c>
       <c r="Y34" s="11">
         <v>10</v>
@@ -3882,10 +3888,10 @@
         <v>64</v>
       </c>
       <c r="G35" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H35" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I35" s="5">
         <v>30</v>
@@ -3921,17 +3927,17 @@
       <c r="T35" s="5">
         <v>1</v>
       </c>
-      <c r="U35" s="5">
-        <v>5</v>
-      </c>
-      <c r="V35" s="5">
-        <v>5</v>
-      </c>
-      <c r="W35" s="5">
-        <v>1</v>
-      </c>
-      <c r="X35" s="5">
-        <v>1</v>
+      <c r="U35" s="14">
+        <v>10</v>
+      </c>
+      <c r="V35" s="14">
+        <v>10</v>
+      </c>
+      <c r="W35" s="14">
+        <v>10</v>
+      </c>
+      <c r="X35" s="14">
+        <v>10</v>
       </c>
       <c r="Y35" s="5">
         <v>10</v>
@@ -3982,17 +3988,17 @@
       <c r="T36" s="5">
         <v>1</v>
       </c>
-      <c r="U36" s="5">
-        <v>11</v>
-      </c>
-      <c r="V36" s="5">
-        <v>11</v>
-      </c>
-      <c r="W36" s="5">
-        <v>1</v>
-      </c>
-      <c r="X36" s="5">
-        <v>1</v>
+      <c r="U36" s="14">
+        <v>10</v>
+      </c>
+      <c r="V36" s="14">
+        <v>10</v>
+      </c>
+      <c r="W36" s="14">
+        <v>10</v>
+      </c>
+      <c r="X36" s="14">
+        <v>10</v>
       </c>
       <c r="Y36" s="5">
         <v>10</v>
@@ -4043,17 +4049,17 @@
       <c r="T37" s="5">
         <v>1</v>
       </c>
-      <c r="U37" s="5">
-        <v>11</v>
-      </c>
-      <c r="V37" s="5">
-        <v>11</v>
-      </c>
-      <c r="W37" s="5">
-        <v>1</v>
-      </c>
-      <c r="X37" s="5">
-        <v>1</v>
+      <c r="U37" s="14">
+        <v>10</v>
+      </c>
+      <c r="V37" s="14">
+        <v>10</v>
+      </c>
+      <c r="W37" s="14">
+        <v>10</v>
+      </c>
+      <c r="X37" s="14">
+        <v>10</v>
       </c>
       <c r="Y37" s="5">
         <v>10</v>
@@ -4104,17 +4110,17 @@
       <c r="T38" s="5">
         <v>1</v>
       </c>
-      <c r="U38" s="5">
-        <v>11</v>
-      </c>
-      <c r="V38" s="5">
-        <v>11</v>
-      </c>
-      <c r="W38" s="5">
-        <v>1</v>
-      </c>
-      <c r="X38" s="5">
-        <v>1</v>
+      <c r="U38" s="14">
+        <v>10</v>
+      </c>
+      <c r="V38" s="14">
+        <v>10</v>
+      </c>
+      <c r="W38" s="14">
+        <v>10</v>
+      </c>
+      <c r="X38" s="14">
+        <v>10</v>
       </c>
       <c r="Y38" s="5">
         <v>10</v>
@@ -4165,17 +4171,17 @@
       <c r="T39" s="5">
         <v>1</v>
       </c>
-      <c r="U39" s="5">
-        <v>25</v>
-      </c>
-      <c r="V39" s="5">
-        <v>25</v>
-      </c>
-      <c r="W39" s="5">
-        <v>1</v>
-      </c>
-      <c r="X39" s="5">
-        <v>1</v>
+      <c r="U39" s="14">
+        <v>10</v>
+      </c>
+      <c r="V39" s="14">
+        <v>10</v>
+      </c>
+      <c r="W39" s="14">
+        <v>10</v>
+      </c>
+      <c r="X39" s="14">
+        <v>10</v>
       </c>
       <c r="Y39" s="5">
         <v>10</v>
@@ -4226,17 +4232,17 @@
       <c r="T40" s="11">
         <v>1</v>
       </c>
-      <c r="U40" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="V40" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="W40" s="11">
-        <v>1</v>
-      </c>
-      <c r="X40" s="11">
-        <v>1</v>
+      <c r="U40" s="14">
+        <v>10</v>
+      </c>
+      <c r="V40" s="14">
+        <v>10</v>
+      </c>
+      <c r="W40" s="14">
+        <v>10</v>
+      </c>
+      <c r="X40" s="14">
+        <v>10</v>
       </c>
       <c r="Y40" s="11">
         <v>10</v>
@@ -4264,10 +4270,10 @@
         <v>64</v>
       </c>
       <c r="G41" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H41" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I41" s="5">
         <v>30</v>
@@ -4303,17 +4309,17 @@
       <c r="T41" s="5">
         <v>1</v>
       </c>
-      <c r="U41" s="5">
-        <v>1</v>
-      </c>
-      <c r="V41" s="5">
-        <v>1</v>
-      </c>
-      <c r="W41" s="5">
-        <v>1</v>
-      </c>
-      <c r="X41" s="5">
-        <v>1</v>
+      <c r="U41" s="14">
+        <v>10</v>
+      </c>
+      <c r="V41" s="14">
+        <v>10</v>
+      </c>
+      <c r="W41" s="14">
+        <v>10</v>
+      </c>
+      <c r="X41" s="14">
+        <v>10</v>
       </c>
       <c r="Y41" s="5">
         <v>10</v>
@@ -4364,17 +4370,17 @@
       <c r="T42" s="5">
         <v>1</v>
       </c>
-      <c r="U42" s="5">
-        <v>1</v>
-      </c>
-      <c r="V42" s="5">
-        <v>1</v>
-      </c>
-      <c r="W42" s="5">
-        <v>1</v>
-      </c>
-      <c r="X42" s="5">
-        <v>1</v>
+      <c r="U42" s="14">
+        <v>10</v>
+      </c>
+      <c r="V42" s="14">
+        <v>10</v>
+      </c>
+      <c r="W42" s="14">
+        <v>10</v>
+      </c>
+      <c r="X42" s="14">
+        <v>10</v>
       </c>
       <c r="Y42" s="5">
         <v>10</v>
@@ -4425,17 +4431,17 @@
       <c r="T43" s="5">
         <v>1</v>
       </c>
-      <c r="U43" s="5">
-        <v>1</v>
-      </c>
-      <c r="V43" s="5">
-        <v>1</v>
-      </c>
-      <c r="W43" s="5">
-        <v>1</v>
-      </c>
-      <c r="X43" s="5">
-        <v>1</v>
+      <c r="U43" s="14">
+        <v>10</v>
+      </c>
+      <c r="V43" s="14">
+        <v>10</v>
+      </c>
+      <c r="W43" s="14">
+        <v>10</v>
+      </c>
+      <c r="X43" s="14">
+        <v>10</v>
       </c>
       <c r="Y43" s="5">
         <v>10</v>
@@ -4486,17 +4492,17 @@
       <c r="T44" s="5">
         <v>1</v>
       </c>
-      <c r="U44" s="5">
-        <v>1</v>
-      </c>
-      <c r="V44" s="5">
-        <v>1</v>
-      </c>
-      <c r="W44" s="5">
-        <v>1</v>
-      </c>
-      <c r="X44" s="5">
-        <v>1</v>
+      <c r="U44" s="14">
+        <v>10</v>
+      </c>
+      <c r="V44" s="14">
+        <v>10</v>
+      </c>
+      <c r="W44" s="14">
+        <v>10</v>
+      </c>
+      <c r="X44" s="14">
+        <v>10</v>
       </c>
       <c r="Y44" s="5">
         <v>10</v>
@@ -4547,17 +4553,17 @@
       <c r="T45" s="5">
         <v>1</v>
       </c>
-      <c r="U45" s="5">
-        <v>5</v>
-      </c>
-      <c r="V45" s="5">
-        <v>5</v>
-      </c>
-      <c r="W45" s="5">
-        <v>1</v>
-      </c>
-      <c r="X45" s="5">
-        <v>1</v>
+      <c r="U45" s="14">
+        <v>10</v>
+      </c>
+      <c r="V45" s="14">
+        <v>10</v>
+      </c>
+      <c r="W45" s="14">
+        <v>10</v>
+      </c>
+      <c r="X45" s="14">
+        <v>10</v>
       </c>
       <c r="Y45" s="5">
         <v>10</v>
@@ -4608,17 +4614,17 @@
       <c r="T46" s="11">
         <v>1</v>
       </c>
-      <c r="U46" s="11">
-        <v>10</v>
-      </c>
-      <c r="V46" s="11">
-        <v>10</v>
-      </c>
-      <c r="W46" s="11">
-        <v>1</v>
-      </c>
-      <c r="X46" s="11">
-        <v>1</v>
+      <c r="U46" s="14">
+        <v>10</v>
+      </c>
+      <c r="V46" s="14">
+        <v>10</v>
+      </c>
+      <c r="W46" s="14">
+        <v>10</v>
+      </c>
+      <c r="X46" s="14">
+        <v>10</v>
       </c>
       <c r="Y46" s="11">
         <v>10</v>
@@ -4646,10 +4652,10 @@
         <v>64</v>
       </c>
       <c r="G47" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H47" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I47" s="5">
         <v>30</v>
@@ -4685,17 +4691,17 @@
       <c r="T47" s="5">
         <v>1</v>
       </c>
-      <c r="U47" s="5">
-        <v>5</v>
-      </c>
-      <c r="V47" s="5">
-        <v>5</v>
-      </c>
-      <c r="W47" s="5">
-        <v>1</v>
-      </c>
-      <c r="X47" s="5">
-        <v>1</v>
+      <c r="U47" s="14">
+        <v>10</v>
+      </c>
+      <c r="V47" s="14">
+        <v>10</v>
+      </c>
+      <c r="W47" s="14">
+        <v>10</v>
+      </c>
+      <c r="X47" s="14">
+        <v>10</v>
       </c>
       <c r="Y47" s="5">
         <v>10</v>
@@ -4746,17 +4752,17 @@
       <c r="T48" s="5">
         <v>1</v>
       </c>
-      <c r="U48" s="5">
-        <v>2</v>
-      </c>
-      <c r="V48" s="5">
-        <v>2</v>
-      </c>
-      <c r="W48" s="5">
-        <v>1</v>
-      </c>
-      <c r="X48" s="5">
-        <v>1</v>
+      <c r="U48" s="14">
+        <v>10</v>
+      </c>
+      <c r="V48" s="14">
+        <v>10</v>
+      </c>
+      <c r="W48" s="14">
+        <v>10</v>
+      </c>
+      <c r="X48" s="14">
+        <v>10</v>
       </c>
       <c r="Y48" s="5">
         <v>10</v>
@@ -4807,17 +4813,17 @@
       <c r="T49" s="5">
         <v>1</v>
       </c>
-      <c r="U49" s="5">
-        <v>1</v>
-      </c>
-      <c r="V49" s="5">
-        <v>1</v>
-      </c>
-      <c r="W49" s="5">
-        <v>1</v>
-      </c>
-      <c r="X49" s="5">
-        <v>1</v>
+      <c r="U49" s="14">
+        <v>10</v>
+      </c>
+      <c r="V49" s="14">
+        <v>10</v>
+      </c>
+      <c r="W49" s="14">
+        <v>10</v>
+      </c>
+      <c r="X49" s="14">
+        <v>10</v>
       </c>
       <c r="Y49" s="5">
         <v>10</v>
@@ -4868,17 +4874,17 @@
       <c r="T50" s="5">
         <v>1</v>
       </c>
-      <c r="U50" s="5">
-        <v>1</v>
-      </c>
-      <c r="V50" s="5">
-        <v>1</v>
-      </c>
-      <c r="W50" s="5">
-        <v>1</v>
-      </c>
-      <c r="X50" s="5">
-        <v>1</v>
+      <c r="U50" s="14">
+        <v>10</v>
+      </c>
+      <c r="V50" s="14">
+        <v>10</v>
+      </c>
+      <c r="W50" s="14">
+        <v>10</v>
+      </c>
+      <c r="X50" s="14">
+        <v>10</v>
       </c>
       <c r="Y50" s="5">
         <v>10</v>
@@ -4929,17 +4935,17 @@
       <c r="T51" s="5">
         <v>1</v>
       </c>
-      <c r="U51" s="5">
-        <v>5</v>
-      </c>
-      <c r="V51" s="5">
-        <v>5</v>
-      </c>
-      <c r="W51" s="5">
-        <v>1</v>
-      </c>
-      <c r="X51" s="5">
-        <v>1</v>
+      <c r="U51" s="14">
+        <v>10</v>
+      </c>
+      <c r="V51" s="14">
+        <v>10</v>
+      </c>
+      <c r="W51" s="14">
+        <v>10</v>
+      </c>
+      <c r="X51" s="14">
+        <v>10</v>
       </c>
       <c r="Y51" s="5">
         <v>10</v>
@@ -4990,17 +4996,17 @@
       <c r="T52" s="11">
         <v>1</v>
       </c>
-      <c r="U52" s="11">
-        <v>10</v>
-      </c>
-      <c r="V52" s="11">
-        <v>10</v>
-      </c>
-      <c r="W52" s="11">
-        <v>1</v>
-      </c>
-      <c r="X52" s="11">
-        <v>1</v>
+      <c r="U52" s="14">
+        <v>10</v>
+      </c>
+      <c r="V52" s="14">
+        <v>10</v>
+      </c>
+      <c r="W52" s="14">
+        <v>10</v>
+      </c>
+      <c r="X52" s="14">
+        <v>10</v>
       </c>
       <c r="Y52" s="11">
         <v>10</v>
@@ -5028,10 +5034,10 @@
         <v>64</v>
       </c>
       <c r="G53" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H53" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I53" s="5">
         <v>30</v>
@@ -5067,17 +5073,17 @@
       <c r="T53" s="5">
         <v>1</v>
       </c>
-      <c r="U53" s="5">
-        <v>2</v>
-      </c>
-      <c r="V53" s="5">
-        <v>2</v>
-      </c>
-      <c r="W53" s="5">
-        <v>1</v>
-      </c>
-      <c r="X53" s="5">
-        <v>1</v>
+      <c r="U53" s="14">
+        <v>10</v>
+      </c>
+      <c r="V53" s="14">
+        <v>10</v>
+      </c>
+      <c r="W53" s="14">
+        <v>10</v>
+      </c>
+      <c r="X53" s="14">
+        <v>10</v>
       </c>
       <c r="Y53" s="5">
         <v>10</v>
@@ -5128,17 +5134,17 @@
       <c r="T54" s="5">
         <v>1</v>
       </c>
-      <c r="U54" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="V54" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="W54" s="5">
-        <v>1</v>
-      </c>
-      <c r="X54" s="5">
-        <v>1</v>
+      <c r="U54" s="14">
+        <v>10</v>
+      </c>
+      <c r="V54" s="14">
+        <v>10</v>
+      </c>
+      <c r="W54" s="14">
+        <v>10</v>
+      </c>
+      <c r="X54" s="14">
+        <v>10</v>
       </c>
       <c r="Y54" s="5">
         <v>10</v>
@@ -5189,17 +5195,17 @@
       <c r="T55" s="5">
         <v>1</v>
       </c>
-      <c r="U55" s="5">
-        <v>2</v>
-      </c>
-      <c r="V55" s="5">
-        <v>2</v>
-      </c>
-      <c r="W55" s="5">
-        <v>1</v>
-      </c>
-      <c r="X55" s="5">
-        <v>1</v>
+      <c r="U55" s="14">
+        <v>10</v>
+      </c>
+      <c r="V55" s="14">
+        <v>10</v>
+      </c>
+      <c r="W55" s="14">
+        <v>10</v>
+      </c>
+      <c r="X55" s="14">
+        <v>10</v>
       </c>
       <c r="Y55" s="5">
         <v>10</v>
@@ -5250,17 +5256,17 @@
       <c r="T56" s="5">
         <v>1</v>
       </c>
-      <c r="U56" s="5">
-        <v>5</v>
-      </c>
-      <c r="V56" s="5">
-        <v>5</v>
-      </c>
-      <c r="W56" s="5">
-        <v>1</v>
-      </c>
-      <c r="X56" s="5">
-        <v>1</v>
+      <c r="U56" s="14">
+        <v>10</v>
+      </c>
+      <c r="V56" s="14">
+        <v>10</v>
+      </c>
+      <c r="W56" s="14">
+        <v>10</v>
+      </c>
+      <c r="X56" s="14">
+        <v>10</v>
       </c>
       <c r="Y56" s="5">
         <v>10</v>
@@ -5311,17 +5317,17 @@
       <c r="T57" s="11">
         <v>1</v>
       </c>
-      <c r="U57" s="11">
-        <v>10</v>
-      </c>
-      <c r="V57" s="11">
-        <v>10</v>
-      </c>
-      <c r="W57" s="11">
-        <v>1</v>
-      </c>
-      <c r="X57" s="11">
-        <v>1</v>
+      <c r="U57" s="14">
+        <v>10</v>
+      </c>
+      <c r="V57" s="14">
+        <v>10</v>
+      </c>
+      <c r="W57" s="14">
+        <v>10</v>
+      </c>
+      <c r="X57" s="14">
+        <v>10</v>
       </c>
       <c r="Y57" s="11">
         <v>10</v>
@@ -5370,17 +5376,17 @@
       <c r="T58" s="11">
         <v>1</v>
       </c>
-      <c r="U58" s="11">
-        <v>1</v>
-      </c>
-      <c r="V58" s="11">
-        <v>1</v>
-      </c>
-      <c r="W58" s="11">
-        <v>1</v>
-      </c>
-      <c r="X58" s="11">
-        <v>1</v>
+      <c r="U58" s="14">
+        <v>10</v>
+      </c>
+      <c r="V58" s="14">
+        <v>10</v>
+      </c>
+      <c r="W58" s="14">
+        <v>10</v>
+      </c>
+      <c r="X58" s="14">
+        <v>10</v>
       </c>
       <c r="Y58" s="11">
         <v>10</v>
@@ -5410,10 +5416,10 @@
         <v>64</v>
       </c>
       <c r="G59" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H59" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I59" s="5">
         <v>30</v>
@@ -5449,17 +5455,17 @@
       <c r="T59" s="5">
         <v>1</v>
       </c>
-      <c r="U59" s="5">
-        <v>1</v>
-      </c>
-      <c r="V59" s="5">
-        <v>1</v>
-      </c>
-      <c r="W59" s="5">
-        <v>1</v>
-      </c>
-      <c r="X59" s="5">
-        <v>1</v>
+      <c r="U59" s="14">
+        <v>10</v>
+      </c>
+      <c r="V59" s="14">
+        <v>10</v>
+      </c>
+      <c r="W59" s="14">
+        <v>10</v>
+      </c>
+      <c r="X59" s="14">
+        <v>10</v>
       </c>
       <c r="Y59" s="5">
         <v>10</v>
@@ -5510,17 +5516,17 @@
       <c r="T60" s="5">
         <v>1</v>
       </c>
-      <c r="U60" s="5">
-        <v>1</v>
-      </c>
-      <c r="V60" s="5">
-        <v>1</v>
-      </c>
-      <c r="W60" s="5">
-        <v>1</v>
-      </c>
-      <c r="X60" s="5">
-        <v>1</v>
+      <c r="U60" s="14">
+        <v>10</v>
+      </c>
+      <c r="V60" s="14">
+        <v>10</v>
+      </c>
+      <c r="W60" s="14">
+        <v>10</v>
+      </c>
+      <c r="X60" s="14">
+        <v>10</v>
       </c>
       <c r="Y60" s="5">
         <v>10</v>
@@ -5571,17 +5577,17 @@
       <c r="T61" s="5">
         <v>1</v>
       </c>
-      <c r="U61" s="5">
-        <v>1</v>
-      </c>
-      <c r="V61" s="5">
-        <v>1</v>
-      </c>
-      <c r="W61" s="5">
-        <v>1</v>
-      </c>
-      <c r="X61" s="5">
-        <v>1</v>
+      <c r="U61" s="14">
+        <v>10</v>
+      </c>
+      <c r="V61" s="14">
+        <v>10</v>
+      </c>
+      <c r="W61" s="14">
+        <v>10</v>
+      </c>
+      <c r="X61" s="14">
+        <v>10</v>
       </c>
       <c r="Y61" s="5">
         <v>10</v>
@@ -5632,17 +5638,17 @@
       <c r="T62" s="5">
         <v>1</v>
       </c>
-      <c r="U62" s="5">
-        <v>1</v>
-      </c>
-      <c r="V62" s="5">
-        <v>1</v>
-      </c>
-      <c r="W62" s="5">
-        <v>1</v>
-      </c>
-      <c r="X62" s="5">
-        <v>1</v>
+      <c r="U62" s="14">
+        <v>10</v>
+      </c>
+      <c r="V62" s="14">
+        <v>10</v>
+      </c>
+      <c r="W62" s="14">
+        <v>10</v>
+      </c>
+      <c r="X62" s="14">
+        <v>10</v>
       </c>
       <c r="Y62" s="5">
         <v>10</v>
@@ -5693,17 +5699,17 @@
       <c r="T63" s="5">
         <v>1</v>
       </c>
-      <c r="U63" s="5">
-        <v>5</v>
-      </c>
-      <c r="V63" s="5">
-        <v>5</v>
-      </c>
-      <c r="W63" s="5">
-        <v>1</v>
-      </c>
-      <c r="X63" s="5">
-        <v>1</v>
+      <c r="U63" s="14">
+        <v>10</v>
+      </c>
+      <c r="V63" s="14">
+        <v>10</v>
+      </c>
+      <c r="W63" s="14">
+        <v>10</v>
+      </c>
+      <c r="X63" s="14">
+        <v>10</v>
       </c>
       <c r="Y63" s="5">
         <v>10</v>
@@ -5754,17 +5760,17 @@
       <c r="T64" s="11">
         <v>1</v>
       </c>
-      <c r="U64" s="11">
-        <v>5</v>
-      </c>
-      <c r="V64" s="11">
-        <v>5</v>
-      </c>
-      <c r="W64" s="11">
-        <v>1</v>
-      </c>
-      <c r="X64" s="11">
-        <v>1</v>
+      <c r="U64" s="14">
+        <v>10</v>
+      </c>
+      <c r="V64" s="14">
+        <v>10</v>
+      </c>
+      <c r="W64" s="14">
+        <v>10</v>
+      </c>
+      <c r="X64" s="14">
+        <v>10</v>
       </c>
       <c r="Y64" s="11">
         <v>10</v>
@@ -5792,10 +5798,10 @@
         <v>64</v>
       </c>
       <c r="G65" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H65" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I65" s="5">
         <v>30</v>
@@ -5831,17 +5837,17 @@
       <c r="T65" s="5">
         <v>1</v>
       </c>
-      <c r="U65" s="5">
-        <v>1</v>
-      </c>
-      <c r="V65" s="5">
-        <v>1</v>
-      </c>
-      <c r="W65" s="5">
-        <v>1</v>
-      </c>
-      <c r="X65" s="5">
-        <v>1</v>
+      <c r="U65" s="14">
+        <v>10</v>
+      </c>
+      <c r="V65" s="14">
+        <v>10</v>
+      </c>
+      <c r="W65" s="14">
+        <v>10</v>
+      </c>
+      <c r="X65" s="14">
+        <v>10</v>
       </c>
       <c r="Y65" s="5">
         <v>10</v>
@@ -5892,17 +5898,17 @@
       <c r="T66" s="5">
         <v>1</v>
       </c>
-      <c r="U66" s="5">
-        <v>1</v>
-      </c>
-      <c r="V66" s="5">
-        <v>1</v>
-      </c>
-      <c r="W66" s="5">
-        <v>1</v>
-      </c>
-      <c r="X66" s="5">
-        <v>1</v>
+      <c r="U66" s="14">
+        <v>10</v>
+      </c>
+      <c r="V66" s="14">
+        <v>10</v>
+      </c>
+      <c r="W66" s="14">
+        <v>10</v>
+      </c>
+      <c r="X66" s="14">
+        <v>10</v>
       </c>
       <c r="Y66" s="5">
         <v>10</v>
@@ -5953,17 +5959,17 @@
       <c r="T67" s="5">
         <v>1</v>
       </c>
-      <c r="U67" s="5">
-        <v>1</v>
-      </c>
-      <c r="V67" s="5">
-        <v>1</v>
-      </c>
-      <c r="W67" s="5">
-        <v>1</v>
-      </c>
-      <c r="X67" s="5">
-        <v>1</v>
+      <c r="U67" s="14">
+        <v>10</v>
+      </c>
+      <c r="V67" s="14">
+        <v>10</v>
+      </c>
+      <c r="W67" s="14">
+        <v>10</v>
+      </c>
+      <c r="X67" s="14">
+        <v>10</v>
       </c>
       <c r="Y67" s="5">
         <v>10</v>
@@ -6014,17 +6020,17 @@
       <c r="T68" s="5">
         <v>1</v>
       </c>
-      <c r="U68" s="5">
-        <v>1</v>
-      </c>
-      <c r="V68" s="5">
-        <v>1</v>
-      </c>
-      <c r="W68" s="5">
-        <v>1</v>
-      </c>
-      <c r="X68" s="5">
-        <v>1</v>
+      <c r="U68" s="14">
+        <v>10</v>
+      </c>
+      <c r="V68" s="14">
+        <v>10</v>
+      </c>
+      <c r="W68" s="14">
+        <v>10</v>
+      </c>
+      <c r="X68" s="14">
+        <v>10</v>
       </c>
       <c r="Y68" s="5">
         <v>10</v>
@@ -6075,17 +6081,17 @@
       <c r="T69" s="5">
         <v>1</v>
       </c>
-      <c r="U69" s="5">
-        <v>5</v>
-      </c>
-      <c r="V69" s="5">
-        <v>5</v>
-      </c>
-      <c r="W69" s="5">
-        <v>1</v>
-      </c>
-      <c r="X69" s="5">
-        <v>1</v>
+      <c r="U69" s="14">
+        <v>10</v>
+      </c>
+      <c r="V69" s="14">
+        <v>10</v>
+      </c>
+      <c r="W69" s="14">
+        <v>10</v>
+      </c>
+      <c r="X69" s="14">
+        <v>10</v>
       </c>
       <c r="Y69" s="5">
         <v>10</v>
@@ -6136,17 +6142,17 @@
       <c r="T70" s="11">
         <v>1</v>
       </c>
-      <c r="U70" s="11">
-        <v>5</v>
-      </c>
-      <c r="V70" s="11">
-        <v>5</v>
-      </c>
-      <c r="W70" s="11">
-        <v>1</v>
-      </c>
-      <c r="X70" s="11">
-        <v>1</v>
+      <c r="U70" s="14">
+        <v>10</v>
+      </c>
+      <c r="V70" s="14">
+        <v>10</v>
+      </c>
+      <c r="W70" s="14">
+        <v>10</v>
+      </c>
+      <c r="X70" s="14">
+        <v>10</v>
       </c>
       <c r="Y70" s="11">
         <v>10</v>
@@ -6174,10 +6180,10 @@
         <v>64</v>
       </c>
       <c r="G71" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H71" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I71" s="5">
         <v>30</v>
@@ -6213,17 +6219,17 @@
       <c r="T71" s="5">
         <v>1</v>
       </c>
-      <c r="U71" s="5">
-        <v>2</v>
-      </c>
-      <c r="V71" s="5">
-        <v>2</v>
-      </c>
-      <c r="W71" s="5">
-        <v>1</v>
-      </c>
-      <c r="X71" s="5">
-        <v>1</v>
+      <c r="U71" s="14">
+        <v>10</v>
+      </c>
+      <c r="V71" s="14">
+        <v>10</v>
+      </c>
+      <c r="W71" s="14">
+        <v>10</v>
+      </c>
+      <c r="X71" s="14">
+        <v>10</v>
       </c>
       <c r="Y71" s="5">
         <v>10</v>
@@ -6274,17 +6280,17 @@
       <c r="T72" s="5">
         <v>1</v>
       </c>
-      <c r="U72" s="5">
-        <v>3</v>
-      </c>
-      <c r="V72" s="5">
-        <v>3</v>
-      </c>
-      <c r="W72" s="5">
-        <v>1</v>
-      </c>
-      <c r="X72" s="5">
-        <v>1</v>
+      <c r="U72" s="14">
+        <v>10</v>
+      </c>
+      <c r="V72" s="14">
+        <v>10</v>
+      </c>
+      <c r="W72" s="14">
+        <v>10</v>
+      </c>
+      <c r="X72" s="14">
+        <v>10</v>
       </c>
       <c r="Y72" s="5">
         <v>10</v>
@@ -6335,17 +6341,17 @@
       <c r="T73" s="5">
         <v>1</v>
       </c>
-      <c r="U73" s="5">
-        <v>5</v>
-      </c>
-      <c r="V73" s="5">
-        <v>5</v>
-      </c>
-      <c r="W73" s="5">
-        <v>1</v>
-      </c>
-      <c r="X73" s="5">
-        <v>1</v>
+      <c r="U73" s="14">
+        <v>10</v>
+      </c>
+      <c r="V73" s="14">
+        <v>10</v>
+      </c>
+      <c r="W73" s="14">
+        <v>10</v>
+      </c>
+      <c r="X73" s="14">
+        <v>10</v>
       </c>
       <c r="Y73" s="5">
         <v>10</v>
@@ -6396,17 +6402,17 @@
       <c r="T74" s="5">
         <v>1</v>
       </c>
-      <c r="U74" s="5">
-        <v>7</v>
-      </c>
-      <c r="V74" s="5">
-        <v>7</v>
-      </c>
-      <c r="W74" s="5">
-        <v>1</v>
-      </c>
-      <c r="X74" s="5">
-        <v>1</v>
+      <c r="U74" s="14">
+        <v>10</v>
+      </c>
+      <c r="V74" s="14">
+        <v>10</v>
+      </c>
+      <c r="W74" s="14">
+        <v>10</v>
+      </c>
+      <c r="X74" s="14">
+        <v>10</v>
       </c>
       <c r="Y74" s="5">
         <v>10</v>
@@ -6457,17 +6463,17 @@
       <c r="T75" s="5">
         <v>1</v>
       </c>
-      <c r="U75" s="5">
-        <v>9</v>
-      </c>
-      <c r="V75" s="5">
-        <v>9</v>
-      </c>
-      <c r="W75" s="5">
-        <v>1</v>
-      </c>
-      <c r="X75" s="5">
-        <v>1</v>
+      <c r="U75" s="14">
+        <v>10</v>
+      </c>
+      <c r="V75" s="14">
+        <v>10</v>
+      </c>
+      <c r="W75" s="14">
+        <v>10</v>
+      </c>
+      <c r="X75" s="14">
+        <v>10</v>
       </c>
       <c r="Y75" s="5">
         <v>10</v>
@@ -6518,17 +6524,17 @@
       <c r="T76" s="11">
         <v>1</v>
       </c>
-      <c r="U76" s="11">
-        <v>5</v>
-      </c>
-      <c r="V76" s="11">
-        <v>5</v>
-      </c>
-      <c r="W76" s="11">
-        <v>1</v>
-      </c>
-      <c r="X76" s="11">
-        <v>1</v>
+      <c r="U76" s="14">
+        <v>10</v>
+      </c>
+      <c r="V76" s="14">
+        <v>10</v>
+      </c>
+      <c r="W76" s="14">
+        <v>10</v>
+      </c>
+      <c r="X76" s="14">
+        <v>10</v>
       </c>
       <c r="Y76" s="11">
         <v>10</v>
@@ -6556,10 +6562,10 @@
         <v>64</v>
       </c>
       <c r="G77" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H77" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I77" s="5">
         <v>30</v>
@@ -6595,17 +6601,17 @@
       <c r="T77" s="5">
         <v>1</v>
       </c>
-      <c r="U77" s="5">
-        <v>3</v>
-      </c>
-      <c r="V77" s="5">
-        <v>3</v>
-      </c>
-      <c r="W77" s="5">
-        <v>1</v>
-      </c>
-      <c r="X77" s="5">
-        <v>1</v>
+      <c r="U77" s="14">
+        <v>10</v>
+      </c>
+      <c r="V77" s="14">
+        <v>10</v>
+      </c>
+      <c r="W77" s="14">
+        <v>10</v>
+      </c>
+      <c r="X77" s="14">
+        <v>10</v>
       </c>
       <c r="Y77" s="5">
         <v>10</v>
@@ -6656,17 +6662,17 @@
       <c r="T78" s="5">
         <v>1</v>
       </c>
-      <c r="U78" s="5">
-        <v>3</v>
-      </c>
-      <c r="V78" s="5">
-        <v>3</v>
-      </c>
-      <c r="W78" s="5">
-        <v>1</v>
-      </c>
-      <c r="X78" s="5">
-        <v>1</v>
+      <c r="U78" s="14">
+        <v>10</v>
+      </c>
+      <c r="V78" s="14">
+        <v>10</v>
+      </c>
+      <c r="W78" s="14">
+        <v>10</v>
+      </c>
+      <c r="X78" s="14">
+        <v>10</v>
       </c>
       <c r="Y78" s="5">
         <v>10</v>
@@ -6717,17 +6723,17 @@
       <c r="T79" s="5">
         <v>1</v>
       </c>
-      <c r="U79" s="5">
-        <v>4</v>
-      </c>
-      <c r="V79" s="5">
-        <v>4</v>
-      </c>
-      <c r="W79" s="5">
-        <v>1</v>
-      </c>
-      <c r="X79" s="5">
-        <v>1</v>
+      <c r="U79" s="14">
+        <v>10</v>
+      </c>
+      <c r="V79" s="14">
+        <v>10</v>
+      </c>
+      <c r="W79" s="14">
+        <v>10</v>
+      </c>
+      <c r="X79" s="14">
+        <v>10</v>
       </c>
       <c r="Y79" s="5">
         <v>10</v>
@@ -6778,17 +6784,17 @@
       <c r="T80" s="5">
         <v>1</v>
       </c>
-      <c r="U80" s="5">
-        <v>5</v>
-      </c>
-      <c r="V80" s="5">
-        <v>5</v>
-      </c>
-      <c r="W80" s="5">
-        <v>1</v>
-      </c>
-      <c r="X80" s="5">
-        <v>1</v>
+      <c r="U80" s="14">
+        <v>10</v>
+      </c>
+      <c r="V80" s="14">
+        <v>10</v>
+      </c>
+      <c r="W80" s="14">
+        <v>10</v>
+      </c>
+      <c r="X80" s="14">
+        <v>10</v>
       </c>
       <c r="Y80" s="5">
         <v>10</v>
@@ -6839,17 +6845,17 @@
       <c r="T81" s="5">
         <v>1</v>
       </c>
-      <c r="U81" s="5">
-        <v>9</v>
-      </c>
-      <c r="V81" s="5">
-        <v>9</v>
-      </c>
-      <c r="W81" s="5">
-        <v>1</v>
-      </c>
-      <c r="X81" s="5">
-        <v>1</v>
+      <c r="U81" s="14">
+        <v>10</v>
+      </c>
+      <c r="V81" s="14">
+        <v>10</v>
+      </c>
+      <c r="W81" s="14">
+        <v>10</v>
+      </c>
+      <c r="X81" s="14">
+        <v>10</v>
       </c>
       <c r="Y81" s="5">
         <v>10</v>
@@ -6900,17 +6906,17 @@
       <c r="T82" s="11">
         <v>1</v>
       </c>
-      <c r="U82" s="11">
-        <v>10</v>
-      </c>
-      <c r="V82" s="11">
-        <v>10</v>
-      </c>
-      <c r="W82" s="11">
-        <v>1</v>
-      </c>
-      <c r="X82" s="11">
-        <v>1</v>
+      <c r="U82" s="14">
+        <v>10</v>
+      </c>
+      <c r="V82" s="14">
+        <v>10</v>
+      </c>
+      <c r="W82" s="14">
+        <v>10</v>
+      </c>
+      <c r="X82" s="14">
+        <v>10</v>
       </c>
       <c r="Y82" s="11">
         <v>10</v>
@@ -6938,10 +6944,10 @@
         <v>64</v>
       </c>
       <c r="G83" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H83" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I83" s="5">
         <v>30</v>
@@ -6977,17 +6983,17 @@
       <c r="T83" s="5">
         <v>1</v>
       </c>
-      <c r="U83" s="5">
-        <v>5</v>
-      </c>
-      <c r="V83" s="5">
-        <v>5</v>
-      </c>
-      <c r="W83" s="5">
-        <v>1</v>
-      </c>
-      <c r="X83" s="5">
-        <v>1</v>
+      <c r="U83" s="14">
+        <v>10</v>
+      </c>
+      <c r="V83" s="14">
+        <v>10</v>
+      </c>
+      <c r="W83" s="14">
+        <v>10</v>
+      </c>
+      <c r="X83" s="14">
+        <v>10</v>
       </c>
       <c r="Y83" s="5">
         <v>10</v>
@@ -7038,17 +7044,17 @@
       <c r="T84" s="5">
         <v>1</v>
       </c>
-      <c r="U84" s="5">
-        <v>5</v>
-      </c>
-      <c r="V84" s="5">
-        <v>5</v>
-      </c>
-      <c r="W84" s="5">
-        <v>1</v>
-      </c>
-      <c r="X84" s="5">
-        <v>1</v>
+      <c r="U84" s="14">
+        <v>10</v>
+      </c>
+      <c r="V84" s="14">
+        <v>10</v>
+      </c>
+      <c r="W84" s="14">
+        <v>10</v>
+      </c>
+      <c r="X84" s="14">
+        <v>10</v>
       </c>
       <c r="Y84" s="5">
         <v>10</v>
@@ -7099,17 +7105,17 @@
       <c r="T85" s="5">
         <v>1</v>
       </c>
-      <c r="U85" s="5">
-        <v>5</v>
-      </c>
-      <c r="V85" s="5">
-        <v>5</v>
-      </c>
-      <c r="W85" s="5">
-        <v>1</v>
-      </c>
-      <c r="X85" s="5">
-        <v>1</v>
+      <c r="U85" s="14">
+        <v>10</v>
+      </c>
+      <c r="V85" s="14">
+        <v>10</v>
+      </c>
+      <c r="W85" s="14">
+        <v>10</v>
+      </c>
+      <c r="X85" s="14">
+        <v>10</v>
       </c>
       <c r="Y85" s="5">
         <v>10</v>
@@ -7160,17 +7166,17 @@
       <c r="T86" s="5">
         <v>1</v>
       </c>
-      <c r="U86" s="5">
-        <v>5</v>
-      </c>
-      <c r="V86" s="5">
-        <v>5</v>
-      </c>
-      <c r="W86" s="5">
-        <v>1</v>
-      </c>
-      <c r="X86" s="5">
-        <v>1</v>
+      <c r="U86" s="14">
+        <v>10</v>
+      </c>
+      <c r="V86" s="14">
+        <v>10</v>
+      </c>
+      <c r="W86" s="14">
+        <v>10</v>
+      </c>
+      <c r="X86" s="14">
+        <v>10</v>
       </c>
       <c r="Y86" s="5">
         <v>10</v>
@@ -7221,17 +7227,17 @@
       <c r="T87" s="5">
         <v>1</v>
       </c>
-      <c r="U87" s="5">
-        <v>10</v>
-      </c>
-      <c r="V87" s="5">
-        <v>10</v>
-      </c>
-      <c r="W87" s="5">
-        <v>1</v>
-      </c>
-      <c r="X87" s="5">
-        <v>1</v>
+      <c r="U87" s="14">
+        <v>10</v>
+      </c>
+      <c r="V87" s="14">
+        <v>10</v>
+      </c>
+      <c r="W87" s="14">
+        <v>10</v>
+      </c>
+      <c r="X87" s="14">
+        <v>10</v>
       </c>
       <c r="Y87" s="5">
         <v>10</v>
@@ -7282,17 +7288,17 @@
       <c r="T88" s="11">
         <v>1</v>
       </c>
-      <c r="U88" s="11">
-        <v>10</v>
-      </c>
-      <c r="V88" s="11">
-        <v>10</v>
-      </c>
-      <c r="W88" s="11">
-        <v>1</v>
-      </c>
-      <c r="X88" s="11">
-        <v>1</v>
+      <c r="U88" s="14">
+        <v>10</v>
+      </c>
+      <c r="V88" s="14">
+        <v>10</v>
+      </c>
+      <c r="W88" s="14">
+        <v>10</v>
+      </c>
+      <c r="X88" s="14">
+        <v>10</v>
       </c>
       <c r="Y88" s="11">
         <v>10</v>
@@ -7320,10 +7326,10 @@
         <v>64</v>
       </c>
       <c r="G89" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H89" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I89" s="5">
         <v>30</v>
@@ -7359,17 +7365,17 @@
       <c r="T89" s="5">
         <v>1</v>
       </c>
-      <c r="U89" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="V89" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="W89" s="5">
-        <v>1</v>
-      </c>
-      <c r="X89" s="5">
-        <v>1</v>
+      <c r="U89" s="14">
+        <v>10</v>
+      </c>
+      <c r="V89" s="14">
+        <v>10</v>
+      </c>
+      <c r="W89" s="14">
+        <v>10</v>
+      </c>
+      <c r="X89" s="14">
+        <v>10</v>
       </c>
       <c r="Y89" s="5">
         <v>10</v>
@@ -7420,17 +7426,17 @@
       <c r="T90" s="5">
         <v>1</v>
       </c>
-      <c r="U90" s="5">
-        <v>6</v>
-      </c>
-      <c r="V90" s="5">
-        <v>6</v>
-      </c>
-      <c r="W90" s="5">
-        <v>1</v>
-      </c>
-      <c r="X90" s="5">
-        <v>1</v>
+      <c r="U90" s="14">
+        <v>10</v>
+      </c>
+      <c r="V90" s="14">
+        <v>10</v>
+      </c>
+      <c r="W90" s="14">
+        <v>10</v>
+      </c>
+      <c r="X90" s="14">
+        <v>10</v>
       </c>
       <c r="Y90" s="5">
         <v>10</v>
@@ -7481,17 +7487,17 @@
       <c r="T91" s="5">
         <v>1</v>
       </c>
-      <c r="U91" s="5">
-        <v>6</v>
-      </c>
-      <c r="V91" s="5">
-        <v>6</v>
-      </c>
-      <c r="W91" s="5">
-        <v>1</v>
-      </c>
-      <c r="X91" s="5">
-        <v>1</v>
+      <c r="U91" s="14">
+        <v>10</v>
+      </c>
+      <c r="V91" s="14">
+        <v>10</v>
+      </c>
+      <c r="W91" s="14">
+        <v>10</v>
+      </c>
+      <c r="X91" s="14">
+        <v>10</v>
       </c>
       <c r="Y91" s="5">
         <v>10</v>
@@ -7542,17 +7548,17 @@
       <c r="T92" s="5">
         <v>1</v>
       </c>
-      <c r="U92" s="5">
-        <v>6</v>
-      </c>
-      <c r="V92" s="5">
-        <v>6</v>
-      </c>
-      <c r="W92" s="5">
-        <v>1</v>
-      </c>
-      <c r="X92" s="5">
-        <v>1</v>
+      <c r="U92" s="14">
+        <v>10</v>
+      </c>
+      <c r="V92" s="14">
+        <v>10</v>
+      </c>
+      <c r="W92" s="14">
+        <v>10</v>
+      </c>
+      <c r="X92" s="14">
+        <v>10</v>
       </c>
       <c r="Y92" s="5">
         <v>10</v>
@@ -7603,17 +7609,17 @@
       <c r="T93" s="5">
         <v>1</v>
       </c>
-      <c r="U93" s="5">
-        <v>12</v>
-      </c>
-      <c r="V93" s="5">
-        <v>12</v>
-      </c>
-      <c r="W93" s="5">
-        <v>1</v>
-      </c>
-      <c r="X93" s="5">
-        <v>1</v>
+      <c r="U93" s="14">
+        <v>10</v>
+      </c>
+      <c r="V93" s="14">
+        <v>10</v>
+      </c>
+      <c r="W93" s="14">
+        <v>10</v>
+      </c>
+      <c r="X93" s="14">
+        <v>10</v>
       </c>
       <c r="Y93" s="5">
         <v>10</v>
@@ -7664,17 +7670,17 @@
       <c r="T94" s="11">
         <v>1</v>
       </c>
-      <c r="U94" s="11">
-        <v>10</v>
-      </c>
-      <c r="V94" s="11">
-        <v>10</v>
-      </c>
-      <c r="W94" s="11">
-        <v>1</v>
-      </c>
-      <c r="X94" s="11">
-        <v>1</v>
+      <c r="U94" s="14">
+        <v>10</v>
+      </c>
+      <c r="V94" s="14">
+        <v>10</v>
+      </c>
+      <c r="W94" s="14">
+        <v>10</v>
+      </c>
+      <c r="X94" s="14">
+        <v>10</v>
       </c>
       <c r="Y94" s="11">
         <v>10</v>
@@ -7702,10 +7708,10 @@
         <v>64</v>
       </c>
       <c r="G95" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H95" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I95" s="5">
         <v>30</v>
@@ -7741,17 +7747,17 @@
       <c r="T95" s="5">
         <v>1</v>
       </c>
-      <c r="U95" s="5">
-        <v>5</v>
-      </c>
-      <c r="V95" s="5">
-        <v>5</v>
-      </c>
-      <c r="W95" s="5">
-        <v>1</v>
-      </c>
-      <c r="X95" s="5">
-        <v>1</v>
+      <c r="U95" s="14">
+        <v>10</v>
+      </c>
+      <c r="V95" s="14">
+        <v>10</v>
+      </c>
+      <c r="W95" s="14">
+        <v>10</v>
+      </c>
+      <c r="X95" s="14">
+        <v>10</v>
       </c>
       <c r="Y95" s="5">
         <v>10</v>
@@ -7802,17 +7808,17 @@
       <c r="T96" s="5">
         <v>1</v>
       </c>
-      <c r="U96" s="5">
-        <v>11</v>
-      </c>
-      <c r="V96" s="5">
-        <v>11</v>
-      </c>
-      <c r="W96" s="5">
-        <v>1</v>
-      </c>
-      <c r="X96" s="5">
-        <v>1</v>
+      <c r="U96" s="14">
+        <v>10</v>
+      </c>
+      <c r="V96" s="14">
+        <v>10</v>
+      </c>
+      <c r="W96" s="14">
+        <v>10</v>
+      </c>
+      <c r="X96" s="14">
+        <v>10</v>
       </c>
       <c r="Y96" s="5">
         <v>10</v>
@@ -7863,17 +7869,17 @@
       <c r="T97" s="5">
         <v>1</v>
       </c>
-      <c r="U97" s="5">
-        <v>11</v>
-      </c>
-      <c r="V97" s="5">
-        <v>11</v>
-      </c>
-      <c r="W97" s="5">
-        <v>1</v>
-      </c>
-      <c r="X97" s="5">
-        <v>1</v>
+      <c r="U97" s="14">
+        <v>10</v>
+      </c>
+      <c r="V97" s="14">
+        <v>10</v>
+      </c>
+      <c r="W97" s="14">
+        <v>10</v>
+      </c>
+      <c r="X97" s="14">
+        <v>10</v>
       </c>
       <c r="Y97" s="5">
         <v>10</v>
@@ -7924,17 +7930,17 @@
       <c r="T98" s="5">
         <v>1</v>
       </c>
-      <c r="U98" s="5">
-        <v>11</v>
-      </c>
-      <c r="V98" s="5">
-        <v>11</v>
-      </c>
-      <c r="W98" s="5">
-        <v>1</v>
-      </c>
-      <c r="X98" s="5">
-        <v>1</v>
+      <c r="U98" s="14">
+        <v>10</v>
+      </c>
+      <c r="V98" s="14">
+        <v>10</v>
+      </c>
+      <c r="W98" s="14">
+        <v>10</v>
+      </c>
+      <c r="X98" s="14">
+        <v>10</v>
       </c>
       <c r="Y98" s="5">
         <v>10</v>
@@ -7985,17 +7991,17 @@
       <c r="T99" s="5">
         <v>1</v>
       </c>
-      <c r="U99" s="5">
-        <v>25</v>
-      </c>
-      <c r="V99" s="5">
-        <v>25</v>
-      </c>
-      <c r="W99" s="5">
-        <v>1</v>
-      </c>
-      <c r="X99" s="5">
-        <v>1</v>
+      <c r="U99" s="14">
+        <v>10</v>
+      </c>
+      <c r="V99" s="14">
+        <v>10</v>
+      </c>
+      <c r="W99" s="14">
+        <v>10</v>
+      </c>
+      <c r="X99" s="14">
+        <v>10</v>
       </c>
       <c r="Y99" s="5">
         <v>10</v>
@@ -8046,17 +8052,17 @@
       <c r="T100" s="11">
         <v>1</v>
       </c>
-      <c r="U100" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="V100" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="W100" s="11">
-        <v>1</v>
-      </c>
-      <c r="X100" s="11">
-        <v>1</v>
+      <c r="U100" s="14">
+        <v>10</v>
+      </c>
+      <c r="V100" s="14">
+        <v>10</v>
+      </c>
+      <c r="W100" s="14">
+        <v>10</v>
+      </c>
+      <c r="X100" s="14">
+        <v>10</v>
       </c>
       <c r="Y100" s="11">
         <v>10</v>
@@ -8084,10 +8090,10 @@
         <v>64</v>
       </c>
       <c r="G101" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H101" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I101" s="5">
         <v>30</v>
@@ -8123,17 +8129,17 @@
       <c r="T101" s="5">
         <v>1</v>
       </c>
-      <c r="U101" s="5">
-        <v>1</v>
-      </c>
-      <c r="V101" s="5">
-        <v>1</v>
-      </c>
-      <c r="W101" s="5">
-        <v>1</v>
-      </c>
-      <c r="X101" s="5">
-        <v>1</v>
+      <c r="U101" s="14">
+        <v>10</v>
+      </c>
+      <c r="V101" s="14">
+        <v>10</v>
+      </c>
+      <c r="W101" s="14">
+        <v>10</v>
+      </c>
+      <c r="X101" s="14">
+        <v>10</v>
       </c>
       <c r="Y101" s="5">
         <v>10</v>
@@ -8184,17 +8190,17 @@
       <c r="T102" s="5">
         <v>1</v>
       </c>
-      <c r="U102" s="5">
-        <v>1</v>
-      </c>
-      <c r="V102" s="5">
-        <v>1</v>
-      </c>
-      <c r="W102" s="5">
-        <v>1</v>
-      </c>
-      <c r="X102" s="5">
-        <v>1</v>
+      <c r="U102" s="14">
+        <v>10</v>
+      </c>
+      <c r="V102" s="14">
+        <v>10</v>
+      </c>
+      <c r="W102" s="14">
+        <v>10</v>
+      </c>
+      <c r="X102" s="14">
+        <v>10</v>
       </c>
       <c r="Y102" s="5">
         <v>10</v>
@@ -8245,17 +8251,17 @@
       <c r="T103" s="5">
         <v>1</v>
       </c>
-      <c r="U103" s="5">
-        <v>1</v>
-      </c>
-      <c r="V103" s="5">
-        <v>1</v>
-      </c>
-      <c r="W103" s="5">
-        <v>1</v>
-      </c>
-      <c r="X103" s="5">
-        <v>1</v>
+      <c r="U103" s="14">
+        <v>10</v>
+      </c>
+      <c r="V103" s="14">
+        <v>10</v>
+      </c>
+      <c r="W103" s="14">
+        <v>10</v>
+      </c>
+      <c r="X103" s="14">
+        <v>10</v>
       </c>
       <c r="Y103" s="5">
         <v>10</v>
@@ -8306,17 +8312,17 @@
       <c r="T104" s="5">
         <v>1</v>
       </c>
-      <c r="U104" s="5">
-        <v>1</v>
-      </c>
-      <c r="V104" s="5">
-        <v>1</v>
-      </c>
-      <c r="W104" s="5">
-        <v>1</v>
-      </c>
-      <c r="X104" s="5">
-        <v>1</v>
+      <c r="U104" s="14">
+        <v>10</v>
+      </c>
+      <c r="V104" s="14">
+        <v>10</v>
+      </c>
+      <c r="W104" s="14">
+        <v>10</v>
+      </c>
+      <c r="X104" s="14">
+        <v>10</v>
       </c>
       <c r="Y104" s="5">
         <v>10</v>
@@ -8367,17 +8373,17 @@
       <c r="T105" s="5">
         <v>1</v>
       </c>
-      <c r="U105" s="5">
-        <v>5</v>
-      </c>
-      <c r="V105" s="5">
-        <v>5</v>
-      </c>
-      <c r="W105" s="5">
-        <v>1</v>
-      </c>
-      <c r="X105" s="5">
-        <v>1</v>
+      <c r="U105" s="14">
+        <v>10</v>
+      </c>
+      <c r="V105" s="14">
+        <v>10</v>
+      </c>
+      <c r="W105" s="14">
+        <v>10</v>
+      </c>
+      <c r="X105" s="14">
+        <v>10</v>
       </c>
       <c r="Y105" s="5">
         <v>10</v>
@@ -8428,17 +8434,17 @@
       <c r="T106" s="11">
         <v>1</v>
       </c>
-      <c r="U106" s="11">
-        <v>10</v>
-      </c>
-      <c r="V106" s="11">
-        <v>10</v>
-      </c>
-      <c r="W106" s="11">
-        <v>1</v>
-      </c>
-      <c r="X106" s="11">
-        <v>1</v>
+      <c r="U106" s="14">
+        <v>10</v>
+      </c>
+      <c r="V106" s="14">
+        <v>10</v>
+      </c>
+      <c r="W106" s="14">
+        <v>10</v>
+      </c>
+      <c r="X106" s="14">
+        <v>10</v>
       </c>
       <c r="Y106" s="11">
         <v>10</v>
@@ -8466,10 +8472,10 @@
         <v>64</v>
       </c>
       <c r="G107" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H107" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I107" s="5">
         <v>30</v>
@@ -8505,17 +8511,17 @@
       <c r="T107" s="5">
         <v>1</v>
       </c>
-      <c r="U107" s="5">
-        <v>5</v>
-      </c>
-      <c r="V107" s="5">
-        <v>5</v>
-      </c>
-      <c r="W107" s="5">
-        <v>1</v>
-      </c>
-      <c r="X107" s="5">
-        <v>1</v>
+      <c r="U107" s="14">
+        <v>10</v>
+      </c>
+      <c r="V107" s="14">
+        <v>10</v>
+      </c>
+      <c r="W107" s="14">
+        <v>10</v>
+      </c>
+      <c r="X107" s="14">
+        <v>10</v>
       </c>
       <c r="Y107" s="5">
         <v>10</v>
@@ -8566,17 +8572,17 @@
       <c r="T108" s="5">
         <v>1</v>
       </c>
-      <c r="U108" s="5">
-        <v>2</v>
-      </c>
-      <c r="V108" s="5">
-        <v>2</v>
-      </c>
-      <c r="W108" s="5">
-        <v>1</v>
-      </c>
-      <c r="X108" s="5">
-        <v>1</v>
+      <c r="U108" s="14">
+        <v>10</v>
+      </c>
+      <c r="V108" s="14">
+        <v>10</v>
+      </c>
+      <c r="W108" s="14">
+        <v>10</v>
+      </c>
+      <c r="X108" s="14">
+        <v>10</v>
       </c>
       <c r="Y108" s="5">
         <v>10</v>
@@ -8627,17 +8633,17 @@
       <c r="T109" s="5">
         <v>1</v>
       </c>
-      <c r="U109" s="5">
-        <v>1</v>
-      </c>
-      <c r="V109" s="5">
-        <v>1</v>
-      </c>
-      <c r="W109" s="5">
-        <v>1</v>
-      </c>
-      <c r="X109" s="5">
-        <v>1</v>
+      <c r="U109" s="14">
+        <v>10</v>
+      </c>
+      <c r="V109" s="14">
+        <v>10</v>
+      </c>
+      <c r="W109" s="14">
+        <v>10</v>
+      </c>
+      <c r="X109" s="14">
+        <v>10</v>
       </c>
       <c r="Y109" s="5">
         <v>10</v>
@@ -8688,17 +8694,17 @@
       <c r="T110" s="5">
         <v>1</v>
       </c>
-      <c r="U110" s="5">
-        <v>1</v>
-      </c>
-      <c r="V110" s="5">
-        <v>1</v>
-      </c>
-      <c r="W110" s="5">
-        <v>1</v>
-      </c>
-      <c r="X110" s="5">
-        <v>1</v>
+      <c r="U110" s="14">
+        <v>10</v>
+      </c>
+      <c r="V110" s="14">
+        <v>10</v>
+      </c>
+      <c r="W110" s="14">
+        <v>10</v>
+      </c>
+      <c r="X110" s="14">
+        <v>10</v>
       </c>
       <c r="Y110" s="5">
         <v>10</v>
@@ -8749,17 +8755,17 @@
       <c r="T111" s="5">
         <v>1</v>
       </c>
-      <c r="U111" s="5">
-        <v>5</v>
-      </c>
-      <c r="V111" s="5">
-        <v>5</v>
-      </c>
-      <c r="W111" s="5">
-        <v>1</v>
-      </c>
-      <c r="X111" s="5">
-        <v>1</v>
+      <c r="U111" s="14">
+        <v>10</v>
+      </c>
+      <c r="V111" s="14">
+        <v>10</v>
+      </c>
+      <c r="W111" s="14">
+        <v>10</v>
+      </c>
+      <c r="X111" s="14">
+        <v>10</v>
       </c>
       <c r="Y111" s="5">
         <v>10</v>
@@ -8810,17 +8816,17 @@
       <c r="T112" s="11">
         <v>1</v>
       </c>
-      <c r="U112" s="11">
-        <v>10</v>
-      </c>
-      <c r="V112" s="11">
-        <v>10</v>
-      </c>
-      <c r="W112" s="11">
-        <v>1</v>
-      </c>
-      <c r="X112" s="11">
-        <v>1</v>
+      <c r="U112" s="14">
+        <v>10</v>
+      </c>
+      <c r="V112" s="14">
+        <v>10</v>
+      </c>
+      <c r="W112" s="14">
+        <v>10</v>
+      </c>
+      <c r="X112" s="14">
+        <v>10</v>
       </c>
       <c r="Y112" s="11">
         <v>10</v>
@@ -8848,10 +8854,10 @@
         <v>64</v>
       </c>
       <c r="G113" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H113" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I113" s="5">
         <v>30</v>
@@ -8887,17 +8893,17 @@
       <c r="T113" s="5">
         <v>1</v>
       </c>
-      <c r="U113" s="5">
-        <v>2</v>
-      </c>
-      <c r="V113" s="5">
-        <v>2</v>
-      </c>
-      <c r="W113" s="5">
-        <v>1</v>
-      </c>
-      <c r="X113" s="5">
-        <v>1</v>
+      <c r="U113" s="14">
+        <v>10</v>
+      </c>
+      <c r="V113" s="14">
+        <v>10</v>
+      </c>
+      <c r="W113" s="14">
+        <v>10</v>
+      </c>
+      <c r="X113" s="14">
+        <v>10</v>
       </c>
       <c r="Y113" s="5">
         <v>10</v>
@@ -8948,17 +8954,17 @@
       <c r="T114" s="5">
         <v>1</v>
       </c>
-      <c r="U114" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="V114" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="W114" s="5">
-        <v>1</v>
-      </c>
-      <c r="X114" s="5">
-        <v>1</v>
+      <c r="U114" s="14">
+        <v>10</v>
+      </c>
+      <c r="V114" s="14">
+        <v>10</v>
+      </c>
+      <c r="W114" s="14">
+        <v>10</v>
+      </c>
+      <c r="X114" s="14">
+        <v>10</v>
       </c>
       <c r="Y114" s="5">
         <v>10</v>
@@ -9009,17 +9015,17 @@
       <c r="T115" s="5">
         <v>1</v>
       </c>
-      <c r="U115" s="5">
-        <v>2</v>
-      </c>
-      <c r="V115" s="5">
-        <v>2</v>
-      </c>
-      <c r="W115" s="5">
-        <v>1</v>
-      </c>
-      <c r="X115" s="5">
-        <v>1</v>
+      <c r="U115" s="14">
+        <v>10</v>
+      </c>
+      <c r="V115" s="14">
+        <v>10</v>
+      </c>
+      <c r="W115" s="14">
+        <v>10</v>
+      </c>
+      <c r="X115" s="14">
+        <v>10</v>
       </c>
       <c r="Y115" s="5">
         <v>10</v>
@@ -9070,17 +9076,17 @@
       <c r="T116" s="5">
         <v>1</v>
       </c>
-      <c r="U116" s="5">
-        <v>5</v>
-      </c>
-      <c r="V116" s="5">
-        <v>5</v>
-      </c>
-      <c r="W116" s="5">
-        <v>1</v>
-      </c>
-      <c r="X116" s="5">
-        <v>1</v>
+      <c r="U116" s="14">
+        <v>10</v>
+      </c>
+      <c r="V116" s="14">
+        <v>10</v>
+      </c>
+      <c r="W116" s="14">
+        <v>10</v>
+      </c>
+      <c r="X116" s="14">
+        <v>10</v>
       </c>
       <c r="Y116" s="5">
         <v>10</v>
@@ -9131,17 +9137,17 @@
       <c r="T117" s="11">
         <v>1</v>
       </c>
-      <c r="U117" s="11">
-        <v>10</v>
-      </c>
-      <c r="V117" s="11">
-        <v>10</v>
-      </c>
-      <c r="W117" s="11">
-        <v>1</v>
-      </c>
-      <c r="X117" s="11">
-        <v>1</v>
+      <c r="U117" s="14">
+        <v>10</v>
+      </c>
+      <c r="V117" s="14">
+        <v>10</v>
+      </c>
+      <c r="W117" s="14">
+        <v>10</v>
+      </c>
+      <c r="X117" s="14">
+        <v>10</v>
       </c>
       <c r="Y117" s="11">
         <v>10</v>
@@ -9190,17 +9196,17 @@
       <c r="T118" s="11">
         <v>1</v>
       </c>
-      <c r="U118" s="11">
-        <v>1</v>
-      </c>
-      <c r="V118" s="11">
-        <v>1</v>
-      </c>
-      <c r="W118" s="11">
-        <v>1</v>
-      </c>
-      <c r="X118" s="11">
-        <v>1</v>
+      <c r="U118" s="14">
+        <v>10</v>
+      </c>
+      <c r="V118" s="14">
+        <v>10</v>
+      </c>
+      <c r="W118" s="14">
+        <v>10</v>
+      </c>
+      <c r="X118" s="14">
+        <v>10</v>
       </c>
       <c r="Y118" s="11">
         <v>10</v>
@@ -9230,10 +9236,10 @@
         <v>64</v>
       </c>
       <c r="G119" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H119" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I119" s="5">
         <v>30</v>
@@ -9269,17 +9275,17 @@
       <c r="T119" s="5">
         <v>1</v>
       </c>
-      <c r="U119" s="5">
-        <v>1</v>
-      </c>
-      <c r="V119" s="5">
-        <v>1</v>
-      </c>
-      <c r="W119" s="5">
-        <v>1</v>
-      </c>
-      <c r="X119" s="5">
-        <v>1</v>
+      <c r="U119" s="14">
+        <v>10</v>
+      </c>
+      <c r="V119" s="14">
+        <v>10</v>
+      </c>
+      <c r="W119" s="14">
+        <v>10</v>
+      </c>
+      <c r="X119" s="14">
+        <v>10</v>
       </c>
       <c r="Y119" s="5">
         <v>10</v>
@@ -9330,17 +9336,17 @@
       <c r="T120" s="5">
         <v>1</v>
       </c>
-      <c r="U120" s="5">
-        <v>1</v>
-      </c>
-      <c r="V120" s="5">
-        <v>1</v>
-      </c>
-      <c r="W120" s="5">
-        <v>1</v>
-      </c>
-      <c r="X120" s="5">
-        <v>1</v>
+      <c r="U120" s="14">
+        <v>10</v>
+      </c>
+      <c r="V120" s="14">
+        <v>10</v>
+      </c>
+      <c r="W120" s="14">
+        <v>10</v>
+      </c>
+      <c r="X120" s="14">
+        <v>10</v>
       </c>
       <c r="Y120" s="5">
         <v>10</v>
@@ -9391,17 +9397,17 @@
       <c r="T121" s="5">
         <v>1</v>
       </c>
-      <c r="U121" s="5">
-        <v>1</v>
-      </c>
-      <c r="V121" s="5">
-        <v>1</v>
-      </c>
-      <c r="W121" s="5">
-        <v>1</v>
-      </c>
-      <c r="X121" s="5">
-        <v>1</v>
+      <c r="U121" s="14">
+        <v>10</v>
+      </c>
+      <c r="V121" s="14">
+        <v>10</v>
+      </c>
+      <c r="W121" s="14">
+        <v>10</v>
+      </c>
+      <c r="X121" s="14">
+        <v>10</v>
       </c>
       <c r="Y121" s="5">
         <v>10</v>
@@ -9452,17 +9458,17 @@
       <c r="T122" s="5">
         <v>1</v>
       </c>
-      <c r="U122" s="5">
-        <v>1</v>
-      </c>
-      <c r="V122" s="5">
-        <v>1</v>
-      </c>
-      <c r="W122" s="5">
-        <v>1</v>
-      </c>
-      <c r="X122" s="5">
-        <v>1</v>
+      <c r="U122" s="14">
+        <v>10</v>
+      </c>
+      <c r="V122" s="14">
+        <v>10</v>
+      </c>
+      <c r="W122" s="14">
+        <v>10</v>
+      </c>
+      <c r="X122" s="14">
+        <v>10</v>
       </c>
       <c r="Y122" s="5">
         <v>10</v>
@@ -9513,17 +9519,17 @@
       <c r="T123" s="5">
         <v>1</v>
       </c>
-      <c r="U123" s="5">
-        <v>5</v>
-      </c>
-      <c r="V123" s="5">
-        <v>5</v>
-      </c>
-      <c r="W123" s="5">
-        <v>1</v>
-      </c>
-      <c r="X123" s="5">
-        <v>1</v>
+      <c r="U123" s="14">
+        <v>10</v>
+      </c>
+      <c r="V123" s="14">
+        <v>10</v>
+      </c>
+      <c r="W123" s="14">
+        <v>10</v>
+      </c>
+      <c r="X123" s="14">
+        <v>10</v>
       </c>
       <c r="Y123" s="5">
         <v>10</v>
@@ -9574,17 +9580,17 @@
       <c r="T124" s="11">
         <v>1</v>
       </c>
-      <c r="U124" s="11">
-        <v>5</v>
-      </c>
-      <c r="V124" s="11">
-        <v>5</v>
-      </c>
-      <c r="W124" s="11">
-        <v>1</v>
-      </c>
-      <c r="X124" s="11">
-        <v>1</v>
+      <c r="U124" s="14">
+        <v>10</v>
+      </c>
+      <c r="V124" s="14">
+        <v>10</v>
+      </c>
+      <c r="W124" s="14">
+        <v>10</v>
+      </c>
+      <c r="X124" s="14">
+        <v>10</v>
       </c>
       <c r="Y124" s="11">
         <v>10</v>
@@ -9612,10 +9618,10 @@
         <v>64</v>
       </c>
       <c r="G125" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H125" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I125" s="5">
         <v>30</v>
@@ -9651,17 +9657,17 @@
       <c r="T125" s="5">
         <v>1</v>
       </c>
-      <c r="U125" s="5">
-        <v>1</v>
-      </c>
-      <c r="V125" s="5">
-        <v>1</v>
-      </c>
-      <c r="W125" s="5">
-        <v>1</v>
-      </c>
-      <c r="X125" s="5">
-        <v>1</v>
+      <c r="U125" s="14">
+        <v>10</v>
+      </c>
+      <c r="V125" s="14">
+        <v>10</v>
+      </c>
+      <c r="W125" s="14">
+        <v>10</v>
+      </c>
+      <c r="X125" s="14">
+        <v>10</v>
       </c>
       <c r="Y125" s="5">
         <v>10</v>
@@ -9712,17 +9718,17 @@
       <c r="T126" s="5">
         <v>1</v>
       </c>
-      <c r="U126" s="5">
-        <v>1</v>
-      </c>
-      <c r="V126" s="5">
-        <v>1</v>
-      </c>
-      <c r="W126" s="5">
-        <v>1</v>
-      </c>
-      <c r="X126" s="5">
-        <v>1</v>
+      <c r="U126" s="14">
+        <v>10</v>
+      </c>
+      <c r="V126" s="14">
+        <v>10</v>
+      </c>
+      <c r="W126" s="14">
+        <v>10</v>
+      </c>
+      <c r="X126" s="14">
+        <v>10</v>
       </c>
       <c r="Y126" s="5">
         <v>10</v>
@@ -9773,17 +9779,17 @@
       <c r="T127" s="5">
         <v>1</v>
       </c>
-      <c r="U127" s="5">
-        <v>1</v>
-      </c>
-      <c r="V127" s="5">
-        <v>1</v>
-      </c>
-      <c r="W127" s="5">
-        <v>1</v>
-      </c>
-      <c r="X127" s="5">
-        <v>1</v>
+      <c r="U127" s="14">
+        <v>10</v>
+      </c>
+      <c r="V127" s="14">
+        <v>10</v>
+      </c>
+      <c r="W127" s="14">
+        <v>10</v>
+      </c>
+      <c r="X127" s="14">
+        <v>10</v>
       </c>
       <c r="Y127" s="5">
         <v>10</v>
@@ -9834,17 +9840,17 @@
       <c r="T128" s="5">
         <v>1</v>
       </c>
-      <c r="U128" s="5">
-        <v>1</v>
-      </c>
-      <c r="V128" s="5">
-        <v>1</v>
-      </c>
-      <c r="W128" s="5">
-        <v>1</v>
-      </c>
-      <c r="X128" s="5">
-        <v>1</v>
+      <c r="U128" s="14">
+        <v>10</v>
+      </c>
+      <c r="V128" s="14">
+        <v>10</v>
+      </c>
+      <c r="W128" s="14">
+        <v>10</v>
+      </c>
+      <c r="X128" s="14">
+        <v>10</v>
       </c>
       <c r="Y128" s="5">
         <v>10</v>
@@ -9895,17 +9901,17 @@
       <c r="T129" s="5">
         <v>1</v>
       </c>
-      <c r="U129" s="5">
-        <v>5</v>
-      </c>
-      <c r="V129" s="5">
-        <v>5</v>
-      </c>
-      <c r="W129" s="5">
-        <v>1</v>
-      </c>
-      <c r="X129" s="5">
-        <v>1</v>
+      <c r="U129" s="14">
+        <v>10</v>
+      </c>
+      <c r="V129" s="14">
+        <v>10</v>
+      </c>
+      <c r="W129" s="14">
+        <v>10</v>
+      </c>
+      <c r="X129" s="14">
+        <v>10</v>
       </c>
       <c r="Y129" s="5">
         <v>10</v>
@@ -9956,17 +9962,17 @@
       <c r="T130" s="11">
         <v>1</v>
       </c>
-      <c r="U130" s="11">
-        <v>5</v>
-      </c>
-      <c r="V130" s="11">
-        <v>5</v>
-      </c>
-      <c r="W130" s="11">
-        <v>1</v>
-      </c>
-      <c r="X130" s="11">
-        <v>1</v>
+      <c r="U130" s="14">
+        <v>10</v>
+      </c>
+      <c r="V130" s="14">
+        <v>10</v>
+      </c>
+      <c r="W130" s="14">
+        <v>10</v>
+      </c>
+      <c r="X130" s="14">
+        <v>10</v>
       </c>
       <c r="Y130" s="11">
         <v>10</v>
@@ -9994,10 +10000,10 @@
         <v>64</v>
       </c>
       <c r="G131" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H131" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I131" s="5">
         <v>30</v>
@@ -10033,17 +10039,17 @@
       <c r="T131" s="5">
         <v>1</v>
       </c>
-      <c r="U131" s="5">
-        <v>2</v>
-      </c>
-      <c r="V131" s="5">
-        <v>2</v>
-      </c>
-      <c r="W131" s="5">
-        <v>1</v>
-      </c>
-      <c r="X131" s="5">
-        <v>1</v>
+      <c r="U131" s="14">
+        <v>10</v>
+      </c>
+      <c r="V131" s="14">
+        <v>10</v>
+      </c>
+      <c r="W131" s="14">
+        <v>10</v>
+      </c>
+      <c r="X131" s="14">
+        <v>10</v>
       </c>
       <c r="Y131" s="5">
         <v>10</v>
@@ -10094,17 +10100,17 @@
       <c r="T132" s="5">
         <v>1</v>
       </c>
-      <c r="U132" s="5">
-        <v>3</v>
-      </c>
-      <c r="V132" s="5">
-        <v>3</v>
-      </c>
-      <c r="W132" s="5">
-        <v>1</v>
-      </c>
-      <c r="X132" s="5">
-        <v>1</v>
+      <c r="U132" s="14">
+        <v>10</v>
+      </c>
+      <c r="V132" s="14">
+        <v>10</v>
+      </c>
+      <c r="W132" s="14">
+        <v>10</v>
+      </c>
+      <c r="X132" s="14">
+        <v>10</v>
       </c>
       <c r="Y132" s="5">
         <v>10</v>
@@ -10155,17 +10161,17 @@
       <c r="T133" s="5">
         <v>1</v>
       </c>
-      <c r="U133" s="5">
-        <v>5</v>
-      </c>
-      <c r="V133" s="5">
-        <v>5</v>
-      </c>
-      <c r="W133" s="5">
-        <v>1</v>
-      </c>
-      <c r="X133" s="5">
-        <v>1</v>
+      <c r="U133" s="14">
+        <v>10</v>
+      </c>
+      <c r="V133" s="14">
+        <v>10</v>
+      </c>
+      <c r="W133" s="14">
+        <v>10</v>
+      </c>
+      <c r="X133" s="14">
+        <v>10</v>
       </c>
       <c r="Y133" s="5">
         <v>10</v>
@@ -10216,17 +10222,17 @@
       <c r="T134" s="5">
         <v>1</v>
       </c>
-      <c r="U134" s="5">
-        <v>7</v>
-      </c>
-      <c r="V134" s="5">
-        <v>7</v>
-      </c>
-      <c r="W134" s="5">
-        <v>1</v>
-      </c>
-      <c r="X134" s="5">
-        <v>1</v>
+      <c r="U134" s="14">
+        <v>10</v>
+      </c>
+      <c r="V134" s="14">
+        <v>10</v>
+      </c>
+      <c r="W134" s="14">
+        <v>10</v>
+      </c>
+      <c r="X134" s="14">
+        <v>10</v>
       </c>
       <c r="Y134" s="5">
         <v>10</v>
@@ -10277,17 +10283,17 @@
       <c r="T135" s="5">
         <v>1</v>
       </c>
-      <c r="U135" s="5">
-        <v>9</v>
-      </c>
-      <c r="V135" s="5">
-        <v>9</v>
-      </c>
-      <c r="W135" s="5">
-        <v>1</v>
-      </c>
-      <c r="X135" s="5">
-        <v>1</v>
+      <c r="U135" s="14">
+        <v>10</v>
+      </c>
+      <c r="V135" s="14">
+        <v>10</v>
+      </c>
+      <c r="W135" s="14">
+        <v>10</v>
+      </c>
+      <c r="X135" s="14">
+        <v>10</v>
       </c>
       <c r="Y135" s="5">
         <v>10</v>
@@ -10338,17 +10344,17 @@
       <c r="T136" s="11">
         <v>1</v>
       </c>
-      <c r="U136" s="11">
-        <v>5</v>
-      </c>
-      <c r="V136" s="11">
-        <v>5</v>
-      </c>
-      <c r="W136" s="11">
-        <v>1</v>
-      </c>
-      <c r="X136" s="11">
-        <v>1</v>
+      <c r="U136" s="14">
+        <v>10</v>
+      </c>
+      <c r="V136" s="14">
+        <v>10</v>
+      </c>
+      <c r="W136" s="14">
+        <v>10</v>
+      </c>
+      <c r="X136" s="14">
+        <v>10</v>
       </c>
       <c r="Y136" s="11">
         <v>10</v>
@@ -10376,10 +10382,10 @@
         <v>64</v>
       </c>
       <c r="G137" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H137" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I137" s="5">
         <v>30</v>
@@ -10415,17 +10421,17 @@
       <c r="T137" s="5">
         <v>1</v>
       </c>
-      <c r="U137" s="5">
-        <v>3</v>
-      </c>
-      <c r="V137" s="5">
-        <v>3</v>
-      </c>
-      <c r="W137" s="5">
-        <v>1</v>
-      </c>
-      <c r="X137" s="5">
-        <v>1</v>
+      <c r="U137" s="14">
+        <v>10</v>
+      </c>
+      <c r="V137" s="14">
+        <v>10</v>
+      </c>
+      <c r="W137" s="14">
+        <v>10</v>
+      </c>
+      <c r="X137" s="14">
+        <v>10</v>
       </c>
       <c r="Y137" s="5">
         <v>10</v>
@@ -10476,17 +10482,17 @@
       <c r="T138" s="5">
         <v>1</v>
       </c>
-      <c r="U138" s="5">
-        <v>3</v>
-      </c>
-      <c r="V138" s="5">
-        <v>3</v>
-      </c>
-      <c r="W138" s="5">
-        <v>1</v>
-      </c>
-      <c r="X138" s="5">
-        <v>1</v>
+      <c r="U138" s="14">
+        <v>10</v>
+      </c>
+      <c r="V138" s="14">
+        <v>10</v>
+      </c>
+      <c r="W138" s="14">
+        <v>10</v>
+      </c>
+      <c r="X138" s="14">
+        <v>10</v>
       </c>
       <c r="Y138" s="5">
         <v>10</v>
@@ -10537,17 +10543,17 @@
       <c r="T139" s="5">
         <v>1</v>
       </c>
-      <c r="U139" s="5">
-        <v>4</v>
-      </c>
-      <c r="V139" s="5">
-        <v>4</v>
-      </c>
-      <c r="W139" s="5">
-        <v>1</v>
-      </c>
-      <c r="X139" s="5">
-        <v>1</v>
+      <c r="U139" s="14">
+        <v>10</v>
+      </c>
+      <c r="V139" s="14">
+        <v>10</v>
+      </c>
+      <c r="W139" s="14">
+        <v>10</v>
+      </c>
+      <c r="X139" s="14">
+        <v>10</v>
       </c>
       <c r="Y139" s="5">
         <v>10</v>
@@ -10598,17 +10604,17 @@
       <c r="T140" s="5">
         <v>1</v>
       </c>
-      <c r="U140" s="5">
-        <v>5</v>
-      </c>
-      <c r="V140" s="5">
-        <v>5</v>
-      </c>
-      <c r="W140" s="5">
-        <v>1</v>
-      </c>
-      <c r="X140" s="5">
-        <v>1</v>
+      <c r="U140" s="14">
+        <v>10</v>
+      </c>
+      <c r="V140" s="14">
+        <v>10</v>
+      </c>
+      <c r="W140" s="14">
+        <v>10</v>
+      </c>
+      <c r="X140" s="14">
+        <v>10</v>
       </c>
       <c r="Y140" s="5">
         <v>10</v>
@@ -10659,17 +10665,17 @@
       <c r="T141" s="5">
         <v>1</v>
       </c>
-      <c r="U141" s="5">
-        <v>9</v>
-      </c>
-      <c r="V141" s="5">
-        <v>9</v>
-      </c>
-      <c r="W141" s="5">
-        <v>1</v>
-      </c>
-      <c r="X141" s="5">
-        <v>1</v>
+      <c r="U141" s="14">
+        <v>10</v>
+      </c>
+      <c r="V141" s="14">
+        <v>10</v>
+      </c>
+      <c r="W141" s="14">
+        <v>10</v>
+      </c>
+      <c r="X141" s="14">
+        <v>10</v>
       </c>
       <c r="Y141" s="5">
         <v>10</v>
@@ -10720,17 +10726,17 @@
       <c r="T142" s="11">
         <v>1</v>
       </c>
-      <c r="U142" s="11">
-        <v>10</v>
-      </c>
-      <c r="V142" s="11">
-        <v>10</v>
-      </c>
-      <c r="W142" s="11">
-        <v>1</v>
-      </c>
-      <c r="X142" s="11">
-        <v>1</v>
+      <c r="U142" s="14">
+        <v>10</v>
+      </c>
+      <c r="V142" s="14">
+        <v>10</v>
+      </c>
+      <c r="W142" s="14">
+        <v>10</v>
+      </c>
+      <c r="X142" s="14">
+        <v>10</v>
       </c>
       <c r="Y142" s="11">
         <v>10</v>
@@ -10758,10 +10764,10 @@
         <v>64</v>
       </c>
       <c r="G143" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H143" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I143" s="5">
         <v>30</v>
@@ -10797,17 +10803,17 @@
       <c r="T143" s="5">
         <v>1</v>
       </c>
-      <c r="U143" s="5">
-        <v>5</v>
-      </c>
-      <c r="V143" s="5">
-        <v>5</v>
-      </c>
-      <c r="W143" s="5">
-        <v>1</v>
-      </c>
-      <c r="X143" s="5">
-        <v>1</v>
+      <c r="U143" s="14">
+        <v>10</v>
+      </c>
+      <c r="V143" s="14">
+        <v>10</v>
+      </c>
+      <c r="W143" s="14">
+        <v>10</v>
+      </c>
+      <c r="X143" s="14">
+        <v>10</v>
       </c>
       <c r="Y143" s="5">
         <v>10</v>
@@ -10858,17 +10864,17 @@
       <c r="T144" s="5">
         <v>1</v>
       </c>
-      <c r="U144" s="5">
-        <v>5</v>
-      </c>
-      <c r="V144" s="5">
-        <v>5</v>
-      </c>
-      <c r="W144" s="5">
-        <v>1</v>
-      </c>
-      <c r="X144" s="5">
-        <v>1</v>
+      <c r="U144" s="14">
+        <v>10</v>
+      </c>
+      <c r="V144" s="14">
+        <v>10</v>
+      </c>
+      <c r="W144" s="14">
+        <v>10</v>
+      </c>
+      <c r="X144" s="14">
+        <v>10</v>
       </c>
       <c r="Y144" s="5">
         <v>10</v>
@@ -10919,17 +10925,17 @@
       <c r="T145" s="5">
         <v>1</v>
       </c>
-      <c r="U145" s="5">
-        <v>5</v>
-      </c>
-      <c r="V145" s="5">
-        <v>5</v>
-      </c>
-      <c r="W145" s="5">
-        <v>1</v>
-      </c>
-      <c r="X145" s="5">
-        <v>1</v>
+      <c r="U145" s="14">
+        <v>10</v>
+      </c>
+      <c r="V145" s="14">
+        <v>10</v>
+      </c>
+      <c r="W145" s="14">
+        <v>10</v>
+      </c>
+      <c r="X145" s="14">
+        <v>10</v>
       </c>
       <c r="Y145" s="5">
         <v>10</v>
@@ -10980,17 +10986,17 @@
       <c r="T146" s="5">
         <v>1</v>
       </c>
-      <c r="U146" s="5">
-        <v>5</v>
-      </c>
-      <c r="V146" s="5">
-        <v>5</v>
-      </c>
-      <c r="W146" s="5">
-        <v>1</v>
-      </c>
-      <c r="X146" s="5">
-        <v>1</v>
+      <c r="U146" s="14">
+        <v>10</v>
+      </c>
+      <c r="V146" s="14">
+        <v>10</v>
+      </c>
+      <c r="W146" s="14">
+        <v>10</v>
+      </c>
+      <c r="X146" s="14">
+        <v>10</v>
       </c>
       <c r="Y146" s="5">
         <v>10</v>
@@ -11041,17 +11047,17 @@
       <c r="T147" s="5">
         <v>1</v>
       </c>
-      <c r="U147" s="5">
-        <v>10</v>
-      </c>
-      <c r="V147" s="5">
-        <v>10</v>
-      </c>
-      <c r="W147" s="5">
-        <v>1</v>
-      </c>
-      <c r="X147" s="5">
-        <v>1</v>
+      <c r="U147" s="14">
+        <v>10</v>
+      </c>
+      <c r="V147" s="14">
+        <v>10</v>
+      </c>
+      <c r="W147" s="14">
+        <v>10</v>
+      </c>
+      <c r="X147" s="14">
+        <v>10</v>
       </c>
       <c r="Y147" s="5">
         <v>10</v>
@@ -11102,17 +11108,17 @@
       <c r="T148" s="11">
         <v>1</v>
       </c>
-      <c r="U148" s="11">
-        <v>10</v>
-      </c>
-      <c r="V148" s="11">
-        <v>10</v>
-      </c>
-      <c r="W148" s="11">
-        <v>1</v>
-      </c>
-      <c r="X148" s="11">
-        <v>1</v>
+      <c r="U148" s="14">
+        <v>10</v>
+      </c>
+      <c r="V148" s="14">
+        <v>10</v>
+      </c>
+      <c r="W148" s="14">
+        <v>10</v>
+      </c>
+      <c r="X148" s="14">
+        <v>10</v>
       </c>
       <c r="Y148" s="11">
         <v>10</v>
@@ -11140,10 +11146,10 @@
         <v>64</v>
       </c>
       <c r="G149" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H149" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I149" s="5">
         <v>30</v>
@@ -11179,17 +11185,17 @@
       <c r="T149" s="5">
         <v>1</v>
       </c>
-      <c r="U149" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="V149" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="W149" s="5">
-        <v>1</v>
-      </c>
-      <c r="X149" s="5">
-        <v>1</v>
+      <c r="U149" s="14">
+        <v>10</v>
+      </c>
+      <c r="V149" s="14">
+        <v>10</v>
+      </c>
+      <c r="W149" s="14">
+        <v>10</v>
+      </c>
+      <c r="X149" s="14">
+        <v>10</v>
       </c>
       <c r="Y149" s="5">
         <v>10</v>
@@ -11240,17 +11246,17 @@
       <c r="T150" s="5">
         <v>1</v>
       </c>
-      <c r="U150" s="5">
-        <v>6</v>
-      </c>
-      <c r="V150" s="5">
-        <v>6</v>
-      </c>
-      <c r="W150" s="5">
-        <v>1</v>
-      </c>
-      <c r="X150" s="5">
-        <v>1</v>
+      <c r="U150" s="14">
+        <v>10</v>
+      </c>
+      <c r="V150" s="14">
+        <v>10</v>
+      </c>
+      <c r="W150" s="14">
+        <v>10</v>
+      </c>
+      <c r="X150" s="14">
+        <v>10</v>
       </c>
       <c r="Y150" s="5">
         <v>10</v>
@@ -11301,17 +11307,17 @@
       <c r="T151" s="5">
         <v>1</v>
       </c>
-      <c r="U151" s="5">
-        <v>6</v>
-      </c>
-      <c r="V151" s="5">
-        <v>6</v>
-      </c>
-      <c r="W151" s="5">
-        <v>1</v>
-      </c>
-      <c r="X151" s="5">
-        <v>1</v>
+      <c r="U151" s="14">
+        <v>10</v>
+      </c>
+      <c r="V151" s="14">
+        <v>10</v>
+      </c>
+      <c r="W151" s="14">
+        <v>10</v>
+      </c>
+      <c r="X151" s="14">
+        <v>10</v>
       </c>
       <c r="Y151" s="5">
         <v>10</v>
@@ -11362,17 +11368,17 @@
       <c r="T152" s="5">
         <v>1</v>
       </c>
-      <c r="U152" s="5">
-        <v>6</v>
-      </c>
-      <c r="V152" s="5">
-        <v>6</v>
-      </c>
-      <c r="W152" s="5">
-        <v>1</v>
-      </c>
-      <c r="X152" s="5">
-        <v>1</v>
+      <c r="U152" s="14">
+        <v>10</v>
+      </c>
+      <c r="V152" s="14">
+        <v>10</v>
+      </c>
+      <c r="W152" s="14">
+        <v>10</v>
+      </c>
+      <c r="X152" s="14">
+        <v>10</v>
       </c>
       <c r="Y152" s="5">
         <v>10</v>
@@ -11423,17 +11429,17 @@
       <c r="T153" s="5">
         <v>1</v>
       </c>
-      <c r="U153" s="5">
-        <v>12</v>
-      </c>
-      <c r="V153" s="5">
-        <v>12</v>
-      </c>
-      <c r="W153" s="5">
-        <v>1</v>
-      </c>
-      <c r="X153" s="5">
-        <v>1</v>
+      <c r="U153" s="14">
+        <v>10</v>
+      </c>
+      <c r="V153" s="14">
+        <v>10</v>
+      </c>
+      <c r="W153" s="14">
+        <v>10</v>
+      </c>
+      <c r="X153" s="14">
+        <v>10</v>
       </c>
       <c r="Y153" s="5">
         <v>10</v>
@@ -11484,17 +11490,17 @@
       <c r="T154" s="11">
         <v>1</v>
       </c>
-      <c r="U154" s="11">
-        <v>10</v>
-      </c>
-      <c r="V154" s="11">
-        <v>10</v>
-      </c>
-      <c r="W154" s="11">
-        <v>1</v>
-      </c>
-      <c r="X154" s="11">
-        <v>1</v>
+      <c r="U154" s="14">
+        <v>10</v>
+      </c>
+      <c r="V154" s="14">
+        <v>10</v>
+      </c>
+      <c r="W154" s="14">
+        <v>10</v>
+      </c>
+      <c r="X154" s="14">
+        <v>10</v>
       </c>
       <c r="Y154" s="11">
         <v>10</v>
@@ -11522,10 +11528,10 @@
         <v>64</v>
       </c>
       <c r="G155" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H155" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I155" s="5">
         <v>30</v>
@@ -11561,17 +11567,17 @@
       <c r="T155" s="5">
         <v>1</v>
       </c>
-      <c r="U155" s="5">
-        <v>5</v>
-      </c>
-      <c r="V155" s="5">
-        <v>5</v>
-      </c>
-      <c r="W155" s="5">
-        <v>1</v>
-      </c>
-      <c r="X155" s="5">
-        <v>1</v>
+      <c r="U155" s="14">
+        <v>10</v>
+      </c>
+      <c r="V155" s="14">
+        <v>10</v>
+      </c>
+      <c r="W155" s="14">
+        <v>10</v>
+      </c>
+      <c r="X155" s="14">
+        <v>10</v>
       </c>
       <c r="Y155" s="5">
         <v>10</v>
@@ -11622,17 +11628,17 @@
       <c r="T156" s="5">
         <v>1</v>
       </c>
-      <c r="U156" s="5">
-        <v>11</v>
-      </c>
-      <c r="V156" s="5">
-        <v>11</v>
-      </c>
-      <c r="W156" s="5">
-        <v>1</v>
-      </c>
-      <c r="X156" s="5">
-        <v>1</v>
+      <c r="U156" s="14">
+        <v>10</v>
+      </c>
+      <c r="V156" s="14">
+        <v>10</v>
+      </c>
+      <c r="W156" s="14">
+        <v>10</v>
+      </c>
+      <c r="X156" s="14">
+        <v>10</v>
       </c>
       <c r="Y156" s="5">
         <v>10</v>
@@ -11683,17 +11689,17 @@
       <c r="T157" s="5">
         <v>1</v>
       </c>
-      <c r="U157" s="5">
-        <v>11</v>
-      </c>
-      <c r="V157" s="5">
-        <v>11</v>
-      </c>
-      <c r="W157" s="5">
-        <v>1</v>
-      </c>
-      <c r="X157" s="5">
-        <v>1</v>
+      <c r="U157" s="14">
+        <v>10</v>
+      </c>
+      <c r="V157" s="14">
+        <v>10</v>
+      </c>
+      <c r="W157" s="14">
+        <v>10</v>
+      </c>
+      <c r="X157" s="14">
+        <v>10</v>
       </c>
       <c r="Y157" s="5">
         <v>10</v>
@@ -11744,17 +11750,17 @@
       <c r="T158" s="5">
         <v>1</v>
       </c>
-      <c r="U158" s="5">
-        <v>11</v>
-      </c>
-      <c r="V158" s="5">
-        <v>11</v>
-      </c>
-      <c r="W158" s="5">
-        <v>1</v>
-      </c>
-      <c r="X158" s="5">
-        <v>1</v>
+      <c r="U158" s="14">
+        <v>10</v>
+      </c>
+      <c r="V158" s="14">
+        <v>10</v>
+      </c>
+      <c r="W158" s="14">
+        <v>10</v>
+      </c>
+      <c r="X158" s="14">
+        <v>10</v>
       </c>
       <c r="Y158" s="5">
         <v>10</v>
@@ -11805,17 +11811,17 @@
       <c r="T159" s="5">
         <v>1</v>
       </c>
-      <c r="U159" s="5">
-        <v>25</v>
-      </c>
-      <c r="V159" s="5">
-        <v>25</v>
-      </c>
-      <c r="W159" s="5">
-        <v>1</v>
-      </c>
-      <c r="X159" s="5">
-        <v>1</v>
+      <c r="U159" s="14">
+        <v>10</v>
+      </c>
+      <c r="V159" s="14">
+        <v>10</v>
+      </c>
+      <c r="W159" s="14">
+        <v>10</v>
+      </c>
+      <c r="X159" s="14">
+        <v>10</v>
       </c>
       <c r="Y159" s="5">
         <v>10</v>
@@ -11866,17 +11872,17 @@
       <c r="T160" s="11">
         <v>1</v>
       </c>
-      <c r="U160" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="V160" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="W160" s="11">
-        <v>1</v>
-      </c>
-      <c r="X160" s="11">
-        <v>1</v>
+      <c r="U160" s="14">
+        <v>10</v>
+      </c>
+      <c r="V160" s="14">
+        <v>10</v>
+      </c>
+      <c r="W160" s="14">
+        <v>10</v>
+      </c>
+      <c r="X160" s="14">
+        <v>10</v>
       </c>
       <c r="Y160" s="11">
         <v>10</v>
@@ -11904,10 +11910,10 @@
         <v>64</v>
       </c>
       <c r="G161" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H161" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I161" s="5">
         <v>30</v>
@@ -11943,17 +11949,17 @@
       <c r="T161" s="5">
         <v>1</v>
       </c>
-      <c r="U161" s="5">
-        <v>1</v>
-      </c>
-      <c r="V161" s="5">
-        <v>1</v>
-      </c>
-      <c r="W161" s="5">
-        <v>1</v>
-      </c>
-      <c r="X161" s="5">
-        <v>1</v>
+      <c r="U161" s="14">
+        <v>10</v>
+      </c>
+      <c r="V161" s="14">
+        <v>10</v>
+      </c>
+      <c r="W161" s="14">
+        <v>10</v>
+      </c>
+      <c r="X161" s="14">
+        <v>10</v>
       </c>
       <c r="Y161" s="5">
         <v>10</v>
@@ -12004,17 +12010,17 @@
       <c r="T162" s="5">
         <v>1</v>
       </c>
-      <c r="U162" s="5">
-        <v>1</v>
-      </c>
-      <c r="V162" s="5">
-        <v>1</v>
-      </c>
-      <c r="W162" s="5">
-        <v>1</v>
-      </c>
-      <c r="X162" s="5">
-        <v>1</v>
+      <c r="U162" s="14">
+        <v>10</v>
+      </c>
+      <c r="V162" s="14">
+        <v>10</v>
+      </c>
+      <c r="W162" s="14">
+        <v>10</v>
+      </c>
+      <c r="X162" s="14">
+        <v>10</v>
       </c>
       <c r="Y162" s="5">
         <v>10</v>
@@ -12065,17 +12071,17 @@
       <c r="T163" s="5">
         <v>1</v>
       </c>
-      <c r="U163" s="5">
-        <v>1</v>
-      </c>
-      <c r="V163" s="5">
-        <v>1</v>
-      </c>
-      <c r="W163" s="5">
-        <v>1</v>
-      </c>
-      <c r="X163" s="5">
-        <v>1</v>
+      <c r="U163" s="14">
+        <v>10</v>
+      </c>
+      <c r="V163" s="14">
+        <v>10</v>
+      </c>
+      <c r="W163" s="14">
+        <v>10</v>
+      </c>
+      <c r="X163" s="14">
+        <v>10</v>
       </c>
       <c r="Y163" s="5">
         <v>10</v>
@@ -12126,17 +12132,17 @@
       <c r="T164" s="5">
         <v>1</v>
       </c>
-      <c r="U164" s="5">
-        <v>1</v>
-      </c>
-      <c r="V164" s="5">
-        <v>1</v>
-      </c>
-      <c r="W164" s="5">
-        <v>1</v>
-      </c>
-      <c r="X164" s="5">
-        <v>1</v>
+      <c r="U164" s="14">
+        <v>10</v>
+      </c>
+      <c r="V164" s="14">
+        <v>10</v>
+      </c>
+      <c r="W164" s="14">
+        <v>10</v>
+      </c>
+      <c r="X164" s="14">
+        <v>10</v>
       </c>
       <c r="Y164" s="5">
         <v>10</v>
@@ -12187,17 +12193,17 @@
       <c r="T165" s="5">
         <v>1</v>
       </c>
-      <c r="U165" s="5">
-        <v>5</v>
-      </c>
-      <c r="V165" s="5">
-        <v>5</v>
-      </c>
-      <c r="W165" s="5">
-        <v>1</v>
-      </c>
-      <c r="X165" s="5">
-        <v>1</v>
+      <c r="U165" s="14">
+        <v>10</v>
+      </c>
+      <c r="V165" s="14">
+        <v>10</v>
+      </c>
+      <c r="W165" s="14">
+        <v>10</v>
+      </c>
+      <c r="X165" s="14">
+        <v>10</v>
       </c>
       <c r="Y165" s="5">
         <v>10</v>
@@ -12248,17 +12254,17 @@
       <c r="T166" s="11">
         <v>1</v>
       </c>
-      <c r="U166" s="11">
-        <v>10</v>
-      </c>
-      <c r="V166" s="11">
-        <v>10</v>
-      </c>
-      <c r="W166" s="11">
-        <v>1</v>
-      </c>
-      <c r="X166" s="11">
-        <v>1</v>
+      <c r="U166" s="14">
+        <v>10</v>
+      </c>
+      <c r="V166" s="14">
+        <v>10</v>
+      </c>
+      <c r="W166" s="14">
+        <v>10</v>
+      </c>
+      <c r="X166" s="14">
+        <v>10</v>
       </c>
       <c r="Y166" s="11">
         <v>10</v>
@@ -12286,10 +12292,10 @@
         <v>64</v>
       </c>
       <c r="G167" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H167" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I167" s="5">
         <v>30</v>
@@ -12325,17 +12331,17 @@
       <c r="T167" s="5">
         <v>1</v>
       </c>
-      <c r="U167" s="5">
-        <v>5</v>
-      </c>
-      <c r="V167" s="5">
-        <v>5</v>
-      </c>
-      <c r="W167" s="5">
-        <v>1</v>
-      </c>
-      <c r="X167" s="5">
-        <v>1</v>
+      <c r="U167" s="14">
+        <v>10</v>
+      </c>
+      <c r="V167" s="14">
+        <v>10</v>
+      </c>
+      <c r="W167" s="14">
+        <v>10</v>
+      </c>
+      <c r="X167" s="14">
+        <v>10</v>
       </c>
       <c r="Y167" s="5">
         <v>10</v>
@@ -12386,17 +12392,17 @@
       <c r="T168" s="5">
         <v>1</v>
       </c>
-      <c r="U168" s="5">
-        <v>2</v>
-      </c>
-      <c r="V168" s="5">
-        <v>2</v>
-      </c>
-      <c r="W168" s="5">
-        <v>1</v>
-      </c>
-      <c r="X168" s="5">
-        <v>1</v>
+      <c r="U168" s="14">
+        <v>10</v>
+      </c>
+      <c r="V168" s="14">
+        <v>10</v>
+      </c>
+      <c r="W168" s="14">
+        <v>10</v>
+      </c>
+      <c r="X168" s="14">
+        <v>10</v>
       </c>
       <c r="Y168" s="5">
         <v>10</v>
@@ -12447,17 +12453,17 @@
       <c r="T169" s="5">
         <v>1</v>
       </c>
-      <c r="U169" s="5">
-        <v>1</v>
-      </c>
-      <c r="V169" s="5">
-        <v>1</v>
-      </c>
-      <c r="W169" s="5">
-        <v>1</v>
-      </c>
-      <c r="X169" s="5">
-        <v>1</v>
+      <c r="U169" s="14">
+        <v>10</v>
+      </c>
+      <c r="V169" s="14">
+        <v>10</v>
+      </c>
+      <c r="W169" s="14">
+        <v>10</v>
+      </c>
+      <c r="X169" s="14">
+        <v>10</v>
       </c>
       <c r="Y169" s="5">
         <v>10</v>
@@ -12508,17 +12514,17 @@
       <c r="T170" s="5">
         <v>1</v>
       </c>
-      <c r="U170" s="5">
-        <v>1</v>
-      </c>
-      <c r="V170" s="5">
-        <v>1</v>
-      </c>
-      <c r="W170" s="5">
-        <v>1</v>
-      </c>
-      <c r="X170" s="5">
-        <v>1</v>
+      <c r="U170" s="14">
+        <v>10</v>
+      </c>
+      <c r="V170" s="14">
+        <v>10</v>
+      </c>
+      <c r="W170" s="14">
+        <v>10</v>
+      </c>
+      <c r="X170" s="14">
+        <v>10</v>
       </c>
       <c r="Y170" s="5">
         <v>10</v>
@@ -12569,17 +12575,17 @@
       <c r="T171" s="5">
         <v>1</v>
       </c>
-      <c r="U171" s="5">
-        <v>5</v>
-      </c>
-      <c r="V171" s="5">
-        <v>5</v>
-      </c>
-      <c r="W171" s="5">
-        <v>1</v>
-      </c>
-      <c r="X171" s="5">
-        <v>1</v>
+      <c r="U171" s="14">
+        <v>10</v>
+      </c>
+      <c r="V171" s="14">
+        <v>10</v>
+      </c>
+      <c r="W171" s="14">
+        <v>10</v>
+      </c>
+      <c r="X171" s="14">
+        <v>10</v>
       </c>
       <c r="Y171" s="5">
         <v>10</v>
@@ -12630,17 +12636,17 @@
       <c r="T172" s="11">
         <v>1</v>
       </c>
-      <c r="U172" s="11">
-        <v>10</v>
-      </c>
-      <c r="V172" s="11">
-        <v>10</v>
-      </c>
-      <c r="W172" s="11">
-        <v>1</v>
-      </c>
-      <c r="X172" s="11">
-        <v>1</v>
+      <c r="U172" s="14">
+        <v>10</v>
+      </c>
+      <c r="V172" s="14">
+        <v>10</v>
+      </c>
+      <c r="W172" s="14">
+        <v>10</v>
+      </c>
+      <c r="X172" s="14">
+        <v>10</v>
       </c>
       <c r="Y172" s="11">
         <v>10</v>
@@ -12668,10 +12674,10 @@
         <v>64</v>
       </c>
       <c r="G173" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H173" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I173" s="5">
         <v>30</v>
@@ -12707,17 +12713,17 @@
       <c r="T173" s="5">
         <v>1</v>
       </c>
-      <c r="U173" s="5">
-        <v>2</v>
-      </c>
-      <c r="V173" s="5">
-        <v>2</v>
-      </c>
-      <c r="W173" s="5">
-        <v>1</v>
-      </c>
-      <c r="X173" s="5">
-        <v>1</v>
+      <c r="U173" s="14">
+        <v>10</v>
+      </c>
+      <c r="V173" s="14">
+        <v>10</v>
+      </c>
+      <c r="W173" s="14">
+        <v>10</v>
+      </c>
+      <c r="X173" s="14">
+        <v>10</v>
       </c>
       <c r="Y173" s="5">
         <v>10</v>
@@ -12768,17 +12774,17 @@
       <c r="T174" s="5">
         <v>1</v>
       </c>
-      <c r="U174" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="V174" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="W174" s="5">
-        <v>1</v>
-      </c>
-      <c r="X174" s="5">
-        <v>1</v>
+      <c r="U174" s="14">
+        <v>10</v>
+      </c>
+      <c r="V174" s="14">
+        <v>10</v>
+      </c>
+      <c r="W174" s="14">
+        <v>10</v>
+      </c>
+      <c r="X174" s="14">
+        <v>10</v>
       </c>
       <c r="Y174" s="5">
         <v>10</v>
@@ -12829,17 +12835,17 @@
       <c r="T175" s="5">
         <v>1</v>
       </c>
-      <c r="U175" s="5">
-        <v>2</v>
-      </c>
-      <c r="V175" s="5">
-        <v>2</v>
-      </c>
-      <c r="W175" s="5">
-        <v>1</v>
-      </c>
-      <c r="X175" s="5">
-        <v>1</v>
+      <c r="U175" s="14">
+        <v>10</v>
+      </c>
+      <c r="V175" s="14">
+        <v>10</v>
+      </c>
+      <c r="W175" s="14">
+        <v>10</v>
+      </c>
+      <c r="X175" s="14">
+        <v>10</v>
       </c>
       <c r="Y175" s="5">
         <v>10</v>
@@ -12890,17 +12896,17 @@
       <c r="T176" s="5">
         <v>1</v>
       </c>
-      <c r="U176" s="5">
-        <v>5</v>
-      </c>
-      <c r="V176" s="5">
-        <v>5</v>
-      </c>
-      <c r="W176" s="5">
-        <v>1</v>
-      </c>
-      <c r="X176" s="5">
-        <v>1</v>
+      <c r="U176" s="14">
+        <v>10</v>
+      </c>
+      <c r="V176" s="14">
+        <v>10</v>
+      </c>
+      <c r="W176" s="14">
+        <v>10</v>
+      </c>
+      <c r="X176" s="14">
+        <v>10</v>
       </c>
       <c r="Y176" s="5">
         <v>10</v>
@@ -12951,17 +12957,17 @@
       <c r="T177" s="11">
         <v>1</v>
       </c>
-      <c r="U177" s="11">
-        <v>10</v>
-      </c>
-      <c r="V177" s="11">
-        <v>10</v>
-      </c>
-      <c r="W177" s="11">
-        <v>1</v>
-      </c>
-      <c r="X177" s="11">
-        <v>1</v>
+      <c r="U177" s="14">
+        <v>10</v>
+      </c>
+      <c r="V177" s="14">
+        <v>10</v>
+      </c>
+      <c r="W177" s="14">
+        <v>10</v>
+      </c>
+      <c r="X177" s="14">
+        <v>10</v>
       </c>
       <c r="Y177" s="11">
         <v>10</v>
@@ -13010,17 +13016,17 @@
       <c r="T178" s="11">
         <v>1</v>
       </c>
-      <c r="U178" s="11">
-        <v>1</v>
-      </c>
-      <c r="V178" s="11">
-        <v>1</v>
-      </c>
-      <c r="W178" s="11">
-        <v>1</v>
-      </c>
-      <c r="X178" s="11">
-        <v>1</v>
+      <c r="U178" s="14">
+        <v>10</v>
+      </c>
+      <c r="V178" s="14">
+        <v>10</v>
+      </c>
+      <c r="W178" s="14">
+        <v>10</v>
+      </c>
+      <c r="X178" s="14">
+        <v>10</v>
       </c>
       <c r="Y178" s="11">
         <v>10</v>
@@ -13050,10 +13056,10 @@
         <v>64</v>
       </c>
       <c r="G179" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H179" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I179" s="5">
         <v>30</v>
@@ -13089,17 +13095,17 @@
       <c r="T179" s="5">
         <v>1</v>
       </c>
-      <c r="U179" s="5">
-        <v>1</v>
-      </c>
-      <c r="V179" s="5">
-        <v>1</v>
-      </c>
-      <c r="W179" s="5">
-        <v>1</v>
-      </c>
-      <c r="X179" s="5">
-        <v>1</v>
+      <c r="U179" s="14">
+        <v>10</v>
+      </c>
+      <c r="V179" s="14">
+        <v>10</v>
+      </c>
+      <c r="W179" s="14">
+        <v>10</v>
+      </c>
+      <c r="X179" s="14">
+        <v>10</v>
       </c>
       <c r="Y179" s="5">
         <v>10</v>
@@ -13150,17 +13156,17 @@
       <c r="T180" s="5">
         <v>1</v>
       </c>
-      <c r="U180" s="5">
-        <v>1</v>
-      </c>
-      <c r="V180" s="5">
-        <v>1</v>
-      </c>
-      <c r="W180" s="5">
-        <v>1</v>
-      </c>
-      <c r="X180" s="5">
-        <v>1</v>
+      <c r="U180" s="14">
+        <v>10</v>
+      </c>
+      <c r="V180" s="14">
+        <v>10</v>
+      </c>
+      <c r="W180" s="14">
+        <v>10</v>
+      </c>
+      <c r="X180" s="14">
+        <v>10</v>
       </c>
       <c r="Y180" s="5">
         <v>10</v>
@@ -13211,17 +13217,17 @@
       <c r="T181" s="5">
         <v>1</v>
       </c>
-      <c r="U181" s="5">
-        <v>1</v>
-      </c>
-      <c r="V181" s="5">
-        <v>1</v>
-      </c>
-      <c r="W181" s="5">
-        <v>1</v>
-      </c>
-      <c r="X181" s="5">
-        <v>1</v>
+      <c r="U181" s="14">
+        <v>10</v>
+      </c>
+      <c r="V181" s="14">
+        <v>10</v>
+      </c>
+      <c r="W181" s="14">
+        <v>10</v>
+      </c>
+      <c r="X181" s="14">
+        <v>10</v>
       </c>
       <c r="Y181" s="5">
         <v>10</v>
@@ -13272,17 +13278,17 @@
       <c r="T182" s="5">
         <v>1</v>
       </c>
-      <c r="U182" s="5">
-        <v>1</v>
-      </c>
-      <c r="V182" s="5">
-        <v>1</v>
-      </c>
-      <c r="W182" s="5">
-        <v>1</v>
-      </c>
-      <c r="X182" s="5">
-        <v>1</v>
+      <c r="U182" s="14">
+        <v>10</v>
+      </c>
+      <c r="V182" s="14">
+        <v>10</v>
+      </c>
+      <c r="W182" s="14">
+        <v>10</v>
+      </c>
+      <c r="X182" s="14">
+        <v>10</v>
       </c>
       <c r="Y182" s="5">
         <v>10</v>
@@ -13333,17 +13339,17 @@
       <c r="T183" s="5">
         <v>1</v>
       </c>
-      <c r="U183" s="5">
-        <v>5</v>
-      </c>
-      <c r="V183" s="5">
-        <v>5</v>
-      </c>
-      <c r="W183" s="5">
-        <v>1</v>
-      </c>
-      <c r="X183" s="5">
-        <v>1</v>
+      <c r="U183" s="14">
+        <v>10</v>
+      </c>
+      <c r="V183" s="14">
+        <v>10</v>
+      </c>
+      <c r="W183" s="14">
+        <v>10</v>
+      </c>
+      <c r="X183" s="14">
+        <v>10</v>
       </c>
       <c r="Y183" s="5">
         <v>10</v>
@@ -13394,17 +13400,17 @@
       <c r="T184" s="11">
         <v>1</v>
       </c>
-      <c r="U184" s="11">
-        <v>5</v>
-      </c>
-      <c r="V184" s="11">
-        <v>5</v>
-      </c>
-      <c r="W184" s="11">
-        <v>1</v>
-      </c>
-      <c r="X184" s="11">
-        <v>1</v>
+      <c r="U184" s="14">
+        <v>10</v>
+      </c>
+      <c r="V184" s="14">
+        <v>10</v>
+      </c>
+      <c r="W184" s="14">
+        <v>10</v>
+      </c>
+      <c r="X184" s="14">
+        <v>10</v>
       </c>
       <c r="Y184" s="11">
         <v>10</v>
@@ -13432,10 +13438,10 @@
         <v>64</v>
       </c>
       <c r="G185" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H185" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I185" s="5">
         <v>30</v>
@@ -13471,17 +13477,17 @@
       <c r="T185" s="5">
         <v>1</v>
       </c>
-      <c r="U185" s="5">
-        <v>2</v>
-      </c>
-      <c r="V185" s="5">
-        <v>2</v>
-      </c>
-      <c r="W185" s="5">
-        <v>1</v>
-      </c>
-      <c r="X185" s="5">
-        <v>1</v>
+      <c r="U185" s="14">
+        <v>10</v>
+      </c>
+      <c r="V185" s="14">
+        <v>10</v>
+      </c>
+      <c r="W185" s="14">
+        <v>10</v>
+      </c>
+      <c r="X185" s="14">
+        <v>10</v>
       </c>
       <c r="Y185" s="5">
         <v>10</v>
@@ -13532,17 +13538,17 @@
       <c r="T186" s="5">
         <v>1</v>
       </c>
-      <c r="U186" s="5">
-        <v>3</v>
-      </c>
-      <c r="V186" s="5">
-        <v>3</v>
-      </c>
-      <c r="W186" s="5">
-        <v>1</v>
-      </c>
-      <c r="X186" s="5">
-        <v>1</v>
+      <c r="U186" s="14">
+        <v>10</v>
+      </c>
+      <c r="V186" s="14">
+        <v>10</v>
+      </c>
+      <c r="W186" s="14">
+        <v>10</v>
+      </c>
+      <c r="X186" s="14">
+        <v>10</v>
       </c>
       <c r="Y186" s="5">
         <v>10</v>
@@ -13593,17 +13599,17 @@
       <c r="T187" s="5">
         <v>1</v>
       </c>
-      <c r="U187" s="5">
-        <v>5</v>
-      </c>
-      <c r="V187" s="5">
-        <v>5</v>
-      </c>
-      <c r="W187" s="5">
-        <v>1</v>
-      </c>
-      <c r="X187" s="5">
-        <v>1</v>
+      <c r="U187" s="14">
+        <v>10</v>
+      </c>
+      <c r="V187" s="14">
+        <v>10</v>
+      </c>
+      <c r="W187" s="14">
+        <v>10</v>
+      </c>
+      <c r="X187" s="14">
+        <v>10</v>
       </c>
       <c r="Y187" s="5">
         <v>10</v>
@@ -13654,17 +13660,17 @@
       <c r="T188" s="5">
         <v>1</v>
       </c>
-      <c r="U188" s="5">
-        <v>7</v>
-      </c>
-      <c r="V188" s="5">
-        <v>7</v>
-      </c>
-      <c r="W188" s="5">
-        <v>1</v>
-      </c>
-      <c r="X188" s="5">
-        <v>1</v>
+      <c r="U188" s="14">
+        <v>10</v>
+      </c>
+      <c r="V188" s="14">
+        <v>10</v>
+      </c>
+      <c r="W188" s="14">
+        <v>10</v>
+      </c>
+      <c r="X188" s="14">
+        <v>10</v>
       </c>
       <c r="Y188" s="5">
         <v>10</v>
@@ -13715,17 +13721,17 @@
       <c r="T189" s="5">
         <v>1</v>
       </c>
-      <c r="U189" s="5">
-        <v>9</v>
-      </c>
-      <c r="V189" s="5">
-        <v>9</v>
-      </c>
-      <c r="W189" s="5">
-        <v>1</v>
-      </c>
-      <c r="X189" s="5">
-        <v>1</v>
+      <c r="U189" s="14">
+        <v>10</v>
+      </c>
+      <c r="V189" s="14">
+        <v>10</v>
+      </c>
+      <c r="W189" s="14">
+        <v>10</v>
+      </c>
+      <c r="X189" s="14">
+        <v>10</v>
       </c>
       <c r="Y189" s="5">
         <v>10</v>
@@ -13776,17 +13782,17 @@
       <c r="T190" s="11">
         <v>1</v>
       </c>
-      <c r="U190" s="11">
-        <v>5</v>
-      </c>
-      <c r="V190" s="11">
-        <v>5</v>
-      </c>
-      <c r="W190" s="11">
-        <v>1</v>
-      </c>
-      <c r="X190" s="11">
-        <v>1</v>
+      <c r="U190" s="14">
+        <v>10</v>
+      </c>
+      <c r="V190" s="14">
+        <v>10</v>
+      </c>
+      <c r="W190" s="14">
+        <v>10</v>
+      </c>
+      <c r="X190" s="14">
+        <v>10</v>
       </c>
       <c r="Y190" s="11">
         <v>10</v>
@@ -13814,10 +13820,10 @@
         <v>64</v>
       </c>
       <c r="G191" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H191" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I191" s="5">
         <v>30</v>
@@ -13853,17 +13859,17 @@
       <c r="T191" s="5">
         <v>1</v>
       </c>
-      <c r="U191" s="5">
-        <v>2</v>
-      </c>
-      <c r="V191" s="5">
-        <v>2</v>
-      </c>
-      <c r="W191" s="5">
-        <v>1</v>
-      </c>
-      <c r="X191" s="5">
-        <v>1</v>
+      <c r="U191" s="14">
+        <v>10</v>
+      </c>
+      <c r="V191" s="14">
+        <v>10</v>
+      </c>
+      <c r="W191" s="14">
+        <v>10</v>
+      </c>
+      <c r="X191" s="14">
+        <v>10</v>
       </c>
       <c r="Y191" s="5">
         <v>10</v>
@@ -13914,17 +13920,17 @@
       <c r="T192" s="5">
         <v>1</v>
       </c>
-      <c r="U192" s="5">
-        <v>3</v>
-      </c>
-      <c r="V192" s="5">
-        <v>3</v>
-      </c>
-      <c r="W192" s="5">
-        <v>1</v>
-      </c>
-      <c r="X192" s="5">
-        <v>1</v>
+      <c r="U192" s="14">
+        <v>10</v>
+      </c>
+      <c r="V192" s="14">
+        <v>10</v>
+      </c>
+      <c r="W192" s="14">
+        <v>10</v>
+      </c>
+      <c r="X192" s="14">
+        <v>10</v>
       </c>
       <c r="Y192" s="5">
         <v>10</v>
@@ -13975,17 +13981,17 @@
       <c r="T193" s="5">
         <v>1</v>
       </c>
-      <c r="U193" s="5">
-        <v>5</v>
-      </c>
-      <c r="V193" s="5">
-        <v>5</v>
-      </c>
-      <c r="W193" s="5">
-        <v>1</v>
-      </c>
-      <c r="X193" s="5">
-        <v>1</v>
+      <c r="U193" s="14">
+        <v>10</v>
+      </c>
+      <c r="V193" s="14">
+        <v>10</v>
+      </c>
+      <c r="W193" s="14">
+        <v>10</v>
+      </c>
+      <c r="X193" s="14">
+        <v>10</v>
       </c>
       <c r="Y193" s="5">
         <v>10</v>
@@ -14036,17 +14042,17 @@
       <c r="T194" s="5">
         <v>1</v>
       </c>
-      <c r="U194" s="5">
-        <v>7</v>
-      </c>
-      <c r="V194" s="5">
-        <v>7</v>
-      </c>
-      <c r="W194" s="5">
-        <v>1</v>
-      </c>
-      <c r="X194" s="5">
-        <v>1</v>
+      <c r="U194" s="14">
+        <v>10</v>
+      </c>
+      <c r="V194" s="14">
+        <v>10</v>
+      </c>
+      <c r="W194" s="14">
+        <v>10</v>
+      </c>
+      <c r="X194" s="14">
+        <v>10</v>
       </c>
       <c r="Y194" s="5">
         <v>10</v>
@@ -14097,17 +14103,17 @@
       <c r="T195" s="5">
         <v>1</v>
       </c>
-      <c r="U195" s="5">
-        <v>9</v>
-      </c>
-      <c r="V195" s="5">
-        <v>9</v>
-      </c>
-      <c r="W195" s="5">
-        <v>1</v>
-      </c>
-      <c r="X195" s="5">
-        <v>1</v>
+      <c r="U195" s="14">
+        <v>10</v>
+      </c>
+      <c r="V195" s="14">
+        <v>10</v>
+      </c>
+      <c r="W195" s="14">
+        <v>10</v>
+      </c>
+      <c r="X195" s="14">
+        <v>10</v>
       </c>
       <c r="Y195" s="5">
         <v>10</v>
@@ -14158,17 +14164,17 @@
       <c r="T196" s="11">
         <v>1</v>
       </c>
-      <c r="U196" s="11">
-        <v>5</v>
-      </c>
-      <c r="V196" s="11">
-        <v>5</v>
-      </c>
-      <c r="W196" s="11">
-        <v>1</v>
-      </c>
-      <c r="X196" s="11">
-        <v>1</v>
+      <c r="U196" s="14">
+        <v>10</v>
+      </c>
+      <c r="V196" s="14">
+        <v>10</v>
+      </c>
+      <c r="W196" s="14">
+        <v>10</v>
+      </c>
+      <c r="X196" s="14">
+        <v>10</v>
       </c>
       <c r="Y196" s="11">
         <v>10</v>
@@ -14196,10 +14202,10 @@
         <v>64</v>
       </c>
       <c r="G197" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H197" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I197" s="5">
         <v>30</v>
@@ -14235,17 +14241,17 @@
       <c r="T197" s="5">
         <v>1</v>
       </c>
-      <c r="U197" s="5">
-        <v>3</v>
-      </c>
-      <c r="V197" s="5">
-        <v>3</v>
-      </c>
-      <c r="W197" s="5">
-        <v>1</v>
-      </c>
-      <c r="X197" s="5">
-        <v>1</v>
+      <c r="U197" s="14">
+        <v>10</v>
+      </c>
+      <c r="V197" s="14">
+        <v>10</v>
+      </c>
+      <c r="W197" s="14">
+        <v>10</v>
+      </c>
+      <c r="X197" s="14">
+        <v>10</v>
       </c>
       <c r="Y197" s="5">
         <v>10</v>
@@ -14296,17 +14302,17 @@
       <c r="T198" s="5">
         <v>1</v>
       </c>
-      <c r="U198" s="5">
-        <v>3</v>
-      </c>
-      <c r="V198" s="5">
-        <v>3</v>
-      </c>
-      <c r="W198" s="5">
-        <v>1</v>
-      </c>
-      <c r="X198" s="5">
-        <v>1</v>
+      <c r="U198" s="14">
+        <v>10</v>
+      </c>
+      <c r="V198" s="14">
+        <v>10</v>
+      </c>
+      <c r="W198" s="14">
+        <v>10</v>
+      </c>
+      <c r="X198" s="14">
+        <v>10</v>
       </c>
       <c r="Y198" s="5">
         <v>10</v>
@@ -14357,17 +14363,17 @@
       <c r="T199" s="5">
         <v>1</v>
       </c>
-      <c r="U199" s="5">
-        <v>4</v>
-      </c>
-      <c r="V199" s="5">
-        <v>4</v>
-      </c>
-      <c r="W199" s="5">
-        <v>1</v>
-      </c>
-      <c r="X199" s="5">
-        <v>1</v>
+      <c r="U199" s="14">
+        <v>10</v>
+      </c>
+      <c r="V199" s="14">
+        <v>10</v>
+      </c>
+      <c r="W199" s="14">
+        <v>10</v>
+      </c>
+      <c r="X199" s="14">
+        <v>10</v>
       </c>
       <c r="Y199" s="5">
         <v>10</v>
@@ -14418,17 +14424,17 @@
       <c r="T200" s="5">
         <v>1</v>
       </c>
-      <c r="U200" s="5">
-        <v>5</v>
-      </c>
-      <c r="V200" s="5">
-        <v>5</v>
-      </c>
-      <c r="W200" s="5">
-        <v>1</v>
-      </c>
-      <c r="X200" s="5">
-        <v>1</v>
+      <c r="U200" s="14">
+        <v>10</v>
+      </c>
+      <c r="V200" s="14">
+        <v>10</v>
+      </c>
+      <c r="W200" s="14">
+        <v>10</v>
+      </c>
+      <c r="X200" s="14">
+        <v>10</v>
       </c>
       <c r="Y200" s="5">
         <v>10</v>
@@ -14479,17 +14485,17 @@
       <c r="T201" s="5">
         <v>1</v>
       </c>
-      <c r="U201" s="5">
-        <v>9</v>
-      </c>
-      <c r="V201" s="5">
-        <v>9</v>
-      </c>
-      <c r="W201" s="5">
-        <v>1</v>
-      </c>
-      <c r="X201" s="5">
-        <v>1</v>
+      <c r="U201" s="14">
+        <v>10</v>
+      </c>
+      <c r="V201" s="14">
+        <v>10</v>
+      </c>
+      <c r="W201" s="14">
+        <v>10</v>
+      </c>
+      <c r="X201" s="14">
+        <v>10</v>
       </c>
       <c r="Y201" s="5">
         <v>10</v>
@@ -14540,17 +14546,17 @@
       <c r="T202" s="11">
         <v>1</v>
       </c>
-      <c r="U202" s="11">
-        <v>10</v>
-      </c>
-      <c r="V202" s="11">
-        <v>10</v>
-      </c>
-      <c r="W202" s="11">
-        <v>1</v>
-      </c>
-      <c r="X202" s="11">
-        <v>1</v>
+      <c r="U202" s="14">
+        <v>10</v>
+      </c>
+      <c r="V202" s="14">
+        <v>10</v>
+      </c>
+      <c r="W202" s="14">
+        <v>10</v>
+      </c>
+      <c r="X202" s="14">
+        <v>10</v>
       </c>
       <c r="Y202" s="11">
         <v>10</v>
@@ -14578,10 +14584,10 @@
         <v>64</v>
       </c>
       <c r="G203" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H203" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I203" s="5">
         <v>30</v>
@@ -14617,17 +14623,17 @@
       <c r="T203" s="5">
         <v>1</v>
       </c>
-      <c r="U203" s="5">
-        <v>5</v>
-      </c>
-      <c r="V203" s="5">
-        <v>5</v>
-      </c>
-      <c r="W203" s="5">
-        <v>1</v>
-      </c>
-      <c r="X203" s="5">
-        <v>1</v>
+      <c r="U203" s="14">
+        <v>10</v>
+      </c>
+      <c r="V203" s="14">
+        <v>10</v>
+      </c>
+      <c r="W203" s="14">
+        <v>10</v>
+      </c>
+      <c r="X203" s="14">
+        <v>10</v>
       </c>
       <c r="Y203" s="5">
         <v>10</v>
@@ -14678,17 +14684,17 @@
       <c r="T204" s="5">
         <v>1</v>
       </c>
-      <c r="U204" s="5">
-        <v>5</v>
-      </c>
-      <c r="V204" s="5">
-        <v>5</v>
-      </c>
-      <c r="W204" s="5">
-        <v>1</v>
-      </c>
-      <c r="X204" s="5">
-        <v>1</v>
+      <c r="U204" s="14">
+        <v>10</v>
+      </c>
+      <c r="V204" s="14">
+        <v>10</v>
+      </c>
+      <c r="W204" s="14">
+        <v>10</v>
+      </c>
+      <c r="X204" s="14">
+        <v>10</v>
       </c>
       <c r="Y204" s="5">
         <v>10</v>
@@ -14739,17 +14745,17 @@
       <c r="T205" s="5">
         <v>1</v>
       </c>
-      <c r="U205" s="5">
-        <v>5</v>
-      </c>
-      <c r="V205" s="5">
-        <v>5</v>
-      </c>
-      <c r="W205" s="5">
-        <v>1</v>
-      </c>
-      <c r="X205" s="5">
-        <v>1</v>
+      <c r="U205" s="14">
+        <v>10</v>
+      </c>
+      <c r="V205" s="14">
+        <v>10</v>
+      </c>
+      <c r="W205" s="14">
+        <v>10</v>
+      </c>
+      <c r="X205" s="14">
+        <v>10</v>
       </c>
       <c r="Y205" s="5">
         <v>10</v>
@@ -14800,17 +14806,17 @@
       <c r="T206" s="5">
         <v>1</v>
       </c>
-      <c r="U206" s="5">
-        <v>5</v>
-      </c>
-      <c r="V206" s="5">
-        <v>5</v>
-      </c>
-      <c r="W206" s="5">
-        <v>1</v>
-      </c>
-      <c r="X206" s="5">
-        <v>1</v>
+      <c r="U206" s="14">
+        <v>10</v>
+      </c>
+      <c r="V206" s="14">
+        <v>10</v>
+      </c>
+      <c r="W206" s="14">
+        <v>10</v>
+      </c>
+      <c r="X206" s="14">
+        <v>10</v>
       </c>
       <c r="Y206" s="5">
         <v>10</v>
@@ -14861,17 +14867,17 @@
       <c r="T207" s="5">
         <v>1</v>
       </c>
-      <c r="U207" s="5">
-        <v>10</v>
-      </c>
-      <c r="V207" s="5">
-        <v>10</v>
-      </c>
-      <c r="W207" s="5">
-        <v>1</v>
-      </c>
-      <c r="X207" s="5">
-        <v>1</v>
+      <c r="U207" s="14">
+        <v>10</v>
+      </c>
+      <c r="V207" s="14">
+        <v>10</v>
+      </c>
+      <c r="W207" s="14">
+        <v>10</v>
+      </c>
+      <c r="X207" s="14">
+        <v>10</v>
       </c>
       <c r="Y207" s="5">
         <v>10</v>
@@ -14922,17 +14928,17 @@
       <c r="T208" s="11">
         <v>1</v>
       </c>
-      <c r="U208" s="11">
-        <v>10</v>
-      </c>
-      <c r="V208" s="11">
-        <v>10</v>
-      </c>
-      <c r="W208" s="11">
-        <v>1</v>
-      </c>
-      <c r="X208" s="11">
-        <v>1</v>
+      <c r="U208" s="14">
+        <v>10</v>
+      </c>
+      <c r="V208" s="14">
+        <v>10</v>
+      </c>
+      <c r="W208" s="14">
+        <v>10</v>
+      </c>
+      <c r="X208" s="14">
+        <v>10</v>
       </c>
       <c r="Y208" s="11">
         <v>10</v>
@@ -14960,10 +14966,10 @@
         <v>64</v>
       </c>
       <c r="G209" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H209" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I209" s="5">
         <v>30</v>
@@ -14999,17 +15005,17 @@
       <c r="T209" s="5">
         <v>1</v>
       </c>
-      <c r="U209" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="V209" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="W209" s="5">
-        <v>1</v>
-      </c>
-      <c r="X209" s="5">
-        <v>1</v>
+      <c r="U209" s="14">
+        <v>10</v>
+      </c>
+      <c r="V209" s="14">
+        <v>10</v>
+      </c>
+      <c r="W209" s="14">
+        <v>10</v>
+      </c>
+      <c r="X209" s="14">
+        <v>10</v>
       </c>
       <c r="Y209" s="5">
         <v>10</v>
@@ -15060,17 +15066,17 @@
       <c r="T210" s="5">
         <v>1</v>
       </c>
-      <c r="U210" s="5">
-        <v>6</v>
-      </c>
-      <c r="V210" s="5">
-        <v>6</v>
-      </c>
-      <c r="W210" s="5">
-        <v>1</v>
-      </c>
-      <c r="X210" s="5">
-        <v>1</v>
+      <c r="U210" s="14">
+        <v>10</v>
+      </c>
+      <c r="V210" s="14">
+        <v>10</v>
+      </c>
+      <c r="W210" s="14">
+        <v>10</v>
+      </c>
+      <c r="X210" s="14">
+        <v>10</v>
       </c>
       <c r="Y210" s="5">
         <v>10</v>
@@ -15121,17 +15127,17 @@
       <c r="T211" s="5">
         <v>1</v>
       </c>
-      <c r="U211" s="5">
-        <v>6</v>
-      </c>
-      <c r="V211" s="5">
-        <v>6</v>
-      </c>
-      <c r="W211" s="5">
-        <v>1</v>
-      </c>
-      <c r="X211" s="5">
-        <v>1</v>
+      <c r="U211" s="14">
+        <v>10</v>
+      </c>
+      <c r="V211" s="14">
+        <v>10</v>
+      </c>
+      <c r="W211" s="14">
+        <v>10</v>
+      </c>
+      <c r="X211" s="14">
+        <v>10</v>
       </c>
       <c r="Y211" s="5">
         <v>10</v>
@@ -15182,17 +15188,17 @@
       <c r="T212" s="5">
         <v>1</v>
       </c>
-      <c r="U212" s="5">
-        <v>6</v>
-      </c>
-      <c r="V212" s="5">
-        <v>6</v>
-      </c>
-      <c r="W212" s="5">
-        <v>1</v>
-      </c>
-      <c r="X212" s="5">
-        <v>1</v>
+      <c r="U212" s="14">
+        <v>10</v>
+      </c>
+      <c r="V212" s="14">
+        <v>10</v>
+      </c>
+      <c r="W212" s="14">
+        <v>10</v>
+      </c>
+      <c r="X212" s="14">
+        <v>10</v>
       </c>
       <c r="Y212" s="5">
         <v>10</v>
@@ -15243,17 +15249,17 @@
       <c r="T213" s="5">
         <v>1</v>
       </c>
-      <c r="U213" s="5">
-        <v>12</v>
-      </c>
-      <c r="V213" s="5">
-        <v>12</v>
-      </c>
-      <c r="W213" s="5">
-        <v>1</v>
-      </c>
-      <c r="X213" s="5">
-        <v>1</v>
+      <c r="U213" s="14">
+        <v>10</v>
+      </c>
+      <c r="V213" s="14">
+        <v>10</v>
+      </c>
+      <c r="W213" s="14">
+        <v>10</v>
+      </c>
+      <c r="X213" s="14">
+        <v>10</v>
       </c>
       <c r="Y213" s="5">
         <v>10</v>
@@ -15304,17 +15310,17 @@
       <c r="T214" s="11">
         <v>1</v>
       </c>
-      <c r="U214" s="11">
-        <v>10</v>
-      </c>
-      <c r="V214" s="11">
-        <v>10</v>
-      </c>
-      <c r="W214" s="11">
-        <v>1</v>
-      </c>
-      <c r="X214" s="11">
-        <v>1</v>
+      <c r="U214" s="14">
+        <v>10</v>
+      </c>
+      <c r="V214" s="14">
+        <v>10</v>
+      </c>
+      <c r="W214" s="14">
+        <v>10</v>
+      </c>
+      <c r="X214" s="14">
+        <v>10</v>
       </c>
       <c r="Y214" s="11">
         <v>10</v>
@@ -15340,10 +15346,10 @@
         <v>64</v>
       </c>
       <c r="G215" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H215" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I215" s="5">
         <v>30</v>
@@ -15379,17 +15385,17 @@
       <c r="T215" s="5">
         <v>1</v>
       </c>
-      <c r="U215" s="5">
-        <v>5</v>
-      </c>
-      <c r="V215" s="5">
-        <v>5</v>
-      </c>
-      <c r="W215" s="5">
-        <v>1</v>
-      </c>
-      <c r="X215" s="5">
-        <v>1</v>
+      <c r="U215" s="14">
+        <v>10</v>
+      </c>
+      <c r="V215" s="14">
+        <v>10</v>
+      </c>
+      <c r="W215" s="14">
+        <v>10</v>
+      </c>
+      <c r="X215" s="14">
+        <v>10</v>
       </c>
       <c r="Y215" s="5">
         <v>10</v>
@@ -15440,17 +15446,17 @@
       <c r="T216" s="5">
         <v>1</v>
       </c>
-      <c r="U216" s="5">
-        <v>11</v>
-      </c>
-      <c r="V216" s="5">
-        <v>11</v>
-      </c>
-      <c r="W216" s="5">
-        <v>1</v>
-      </c>
-      <c r="X216" s="5">
-        <v>1</v>
+      <c r="U216" s="14">
+        <v>10</v>
+      </c>
+      <c r="V216" s="14">
+        <v>10</v>
+      </c>
+      <c r="W216" s="14">
+        <v>10</v>
+      </c>
+      <c r="X216" s="14">
+        <v>10</v>
       </c>
       <c r="Y216" s="5">
         <v>10</v>
@@ -15501,17 +15507,17 @@
       <c r="T217" s="5">
         <v>1</v>
       </c>
-      <c r="U217" s="5">
-        <v>11</v>
-      </c>
-      <c r="V217" s="5">
-        <v>11</v>
-      </c>
-      <c r="W217" s="5">
-        <v>1</v>
-      </c>
-      <c r="X217" s="5">
-        <v>1</v>
+      <c r="U217" s="14">
+        <v>10</v>
+      </c>
+      <c r="V217" s="14">
+        <v>10</v>
+      </c>
+      <c r="W217" s="14">
+        <v>10</v>
+      </c>
+      <c r="X217" s="14">
+        <v>10</v>
       </c>
       <c r="Y217" s="5">
         <v>10</v>
@@ -15562,17 +15568,17 @@
       <c r="T218" s="5">
         <v>1</v>
       </c>
-      <c r="U218" s="5">
-        <v>11</v>
-      </c>
-      <c r="V218" s="5">
-        <v>11</v>
-      </c>
-      <c r="W218" s="5">
-        <v>1</v>
-      </c>
-      <c r="X218" s="5">
-        <v>1</v>
+      <c r="U218" s="14">
+        <v>10</v>
+      </c>
+      <c r="V218" s="14">
+        <v>10</v>
+      </c>
+      <c r="W218" s="14">
+        <v>10</v>
+      </c>
+      <c r="X218" s="14">
+        <v>10</v>
       </c>
       <c r="Y218" s="5">
         <v>10</v>
@@ -15623,17 +15629,17 @@
       <c r="T219" s="5">
         <v>1</v>
       </c>
-      <c r="U219" s="5">
-        <v>25</v>
-      </c>
-      <c r="V219" s="5">
-        <v>25</v>
-      </c>
-      <c r="W219" s="5">
-        <v>1</v>
-      </c>
-      <c r="X219" s="5">
-        <v>1</v>
+      <c r="U219" s="14">
+        <v>10</v>
+      </c>
+      <c r="V219" s="14">
+        <v>10</v>
+      </c>
+      <c r="W219" s="14">
+        <v>10</v>
+      </c>
+      <c r="X219" s="14">
+        <v>10</v>
       </c>
       <c r="Y219" s="5">
         <v>10</v>
@@ -15684,17 +15690,17 @@
       <c r="T220" s="11">
         <v>1</v>
       </c>
-      <c r="U220" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="V220" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="W220" s="11">
-        <v>1</v>
-      </c>
-      <c r="X220" s="11">
-        <v>1</v>
+      <c r="U220" s="14">
+        <v>10</v>
+      </c>
+      <c r="V220" s="14">
+        <v>10</v>
+      </c>
+      <c r="W220" s="14">
+        <v>10</v>
+      </c>
+      <c r="X220" s="14">
+        <v>10</v>
       </c>
       <c r="Y220" s="11">
         <v>10</v>
@@ -15849,19 +15855,19 @@
         <v>25</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>30</v>
@@ -15870,7 +15876,7 @@
         <v>31</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AB3" s="4" t="s">
         <v>32</v>
@@ -15879,28 +15885,28 @@
         <v>33</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="28" spans="1:35">
       <c r="A4" s="7"/>
       <c r="K4" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>44</v>
@@ -15933,7 +15939,7 @@
         <v>54</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>55</v>
@@ -15948,7 +15954,7 @@
         <v>58</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AB4" s="5" t="s">
         <v>59</v>
@@ -15957,22 +15963,22 @@
         <v>60</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="8:9">

--- a/Doc/ExcelConfig/Datas/dota/RoundBoardConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/RoundBoardConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="183">
   <si>
     <t>##</t>
   </si>
@@ -221,10 +221,16 @@
     <t>building_enemy_tower_1</t>
   </si>
   <si>
+    <t>n1_tower_drop_1</t>
+  </si>
+  <si>
     <t>n1_3</t>
   </si>
   <si>
     <t>building_enemy_tower_2</t>
+  </si>
+  <si>
+    <t>n1_tower_drop_2</t>
   </si>
   <si>
     <t>building_enemy_2</t>
@@ -234,6 +240,9 @@
   </si>
   <si>
     <t>building_enemy_tower_3</t>
+  </si>
+  <si>
+    <t>n1_tower_drop_3</t>
   </si>
   <si>
     <t>building_enemy_3</t>
@@ -1564,8 +1573,8 @@
   <sheetPr/>
   <dimension ref="A1:AC373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J283" sqref="J$1:J$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1594,7 +1603,7 @@
     <col min="25" max="25" width="16" customWidth="1"/>
     <col min="26" max="26" width="20.1666666666667" customWidth="1"/>
     <col min="27" max="27" width="20.5833333333333" customWidth="1"/>
-    <col min="28" max="28" width="16.8333333333333" customWidth="1"/>
+    <col min="28" max="28" width="16.6666666666667" customWidth="1"/>
     <col min="29" max="29" width="12.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1889,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S5" s="5">
         <v>0</v>
@@ -1918,8 +1927,8 @@
       <c r="AA5" s="5">
         <v>20</v>
       </c>
-      <c r="AB5" s="5">
-        <v>1</v>
+      <c r="AB5" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="AC5" s="5"/>
     </row>
@@ -1932,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>65</v>
@@ -1956,7 +1965,7 @@
         <v>1001</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M6" s="5">
         <v>1</v>
@@ -1974,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S6" s="5">
         <v>0</v>
@@ -2001,8 +2010,8 @@
       <c r="AA6" s="5">
         <v>20</v>
       </c>
-      <c r="AB6" s="5">
-        <v>1</v>
+      <c r="AB6" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="AC6" s="5"/>
     </row>
@@ -2021,7 +2030,7 @@
         <v>1002</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M7" s="5">
         <v>1</v>
@@ -2039,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S7" s="5">
         <v>0</v>
@@ -2068,21 +2077,19 @@
       <c r="AA7" s="5">
         <v>20</v>
       </c>
-      <c r="AB7" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>65</v>
@@ -2106,7 +2113,7 @@
         <v>1003</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M8" s="5">
         <v>1</v>
@@ -2124,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S8" s="5">
         <v>0</v>
@@ -2151,7 +2158,9 @@
       <c r="AA8" s="5">
         <v>20</v>
       </c>
-      <c r="AB8" s="5"/>
+      <c r="AB8" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="AC8" s="5"/>
     </row>
     <row r="9" spans="1:29">
@@ -2169,7 +2178,7 @@
         <v>1004</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M9" s="5">
         <v>1</v>
@@ -2187,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S9" s="5">
         <v>0</v>
@@ -2216,21 +2225,19 @@
       <c r="AA9" s="5">
         <v>20</v>
       </c>
-      <c r="AB9" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" s="5">
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>65</v>
@@ -2254,7 +2261,7 @@
         <v>1005</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M10" s="5">
         <v>1</v>
@@ -2272,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S10" s="5">
         <v>0</v>
@@ -2299,7 +2306,9 @@
       <c r="AA10" s="5">
         <v>20</v>
       </c>
-      <c r="AB10" s="5"/>
+      <c r="AB10" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="AC10" s="5"/>
     </row>
     <row r="11" spans="1:29">
@@ -2317,7 +2326,7 @@
         <v>1006</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M11" s="5">
         <v>1</v>
@@ -2335,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S11" s="5">
         <v>0</v>
@@ -2364,21 +2373,19 @@
       <c r="AA11" s="5">
         <v>20</v>
       </c>
-      <c r="AB11" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C12" s="5">
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>65</v>
@@ -2402,7 +2409,7 @@
         <v>1007</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M12" s="5">
         <v>1</v>
@@ -2420,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S12" s="5">
         <v>0</v>
@@ -2447,7 +2454,9 @@
       <c r="AA12" s="5">
         <v>20</v>
       </c>
-      <c r="AB12" s="5"/>
+      <c r="AB12" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:29">
@@ -2465,7 +2474,7 @@
         <v>1008</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M13" s="5">
         <v>1</v>
@@ -2483,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S13" s="5">
         <v>0</v>
@@ -2512,21 +2521,19 @@
       <c r="AA13" s="5">
         <v>20</v>
       </c>
-      <c r="AB13" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C14" s="5">
         <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>65</v>
@@ -2550,7 +2557,7 @@
         <v>1009</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="5">
         <v>1</v>
@@ -2568,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S14" s="5">
         <v>0</v>
@@ -2595,7 +2602,9 @@
       <c r="AA14" s="5">
         <v>20</v>
       </c>
-      <c r="AB14" s="5"/>
+      <c r="AB14" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="AC14" s="5"/>
     </row>
     <row r="15" spans="1:29">
@@ -2613,7 +2622,7 @@
         <v>1010</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M15" s="5">
         <v>1</v>
@@ -2631,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S15" s="5">
         <v>0</v>
@@ -2660,21 +2669,19 @@
       <c r="AA15" s="5">
         <v>20</v>
       </c>
-      <c r="AB15" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C16" s="5">
         <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>65</v>
@@ -2698,7 +2705,7 @@
         <v>1011</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M16" s="5">
         <v>1</v>
@@ -2716,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S16" s="5">
         <v>0</v>
@@ -2743,7 +2750,9 @@
       <c r="AA16" s="5">
         <v>20</v>
       </c>
-      <c r="AB16" s="5"/>
+      <c r="AB16" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="AC16" s="5"/>
     </row>
     <row r="17" spans="1:29">
@@ -2761,7 +2770,7 @@
         <v>1012</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M17" s="5">
         <v>1</v>
@@ -2779,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S17" s="5">
         <v>0</v>
@@ -2808,21 +2817,19 @@
       <c r="AA17" s="5">
         <v>20</v>
       </c>
-      <c r="AB17" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C18" s="5">
         <v>8</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>65</v>
@@ -2846,7 +2853,7 @@
         <v>1013</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M18" s="5">
         <v>1</v>
@@ -2864,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S18" s="5">
         <v>0</v>
@@ -2891,7 +2898,9 @@
       <c r="AA18" s="5">
         <v>20</v>
       </c>
-      <c r="AB18" s="5"/>
+      <c r="AB18" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="AC18" s="5"/>
     </row>
     <row r="19" spans="1:29">
@@ -2909,7 +2918,7 @@
         <v>1014</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M19" s="5">
         <v>1</v>
@@ -2927,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S19" s="5">
         <v>0</v>
@@ -2956,21 +2965,19 @@
       <c r="AA19" s="5">
         <v>20</v>
       </c>
-      <c r="AB19" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C20" s="5">
         <v>9</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>65</v>
@@ -2994,7 +3001,7 @@
         <v>1015</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M20" s="5">
         <v>1</v>
@@ -3012,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S20" s="5">
         <v>0</v>
@@ -3039,7 +3046,9 @@
       <c r="AA20" s="5">
         <v>20</v>
       </c>
-      <c r="AB20" s="5"/>
+      <c r="AB20" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="AC20" s="5"/>
     </row>
     <row r="21" spans="1:29">
@@ -3057,7 +3066,7 @@
         <v>1016</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M21" s="5">
         <v>1</v>
@@ -3075,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S21" s="5">
         <v>0</v>
@@ -3104,21 +3113,19 @@
       <c r="AA21" s="5">
         <v>20</v>
       </c>
-      <c r="AB21" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C22" s="5">
         <v>10</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>65</v>
@@ -3142,7 +3149,7 @@
         <v>1017</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M22" s="5">
         <v>1</v>
@@ -3160,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S22" s="5">
         <v>0</v>
@@ -3187,8 +3194,8 @@
       <c r="AA22" s="5">
         <v>20</v>
       </c>
-      <c r="AB22" s="5">
-        <v>3</v>
+      <c r="AB22" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="AC22" s="5"/>
     </row>
@@ -3207,7 +3214,7 @@
         <v>1018</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M23" s="5">
         <v>1</v>
@@ -3225,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S23" s="5">
         <v>0</v>
@@ -3254,21 +3261,19 @@
       <c r="AA23" s="5">
         <v>20</v>
       </c>
-      <c r="AB23" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C24" s="5">
         <v>11</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>65</v>
@@ -3292,7 +3297,7 @@
         <v>1019</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M24" s="5">
         <v>1</v>
@@ -3310,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S24" s="5">
         <v>0</v>
@@ -3337,8 +3342,8 @@
       <c r="AA24" s="5">
         <v>20</v>
       </c>
-      <c r="AB24" s="5">
-        <v>2</v>
+      <c r="AB24" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="AC24" s="5"/>
     </row>
@@ -3357,7 +3362,7 @@
         <v>1020</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M25" s="5">
         <v>1</v>
@@ -3375,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S25" s="5">
         <v>0</v>
@@ -3404,21 +3409,19 @@
       <c r="AA25" s="5">
         <v>20</v>
       </c>
-      <c r="AB25" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C26" s="5">
         <v>12</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>65</v>
@@ -3442,7 +3445,7 @@
         <v>1021</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M26" s="5">
         <v>1</v>
@@ -3460,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S26" s="5">
         <v>0</v>
@@ -3487,8 +3490,8 @@
       <c r="AA26" s="5">
         <v>20</v>
       </c>
-      <c r="AB26" s="5">
-        <v>1</v>
+      <c r="AB26" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="AC26" s="5"/>
     </row>
@@ -3507,7 +3510,7 @@
         <v>1022</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M27" s="5">
         <v>1</v>
@@ -3525,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S27" s="5">
         <v>0</v>
@@ -3554,9 +3557,7 @@
       <c r="AA27" s="5">
         <v>20</v>
       </c>
-      <c r="AB27" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
     </row>
     <row r="28" spans="1:29">
@@ -3574,7 +3575,7 @@
         <v>1023</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M28" s="5">
         <v>1</v>
@@ -3592,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S28" s="5">
         <v>0</v>
@@ -3621,8 +3622,8 @@
       <c r="AA28" s="5">
         <v>20</v>
       </c>
-      <c r="AB28" s="5">
-        <v>3</v>
+      <c r="AB28" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="AC28" s="5"/>
     </row>
@@ -3641,7 +3642,7 @@
         <v>1024</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M29" s="5">
         <v>1</v>
@@ -3659,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S29" s="5">
         <v>0</v>
@@ -3706,7 +3707,7 @@
         <v>1025</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M30" s="5">
         <v>1</v>
@@ -3724,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S30" s="5">
         <v>0</v>
@@ -3753,7 +3754,9 @@
       <c r="AA30" s="5">
         <v>20</v>
       </c>
-      <c r="AB30" s="5"/>
+      <c r="AB30" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="AC30" s="5"/>
     </row>
     <row r="31" spans="1:29">
@@ -3771,7 +3774,7 @@
         <v>1026</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M31" s="5">
         <v>1</v>
@@ -3789,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S31" s="5">
         <v>0</v>
@@ -3836,7 +3839,7 @@
         <v>1027</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M32" s="5">
         <v>1</v>
@@ -3854,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S32" s="5">
         <v>0</v>
@@ -3883,7 +3886,9 @@
       <c r="AA32" s="5">
         <v>20</v>
       </c>
-      <c r="AB32" s="5"/>
+      <c r="AB32" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="AC32" s="5"/>
     </row>
     <row r="33" spans="1:29">
@@ -3901,7 +3906,7 @@
         <v>1028</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M33" s="5">
         <v>1</v>
@@ -3919,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S33" s="5">
         <v>0</v>
@@ -3966,7 +3971,7 @@
         <v>1029</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M34" s="5">
         <v>1</v>
@@ -3984,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S34" s="5">
         <v>0</v>
@@ -4013,7 +4018,9 @@
       <c r="AA34" s="5">
         <v>20</v>
       </c>
-      <c r="AB34" s="5"/>
+      <c r="AB34" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="AC34" s="5"/>
     </row>
     <row r="35" spans="1:29">
@@ -4031,7 +4038,7 @@
         <v>1030</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M35" s="5">
         <v>1</v>
@@ -4049,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S35" s="5">
         <v>0</v>
@@ -4096,7 +4103,7 @@
         <v>1031</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M36" s="5">
         <v>1</v>
@@ -4114,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S36" s="5">
         <v>0</v>
@@ -4143,9 +4150,7 @@
       <c r="AA36" s="5">
         <v>20</v>
       </c>
-      <c r="AB36" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
     </row>
     <row r="37" spans="1:29">
@@ -4163,7 +4168,7 @@
         <v>1032</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M37" s="5">
         <v>1</v>
@@ -4181,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S37" s="5">
         <v>0</v>
@@ -4210,21 +4215,19 @@
       <c r="AA37" s="5">
         <v>20</v>
       </c>
-      <c r="AB37" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
     </row>
     <row r="38" spans="1:29">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C38" s="5">
         <v>13</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>65</v>
@@ -4248,7 +4251,7 @@
         <v>1033</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M38" s="5">
         <v>1</v>
@@ -4266,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S38" s="5">
         <v>0</v>
@@ -4293,9 +4296,7 @@
       <c r="AA38" s="5">
         <v>20</v>
       </c>
-      <c r="AB38" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
     </row>
     <row r="39" spans="1:29">
@@ -4313,7 +4314,7 @@
         <v>1034</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M39" s="5">
         <v>1</v>
@@ -4331,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S39" s="5">
         <v>0</v>
@@ -4358,9 +4359,7 @@
       <c r="AA39" s="5">
         <v>20</v>
       </c>
-      <c r="AB39" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
     </row>
     <row r="40" spans="1:29">
@@ -4378,7 +4377,7 @@
         <v>1035</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M40" s="5">
         <v>1</v>
@@ -4396,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S40" s="5">
         <v>0</v>
@@ -4423,9 +4422,7 @@
       <c r="AA40" s="5">
         <v>20</v>
       </c>
-      <c r="AB40" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
     </row>
     <row r="41" spans="1:29">
@@ -4443,7 +4440,7 @@
         <v>1036</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M41" s="5">
         <v>1</v>
@@ -4461,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S41" s="5">
         <v>0</v>
@@ -4488,9 +4485,7 @@
       <c r="AA41" s="5">
         <v>20</v>
       </c>
-      <c r="AB41" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
     </row>
     <row r="42" spans="1:29">
@@ -4508,7 +4503,7 @@
         <v>1037</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M42" s="5">
         <v>1</v>
@@ -4526,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S42" s="5">
         <v>0</v>
@@ -4571,7 +4566,7 @@
         <v>1038</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M43" s="5">
         <v>1</v>
@@ -4589,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S43" s="5">
         <v>0</v>
@@ -4634,7 +4629,7 @@
         <v>1039</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M44" s="5">
         <v>1</v>
@@ -4652,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S44" s="5">
         <v>0</v>
@@ -4697,7 +4692,7 @@
         <v>1040</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M45" s="5">
         <v>1</v>
@@ -4715,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S45" s="5">
         <v>0</v>
@@ -4760,7 +4755,7 @@
         <v>1041</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M46" s="5">
         <v>1</v>
@@ -4778,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S46" s="5">
         <v>0</v>
@@ -4823,7 +4818,7 @@
         <v>1042</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M47" s="5">
         <v>1</v>
@@ -4841,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S47" s="5">
         <v>0</v>
@@ -4886,7 +4881,7 @@
         <v>1043</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M48" s="5">
         <v>1</v>
@@ -4904,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S48" s="5">
         <v>0</v>
@@ -4949,7 +4944,7 @@
         <v>1044</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M49" s="5">
         <v>1</v>
@@ -4967,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S49" s="5">
         <v>0</v>
@@ -4994,21 +4989,19 @@
       <c r="AA49" s="5">
         <v>20</v>
       </c>
-      <c r="AB49" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
     </row>
     <row r="50" spans="1:29">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C50" s="5">
         <v>14</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>65</v>
@@ -5032,7 +5025,7 @@
         <v>1045</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M50" s="5">
         <v>1</v>
@@ -5050,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="R50" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S50" s="5">
         <v>0</v>
@@ -5077,9 +5070,7 @@
       <c r="AA50" s="5">
         <v>20</v>
       </c>
-      <c r="AB50" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
     </row>
     <row r="51" spans="1:29">
@@ -5097,7 +5088,7 @@
         <v>1046</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M51" s="5">
         <v>1</v>
@@ -5115,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S51" s="5">
         <v>0</v>
@@ -5142,9 +5133,7 @@
       <c r="AA51" s="5">
         <v>20</v>
       </c>
-      <c r="AB51" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
     </row>
     <row r="52" spans="1:29">
@@ -5162,7 +5151,7 @@
         <v>1047</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M52" s="5">
         <v>1</v>
@@ -5180,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S52" s="5">
         <v>0</v>
@@ -5207,9 +5196,7 @@
       <c r="AA52" s="5">
         <v>20</v>
       </c>
-      <c r="AB52" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
     </row>
     <row r="53" spans="1:29">
@@ -5227,7 +5214,7 @@
         <v>1048</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M53" s="5">
         <v>1</v>
@@ -5245,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S53" s="5">
         <v>0</v>
@@ -5272,9 +5259,7 @@
       <c r="AA53" s="5">
         <v>20</v>
       </c>
-      <c r="AB53" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
     </row>
     <row r="54" spans="1:29">
@@ -5292,7 +5277,7 @@
         <v>1049</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M54" s="5">
         <v>1</v>
@@ -5310,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S54" s="5">
         <v>0</v>
@@ -5337,9 +5322,7 @@
       <c r="AA54" s="5">
         <v>20</v>
       </c>
-      <c r="AB54" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
     </row>
     <row r="55" spans="1:29">
@@ -5357,7 +5340,7 @@
         <v>1050</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M55" s="5">
         <v>1</v>
@@ -5375,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="R55" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S55" s="5">
         <v>0</v>
@@ -5420,7 +5403,7 @@
         <v>1051</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M56" s="5">
         <v>1</v>
@@ -5438,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="R56" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S56" s="5">
         <v>0</v>
@@ -5483,7 +5466,7 @@
         <v>1052</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M57" s="5">
         <v>1</v>
@@ -5501,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S57" s="5">
         <v>0</v>
@@ -5546,7 +5529,7 @@
         <v>1053</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M58" s="5">
         <v>1</v>
@@ -5564,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S58" s="5">
         <v>0</v>
@@ -5609,7 +5592,7 @@
         <v>1054</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M59" s="5">
         <v>1</v>
@@ -5627,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S59" s="5">
         <v>0</v>
@@ -5672,7 +5655,7 @@
         <v>1055</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M60" s="5">
         <v>1</v>
@@ -5690,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S60" s="5">
         <v>0</v>
@@ -5735,7 +5718,7 @@
         <v>1056</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M61" s="5">
         <v>1</v>
@@ -5753,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S61" s="5">
         <v>0</v>
@@ -5786,13 +5769,13 @@
     <row r="62" spans="1:29">
       <c r="A62" s="5"/>
       <c r="B62" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C62" s="5">
         <v>15</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>65</v>
@@ -5816,7 +5799,7 @@
         <v>1057</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M62" s="5">
         <v>1</v>
@@ -5834,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="R62" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S62" s="5">
         <v>0</v>
@@ -5861,9 +5844,7 @@
       <c r="AA62" s="5">
         <v>20</v>
       </c>
-      <c r="AB62" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
     </row>
     <row r="63" spans="1:29">
@@ -5881,7 +5862,7 @@
         <v>1058</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M63" s="5">
         <v>1</v>
@@ -5899,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="R63" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S63" s="5">
         <v>0</v>
@@ -5926,9 +5907,7 @@
       <c r="AA63" s="5">
         <v>20</v>
       </c>
-      <c r="AB63" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
     </row>
     <row r="64" spans="1:29">
@@ -5946,7 +5925,7 @@
         <v>1059</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M64" s="5">
         <v>1</v>
@@ -5964,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S64" s="5">
         <v>0</v>
@@ -5991,9 +5970,7 @@
       <c r="AA64" s="5">
         <v>20</v>
       </c>
-      <c r="AB64" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
     </row>
     <row r="65" spans="1:29">
@@ -6011,7 +5988,7 @@
         <v>1060</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M65" s="5">
         <v>1</v>
@@ -6029,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="R65" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S65" s="5">
         <v>0</v>
@@ -6056,9 +6033,7 @@
       <c r="AA65" s="5">
         <v>20</v>
       </c>
-      <c r="AB65" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
     </row>
     <row r="66" spans="1:29">
@@ -6076,7 +6051,7 @@
         <v>1061</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M66" s="5">
         <v>1</v>
@@ -6094,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S66" s="5">
         <v>0</v>
@@ -6121,9 +6096,7 @@
       <c r="AA66" s="5">
         <v>20</v>
       </c>
-      <c r="AB66" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
     </row>
     <row r="67" spans="1:29">
@@ -6141,7 +6114,7 @@
         <v>1062</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M67" s="5">
         <v>1</v>
@@ -6159,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S67" s="5">
         <v>0</v>
@@ -6186,9 +6159,7 @@
       <c r="AA67" s="5">
         <v>20</v>
       </c>
-      <c r="AB67" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
     </row>
     <row r="68" spans="1:29">
@@ -6206,7 +6177,7 @@
         <v>1063</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M68" s="5">
         <v>1</v>
@@ -6224,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S68" s="5">
         <v>0</v>
@@ -6269,7 +6240,7 @@
         <v>1064</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M69" s="5">
         <v>1</v>
@@ -6287,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="R69" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S69" s="5">
         <v>0</v>
@@ -6332,7 +6303,7 @@
         <v>1065</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M70" s="5">
         <v>1</v>
@@ -6350,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="R70" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S70" s="5">
         <v>0</v>
@@ -6395,7 +6366,7 @@
         <v>1066</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M71" s="5">
         <v>1</v>
@@ -6413,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="R71" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S71" s="5">
         <v>0</v>
@@ -6458,7 +6429,7 @@
         <v>1067</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M72" s="5">
         <v>1</v>
@@ -6476,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="R72" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S72" s="5">
         <v>0</v>
@@ -6521,7 +6492,7 @@
         <v>1068</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M73" s="5">
         <v>1</v>
@@ -6539,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="R73" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S73" s="5">
         <v>0</v>
@@ -6572,13 +6543,13 @@
     <row r="74" spans="1:29">
       <c r="A74" s="5"/>
       <c r="B74" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C74" s="5">
         <v>16</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>65</v>
@@ -6602,7 +6573,7 @@
         <v>1069</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M74" s="5">
         <v>1</v>
@@ -6620,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="R74" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S74" s="5">
         <v>0</v>
@@ -6665,7 +6636,7 @@
         <v>1070</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M75" s="5">
         <v>1</v>
@@ -6683,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="R75" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S75" s="5">
         <v>0</v>
@@ -6710,9 +6681,7 @@
       <c r="AA75" s="5">
         <v>20</v>
       </c>
-      <c r="AB75" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
     </row>
     <row r="76" spans="1:29">
@@ -6730,7 +6699,7 @@
         <v>1071</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M76" s="5">
         <v>1</v>
@@ -6748,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="R76" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S76" s="5">
         <v>0</v>
@@ -6775,9 +6744,7 @@
       <c r="AA76" s="5">
         <v>20</v>
       </c>
-      <c r="AB76" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
     </row>
     <row r="77" spans="1:29">
@@ -6795,7 +6762,7 @@
         <v>1072</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M77" s="5">
         <v>1</v>
@@ -6813,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="R77" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S77" s="5">
         <v>0</v>
@@ -6840,9 +6807,7 @@
       <c r="AA77" s="5">
         <v>20</v>
       </c>
-      <c r="AB77" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
     </row>
     <row r="78" spans="1:29">
@@ -6860,7 +6825,7 @@
         <v>1073</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M78" s="5">
         <v>1</v>
@@ -6878,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="R78" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S78" s="5">
         <v>0</v>
@@ -6905,9 +6870,7 @@
       <c r="AA78" s="5">
         <v>20</v>
       </c>
-      <c r="AB78" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
     </row>
     <row r="79" spans="1:29">
@@ -6925,7 +6888,7 @@
         <v>1074</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M79" s="5">
         <v>1</v>
@@ -6943,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="R79" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S79" s="5">
         <v>0</v>
@@ -6970,9 +6933,7 @@
       <c r="AA79" s="5">
         <v>20</v>
       </c>
-      <c r="AB79" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
     </row>
     <row r="80" spans="1:29">
@@ -6990,7 +6951,7 @@
         <v>1075</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M80" s="5">
         <v>1</v>
@@ -7008,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="R80" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S80" s="5">
         <v>0</v>
@@ -7035,9 +6996,7 @@
       <c r="AA80" s="5">
         <v>20</v>
       </c>
-      <c r="AB80" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
     </row>
     <row r="81" spans="1:29">
@@ -7055,7 +7014,7 @@
         <v>1076</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M81" s="5">
         <v>1</v>
@@ -7073,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="R81" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S81" s="5">
         <v>0</v>
@@ -7118,7 +7077,7 @@
         <v>1077</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M82" s="5">
         <v>1</v>
@@ -7136,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="R82" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S82" s="5">
         <v>0</v>
@@ -7181,7 +7140,7 @@
         <v>1078</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M83" s="5">
         <v>1</v>
@@ -7199,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S83" s="5">
         <v>0</v>
@@ -7244,7 +7203,7 @@
         <v>1079</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M84" s="5">
         <v>1</v>
@@ -7262,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="R84" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S84" s="5">
         <v>0</v>
@@ -7307,7 +7266,7 @@
         <v>1080</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M85" s="5">
         <v>1</v>
@@ -7325,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="R85" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S85" s="5">
         <v>0</v>
@@ -7358,13 +7317,13 @@
     <row r="86" spans="1:29">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C86" s="5">
         <v>17</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>65</v>
@@ -7388,7 +7347,7 @@
         <v>1081</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M86" s="5">
         <v>1</v>
@@ -7406,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="R86" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S86" s="5">
         <v>0</v>
@@ -7451,7 +7410,7 @@
         <v>1082</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M87" s="5">
         <v>1</v>
@@ -7469,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="R87" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S87" s="5">
         <v>0</v>
@@ -7514,7 +7473,7 @@
         <v>1083</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M88" s="5">
         <v>1</v>
@@ -7532,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="R88" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S88" s="5">
         <v>0</v>
@@ -7559,9 +7518,7 @@
       <c r="AA88" s="5">
         <v>20</v>
       </c>
-      <c r="AB88" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
     </row>
     <row r="89" spans="1:29">
@@ -7579,7 +7536,7 @@
         <v>1084</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M89" s="5">
         <v>1</v>
@@ -7597,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="R89" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S89" s="5">
         <v>0</v>
@@ -7624,9 +7581,7 @@
       <c r="AA89" s="5">
         <v>20</v>
       </c>
-      <c r="AB89" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
     </row>
     <row r="90" spans="1:29">
@@ -7644,7 +7599,7 @@
         <v>1085</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M90" s="5">
         <v>1</v>
@@ -7662,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="R90" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S90" s="5">
         <v>0</v>
@@ -7689,9 +7644,7 @@
       <c r="AA90" s="5">
         <v>20</v>
       </c>
-      <c r="AB90" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
     </row>
     <row r="91" spans="1:29">
@@ -7709,7 +7662,7 @@
         <v>1086</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M91" s="5">
         <v>1</v>
@@ -7727,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="R91" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S91" s="5">
         <v>0</v>
@@ -7754,9 +7707,7 @@
       <c r="AA91" s="5">
         <v>20</v>
       </c>
-      <c r="AB91" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
     </row>
     <row r="92" spans="1:29">
@@ -7774,7 +7725,7 @@
         <v>1087</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M92" s="5">
         <v>1</v>
@@ -7792,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="R92" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S92" s="5">
         <v>0</v>
@@ -7819,9 +7770,7 @@
       <c r="AA92" s="5">
         <v>20</v>
       </c>
-      <c r="AB92" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
     </row>
     <row r="93" spans="1:29">
@@ -7839,7 +7788,7 @@
         <v>1088</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M93" s="5">
         <v>1</v>
@@ -7857,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="R93" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S93" s="5">
         <v>0</v>
@@ -7884,9 +7833,7 @@
       <c r="AA93" s="5">
         <v>20</v>
       </c>
-      <c r="AB93" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
     </row>
     <row r="94" spans="1:29">
@@ -7904,7 +7851,7 @@
         <v>1089</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M94" s="5">
         <v>1</v>
@@ -7922,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="R94" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S94" s="5">
         <v>0</v>
@@ -7967,7 +7914,7 @@
         <v>1090</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M95" s="5">
         <v>1</v>
@@ -7985,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="R95" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S95" s="5">
         <v>0</v>
@@ -8030,7 +7977,7 @@
         <v>1091</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M96" s="5">
         <v>1</v>
@@ -8048,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S96" s="5">
         <v>0</v>
@@ -8093,7 +8040,7 @@
         <v>1092</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M97" s="5">
         <v>1</v>
@@ -8111,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="R97" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S97" s="5">
         <v>0</v>
@@ -8144,13 +8091,13 @@
     <row r="98" spans="1:29">
       <c r="A98" s="5"/>
       <c r="B98" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C98" s="5">
         <v>18</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>65</v>
@@ -8174,7 +8121,7 @@
         <v>1093</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M98" s="5">
         <v>1</v>
@@ -8192,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="R98" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S98" s="5">
         <v>0</v>
@@ -8237,7 +8184,7 @@
         <v>1094</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M99" s="5">
         <v>1</v>
@@ -8255,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="R99" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S99" s="5">
         <v>0</v>
@@ -8300,7 +8247,7 @@
         <v>1095</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M100" s="5">
         <v>1</v>
@@ -8318,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="R100" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S100" s="5">
         <v>0</v>
@@ -8363,7 +8310,7 @@
         <v>1096</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M101" s="5">
         <v>1</v>
@@ -8381,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="R101" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S101" s="5">
         <v>0</v>
@@ -8408,9 +8355,7 @@
       <c r="AA101" s="5">
         <v>20</v>
       </c>
-      <c r="AB101" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
     </row>
     <row r="102" spans="1:29">
@@ -8428,7 +8373,7 @@
         <v>1097</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M102" s="5">
         <v>1</v>
@@ -8446,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="R102" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S102" s="5">
         <v>0</v>
@@ -8473,9 +8418,7 @@
       <c r="AA102" s="5">
         <v>20</v>
       </c>
-      <c r="AB102" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
     </row>
     <row r="103" spans="1:29">
@@ -8493,7 +8436,7 @@
         <v>1098</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M103" s="5">
         <v>1</v>
@@ -8511,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="R103" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S103" s="5">
         <v>0</v>
@@ -8538,9 +8481,7 @@
       <c r="AA103" s="5">
         <v>20</v>
       </c>
-      <c r="AB103" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB103" s="5"/>
       <c r="AC103" s="5"/>
     </row>
     <row r="104" spans="1:29">
@@ -8558,7 +8499,7 @@
         <v>1099</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M104" s="5">
         <v>1</v>
@@ -8576,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="R104" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S104" s="5">
         <v>0</v>
@@ -8603,9 +8544,7 @@
       <c r="AA104" s="5">
         <v>20</v>
       </c>
-      <c r="AB104" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB104" s="5"/>
       <c r="AC104" s="5"/>
     </row>
     <row r="105" spans="1:29">
@@ -8623,7 +8562,7 @@
         <v>1100</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M105" s="5">
         <v>1</v>
@@ -8641,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="R105" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S105" s="5">
         <v>0</v>
@@ -8668,9 +8607,7 @@
       <c r="AA105" s="5">
         <v>20</v>
       </c>
-      <c r="AB105" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB105" s="5"/>
       <c r="AC105" s="5"/>
     </row>
     <row r="106" spans="1:29">
@@ -8688,7 +8625,7 @@
         <v>1101</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M106" s="5">
         <v>1</v>
@@ -8706,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="R106" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S106" s="5">
         <v>0</v>
@@ -8733,9 +8670,7 @@
       <c r="AA106" s="5">
         <v>20</v>
       </c>
-      <c r="AB106" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB106" s="5"/>
       <c r="AC106" s="5"/>
     </row>
     <row r="107" spans="1:29">
@@ -8753,7 +8688,7 @@
         <v>1102</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M107" s="5">
         <v>1</v>
@@ -8771,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="R107" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S107" s="5">
         <v>0</v>
@@ -8816,7 +8751,7 @@
         <v>1103</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M108" s="5">
         <v>1</v>
@@ -8834,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="R108" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S108" s="5">
         <v>0</v>
@@ -8879,7 +8814,7 @@
         <v>1104</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M109" s="5">
         <v>1</v>
@@ -8897,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="R109" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S109" s="5">
         <v>0</v>
@@ -8930,13 +8865,13 @@
     <row r="110" spans="1:29">
       <c r="A110" s="5"/>
       <c r="B110" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C110" s="5">
         <v>19</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>65</v>
@@ -8960,7 +8895,7 @@
         <v>1105</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M110" s="5">
         <v>1</v>
@@ -8978,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="R110" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S110" s="5">
         <v>0</v>
@@ -9023,7 +8958,7 @@
         <v>1106</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M111" s="5">
         <v>1</v>
@@ -9041,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="R111" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S111" s="5">
         <v>0</v>
@@ -9086,7 +9021,7 @@
         <v>1107</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M112" s="5">
         <v>1</v>
@@ -9104,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="R112" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S112" s="5">
         <v>0</v>
@@ -9149,7 +9084,7 @@
         <v>1108</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M113" s="5">
         <v>1</v>
@@ -9167,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="R113" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S113" s="5">
         <v>0</v>
@@ -9212,7 +9147,7 @@
         <v>1109</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M114" s="5">
         <v>1</v>
@@ -9230,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="R114" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S114" s="5">
         <v>0</v>
@@ -9257,9 +9192,7 @@
       <c r="AA114" s="5">
         <v>20</v>
       </c>
-      <c r="AB114" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB114" s="5"/>
       <c r="AC114" s="5"/>
     </row>
     <row r="115" spans="1:29">
@@ -9277,7 +9210,7 @@
         <v>1110</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M115" s="5">
         <v>1</v>
@@ -9295,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="R115" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S115" s="5">
         <v>0</v>
@@ -9322,9 +9255,7 @@
       <c r="AA115" s="5">
         <v>20</v>
       </c>
-      <c r="AB115" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB115" s="5"/>
       <c r="AC115" s="5"/>
     </row>
     <row r="116" spans="1:29">
@@ -9342,7 +9273,7 @@
         <v>1111</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M116" s="5">
         <v>1</v>
@@ -9360,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="R116" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S116" s="5">
         <v>0</v>
@@ -9387,9 +9318,7 @@
       <c r="AA116" s="5">
         <v>20</v>
       </c>
-      <c r="AB116" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB116" s="5"/>
       <c r="AC116" s="5"/>
     </row>
     <row r="117" spans="1:29">
@@ -9407,7 +9336,7 @@
         <v>1112</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M117" s="5">
         <v>1</v>
@@ -9425,7 +9354,7 @@
         <v>0</v>
       </c>
       <c r="R117" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S117" s="5">
         <v>0</v>
@@ -9452,9 +9381,7 @@
       <c r="AA117" s="5">
         <v>20</v>
       </c>
-      <c r="AB117" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB117" s="5"/>
       <c r="AC117" s="5"/>
     </row>
     <row r="118" spans="1:29">
@@ -9472,7 +9399,7 @@
         <v>1113</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M118" s="5">
         <v>1</v>
@@ -9490,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="R118" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S118" s="5">
         <v>0</v>
@@ -9517,9 +9444,7 @@
       <c r="AA118" s="5">
         <v>20</v>
       </c>
-      <c r="AB118" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB118" s="5"/>
       <c r="AC118" s="5"/>
     </row>
     <row r="119" spans="1:29">
@@ -9537,7 +9462,7 @@
         <v>1114</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M119" s="5">
         <v>1</v>
@@ -9555,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="R119" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S119" s="5">
         <v>0</v>
@@ -9582,9 +9507,7 @@
       <c r="AA119" s="5">
         <v>20</v>
       </c>
-      <c r="AB119" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB119" s="5"/>
       <c r="AC119" s="5"/>
     </row>
     <row r="120" spans="1:29">
@@ -9602,7 +9525,7 @@
         <v>1115</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M120" s="5">
         <v>1</v>
@@ -9620,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="R120" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S120" s="5">
         <v>0</v>
@@ -9665,7 +9588,7 @@
         <v>1116</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M121" s="5">
         <v>1</v>
@@ -9683,7 +9606,7 @@
         <v>0</v>
       </c>
       <c r="R121" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S121" s="5">
         <v>0</v>
@@ -9716,13 +9639,13 @@
     <row r="122" spans="1:29">
       <c r="A122" s="5"/>
       <c r="B122" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C122" s="5">
         <v>20</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>65</v>
@@ -9746,7 +9669,7 @@
         <v>1117</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M122" s="5">
         <v>1</v>
@@ -9764,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="R122" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S122" s="5">
         <v>0</v>
@@ -9809,7 +9732,7 @@
         <v>1118</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M123" s="5">
         <v>1</v>
@@ -9827,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="R123" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S123" s="5">
         <v>0</v>
@@ -9872,7 +9795,7 @@
         <v>1119</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M124" s="5">
         <v>1</v>
@@ -9890,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="R124" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S124" s="5">
         <v>0</v>
@@ -9935,7 +9858,7 @@
         <v>1120</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M125" s="5">
         <v>1</v>
@@ -9953,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="R125" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S125" s="5">
         <v>0</v>
@@ -9998,7 +9921,7 @@
         <v>1121</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M126" s="5">
         <v>1</v>
@@ -10016,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="R126" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S126" s="5">
         <v>0</v>
@@ -10061,7 +9984,7 @@
         <v>1122</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M127" s="5">
         <v>1</v>
@@ -10079,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="R127" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S127" s="5">
         <v>0</v>
@@ -10106,9 +10029,7 @@
       <c r="AA127" s="5">
         <v>20</v>
       </c>
-      <c r="AB127" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB127" s="5"/>
       <c r="AC127" s="5"/>
     </row>
     <row r="128" spans="1:29">
@@ -10126,7 +10047,7 @@
         <v>1123</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M128" s="5">
         <v>1</v>
@@ -10144,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="R128" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S128" s="5">
         <v>0</v>
@@ -10171,9 +10092,7 @@
       <c r="AA128" s="5">
         <v>20</v>
       </c>
-      <c r="AB128" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB128" s="5"/>
       <c r="AC128" s="5"/>
     </row>
     <row r="129" spans="1:29">
@@ -10191,7 +10110,7 @@
         <v>1124</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M129" s="5">
         <v>1</v>
@@ -10209,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="R129" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S129" s="5">
         <v>0</v>
@@ -10236,9 +10155,7 @@
       <c r="AA129" s="5">
         <v>20</v>
       </c>
-      <c r="AB129" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB129" s="5"/>
       <c r="AC129" s="5"/>
     </row>
     <row r="130" spans="1:29">
@@ -10256,7 +10173,7 @@
         <v>1125</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M130" s="5">
         <v>1</v>
@@ -10274,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="R130" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S130" s="5">
         <v>0</v>
@@ -10301,9 +10218,7 @@
       <c r="AA130" s="5">
         <v>20</v>
       </c>
-      <c r="AB130" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB130" s="5"/>
       <c r="AC130" s="5"/>
     </row>
     <row r="131" spans="1:29">
@@ -10321,7 +10236,7 @@
         <v>1126</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M131" s="5">
         <v>1</v>
@@ -10339,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="R131" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S131" s="5">
         <v>0</v>
@@ -10366,9 +10281,7 @@
       <c r="AA131" s="5">
         <v>20</v>
       </c>
-      <c r="AB131" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB131" s="5"/>
       <c r="AC131" s="5"/>
     </row>
     <row r="132" spans="1:29">
@@ -10386,7 +10299,7 @@
         <v>1127</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M132" s="5">
         <v>1</v>
@@ -10404,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="R132" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S132" s="5">
         <v>0</v>
@@ -10431,9 +10344,7 @@
       <c r="AA132" s="5">
         <v>20</v>
       </c>
-      <c r="AB132" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB132" s="5"/>
       <c r="AC132" s="5"/>
     </row>
     <row r="133" spans="1:29">
@@ -10451,7 +10362,7 @@
         <v>1128</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M133" s="5">
         <v>1</v>
@@ -10469,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="R133" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S133" s="5">
         <v>0</v>
@@ -10502,13 +10413,13 @@
     <row r="134" spans="1:29">
       <c r="A134" s="5"/>
       <c r="B134" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C134" s="5">
         <v>21</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>65</v>
@@ -10532,7 +10443,7 @@
         <v>1129</v>
       </c>
       <c r="L134" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M134" s="5">
         <v>1</v>
@@ -10550,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="R134" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S134" s="5">
         <v>0</v>
@@ -10595,7 +10506,7 @@
         <v>1130</v>
       </c>
       <c r="L135" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M135" s="5">
         <v>1</v>
@@ -10613,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="R135" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S135" s="5">
         <v>0</v>
@@ -10658,7 +10569,7 @@
         <v>1131</v>
       </c>
       <c r="L136" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M136" s="5">
         <v>1</v>
@@ -10676,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="R136" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S136" s="5">
         <v>0</v>
@@ -10721,7 +10632,7 @@
         <v>1132</v>
       </c>
       <c r="L137" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M137" s="5">
         <v>1</v>
@@ -10739,7 +10650,7 @@
         <v>0</v>
       </c>
       <c r="R137" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S137" s="5">
         <v>0</v>
@@ -10784,7 +10695,7 @@
         <v>1133</v>
       </c>
       <c r="L138" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M138" s="5">
         <v>1</v>
@@ -10802,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="R138" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S138" s="5">
         <v>0</v>
@@ -10847,7 +10758,7 @@
         <v>1134</v>
       </c>
       <c r="L139" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M139" s="5">
         <v>1</v>
@@ -10865,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="R139" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S139" s="5">
         <v>0</v>
@@ -10910,7 +10821,7 @@
         <v>1135</v>
       </c>
       <c r="L140" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M140" s="5">
         <v>1</v>
@@ -10928,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="R140" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S140" s="5">
         <v>0</v>
@@ -10955,9 +10866,7 @@
       <c r="AA140" s="5">
         <v>20</v>
       </c>
-      <c r="AB140" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB140" s="5"/>
       <c r="AC140" s="5"/>
     </row>
     <row r="141" spans="1:29">
@@ -10975,7 +10884,7 @@
         <v>1136</v>
       </c>
       <c r="L141" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M141" s="5">
         <v>1</v>
@@ -10993,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="R141" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S141" s="5">
         <v>0</v>
@@ -11020,9 +10929,7 @@
       <c r="AA141" s="5">
         <v>20</v>
       </c>
-      <c r="AB141" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB141" s="5"/>
       <c r="AC141" s="5"/>
     </row>
     <row r="142" spans="1:29">
@@ -11040,7 +10947,7 @@
         <v>1137</v>
       </c>
       <c r="L142" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M142" s="5">
         <v>1</v>
@@ -11058,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="R142" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S142" s="5">
         <v>0</v>
@@ -11085,9 +10992,7 @@
       <c r="AA142" s="5">
         <v>20</v>
       </c>
-      <c r="AB142" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB142" s="5"/>
       <c r="AC142" s="5"/>
     </row>
     <row r="143" spans="1:29">
@@ -11105,7 +11010,7 @@
         <v>1138</v>
       </c>
       <c r="L143" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M143" s="5">
         <v>1</v>
@@ -11123,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="R143" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S143" s="5">
         <v>0</v>
@@ -11150,9 +11055,7 @@
       <c r="AA143" s="5">
         <v>20</v>
       </c>
-      <c r="AB143" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB143" s="5"/>
       <c r="AC143" s="5"/>
     </row>
     <row r="144" spans="1:29">
@@ -11170,7 +11073,7 @@
         <v>1139</v>
       </c>
       <c r="L144" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M144" s="5">
         <v>1</v>
@@ -11188,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="R144" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S144" s="5">
         <v>0</v>
@@ -11215,9 +11118,7 @@
       <c r="AA144" s="5">
         <v>20</v>
       </c>
-      <c r="AB144" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB144" s="5"/>
       <c r="AC144" s="5"/>
     </row>
     <row r="145" spans="1:29">
@@ -11235,7 +11136,7 @@
         <v>1140</v>
       </c>
       <c r="L145" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M145" s="5">
         <v>1</v>
@@ -11253,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="R145" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S145" s="5">
         <v>0</v>
@@ -11280,21 +11181,19 @@
       <c r="AA145" s="5">
         <v>20</v>
       </c>
-      <c r="AB145" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB145" s="5"/>
       <c r="AC145" s="5"/>
     </row>
     <row r="146" spans="1:29">
       <c r="A146" s="5"/>
       <c r="B146" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C146" s="5">
         <v>22</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>65</v>
@@ -11318,7 +11217,7 @@
         <v>1141</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M146" s="5">
         <v>1</v>
@@ -11336,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="R146" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S146" s="5">
         <v>0</v>
@@ -11381,7 +11280,7 @@
         <v>1142</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M147" s="5">
         <v>1</v>
@@ -11399,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="R147" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S147" s="5">
         <v>0</v>
@@ -11444,7 +11343,7 @@
         <v>1143</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M148" s="5">
         <v>1</v>
@@ -11462,7 +11361,7 @@
         <v>0</v>
       </c>
       <c r="R148" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S148" s="5">
         <v>0</v>
@@ -11507,7 +11406,7 @@
         <v>1144</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M149" s="5">
         <v>1</v>
@@ -11525,7 +11424,7 @@
         <v>0</v>
       </c>
       <c r="R149" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S149" s="5">
         <v>0</v>
@@ -11570,7 +11469,7 @@
         <v>1145</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M150" s="5">
         <v>1</v>
@@ -11588,7 +11487,7 @@
         <v>0</v>
       </c>
       <c r="R150" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S150" s="5">
         <v>0</v>
@@ -11633,7 +11532,7 @@
         <v>1146</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M151" s="5">
         <v>1</v>
@@ -11651,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="R151" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S151" s="5">
         <v>0</v>
@@ -11696,7 +11595,7 @@
         <v>1147</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M152" s="5">
         <v>1</v>
@@ -11714,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="R152" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S152" s="5">
         <v>0</v>
@@ -11759,7 +11658,7 @@
         <v>1148</v>
       </c>
       <c r="L153" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M153" s="5">
         <v>1</v>
@@ -11777,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="R153" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S153" s="5">
         <v>0</v>
@@ -11804,9 +11703,7 @@
       <c r="AA153" s="5">
         <v>20</v>
       </c>
-      <c r="AB153" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB153" s="5"/>
       <c r="AC153" s="5"/>
     </row>
     <row r="154" spans="1:29">
@@ -11824,7 +11721,7 @@
         <v>1149</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M154" s="5">
         <v>1</v>
@@ -11842,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="R154" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S154" s="5">
         <v>0</v>
@@ -11869,9 +11766,7 @@
       <c r="AA154" s="5">
         <v>20</v>
       </c>
-      <c r="AB154" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB154" s="5"/>
       <c r="AC154" s="5"/>
     </row>
     <row r="155" spans="1:29">
@@ -11889,7 +11784,7 @@
         <v>1150</v>
       </c>
       <c r="L155" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M155" s="5">
         <v>1</v>
@@ -11907,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="R155" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S155" s="5">
         <v>0</v>
@@ -11934,9 +11829,7 @@
       <c r="AA155" s="5">
         <v>20</v>
       </c>
-      <c r="AB155" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB155" s="5"/>
       <c r="AC155" s="5"/>
     </row>
     <row r="156" spans="1:29">
@@ -11954,7 +11847,7 @@
         <v>1151</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M156" s="5">
         <v>1</v>
@@ -11972,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="R156" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S156" s="5">
         <v>0</v>
@@ -11999,9 +11892,7 @@
       <c r="AA156" s="5">
         <v>20</v>
       </c>
-      <c r="AB156" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
     </row>
     <row r="157" spans="1:29">
@@ -12019,7 +11910,7 @@
         <v>1152</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M157" s="5">
         <v>1</v>
@@ -12037,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="R157" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S157" s="5">
         <v>0</v>
@@ -12064,21 +11955,19 @@
       <c r="AA157" s="5">
         <v>20</v>
       </c>
-      <c r="AB157" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB157" s="5"/>
       <c r="AC157" s="5"/>
     </row>
     <row r="158" spans="1:29">
       <c r="A158" s="5"/>
       <c r="B158" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C158" s="5">
         <v>23</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>65</v>
@@ -12102,7 +11991,7 @@
         <v>1153</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M158" s="5">
         <v>1</v>
@@ -12120,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="R158" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S158" s="5">
         <v>0</v>
@@ -12147,9 +12036,7 @@
       <c r="AA158" s="5">
         <v>20</v>
       </c>
-      <c r="AB158" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
     </row>
     <row r="159" spans="1:29">
@@ -12167,7 +12054,7 @@
         <v>1154</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M159" s="5">
         <v>1</v>
@@ -12185,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="R159" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S159" s="5">
         <v>0</v>
@@ -12230,7 +12117,7 @@
         <v>1155</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M160" s="5">
         <v>1</v>
@@ -12248,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="R160" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S160" s="5">
         <v>0</v>
@@ -12293,7 +12180,7 @@
         <v>1156</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M161" s="5">
         <v>1</v>
@@ -12311,7 +12198,7 @@
         <v>0</v>
       </c>
       <c r="R161" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S161" s="5">
         <v>0</v>
@@ -12356,7 +12243,7 @@
         <v>1157</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M162" s="5">
         <v>1</v>
@@ -12374,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="R162" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S162" s="5">
         <v>0</v>
@@ -12419,7 +12306,7 @@
         <v>1158</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M163" s="5">
         <v>1</v>
@@ -12437,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="R163" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S163" s="5">
         <v>0</v>
@@ -12482,7 +12369,7 @@
         <v>1159</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M164" s="5">
         <v>1</v>
@@ -12500,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="R164" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S164" s="5">
         <v>0</v>
@@ -12545,7 +12432,7 @@
         <v>1160</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M165" s="5">
         <v>1</v>
@@ -12563,7 +12450,7 @@
         <v>0</v>
       </c>
       <c r="R165" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S165" s="5">
         <v>0</v>
@@ -12608,7 +12495,7 @@
         <v>1161</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M166" s="5">
         <v>1</v>
@@ -12626,7 +12513,7 @@
         <v>0</v>
       </c>
       <c r="R166" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S166" s="5">
         <v>0</v>
@@ -12653,9 +12540,7 @@
       <c r="AA166" s="5">
         <v>20</v>
       </c>
-      <c r="AB166" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB166" s="5"/>
       <c r="AC166" s="5"/>
     </row>
     <row r="167" spans="1:29">
@@ -12673,7 +12558,7 @@
         <v>1162</v>
       </c>
       <c r="L167" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M167" s="5">
         <v>1</v>
@@ -12691,7 +12576,7 @@
         <v>0</v>
       </c>
       <c r="R167" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S167" s="5">
         <v>0</v>
@@ -12718,9 +12603,7 @@
       <c r="AA167" s="5">
         <v>20</v>
       </c>
-      <c r="AB167" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB167" s="5"/>
       <c r="AC167" s="5"/>
     </row>
     <row r="168" spans="1:29">
@@ -12738,7 +12621,7 @@
         <v>1163</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M168" s="5">
         <v>1</v>
@@ -12756,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="R168" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S168" s="5">
         <v>0</v>
@@ -12783,9 +12666,7 @@
       <c r="AA168" s="5">
         <v>20</v>
       </c>
-      <c r="AB168" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB168" s="5"/>
       <c r="AC168" s="5"/>
     </row>
     <row r="169" spans="1:29">
@@ -12803,7 +12684,7 @@
         <v>1164</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M169" s="5">
         <v>1</v>
@@ -12821,7 +12702,7 @@
         <v>0</v>
       </c>
       <c r="R169" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S169" s="5">
         <v>0</v>
@@ -12848,21 +12729,19 @@
       <c r="AA169" s="5">
         <v>20</v>
       </c>
-      <c r="AB169" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB169" s="5"/>
       <c r="AC169" s="5"/>
     </row>
     <row r="170" spans="1:29">
       <c r="A170" s="5"/>
       <c r="B170" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C170" s="5">
         <v>24</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>65</v>
@@ -12886,7 +12765,7 @@
         <v>1165</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M170" s="5">
         <v>1</v>
@@ -12904,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="R170" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S170" s="5">
         <v>0</v>
@@ -12931,9 +12810,7 @@
       <c r="AA170" s="5">
         <v>20</v>
       </c>
-      <c r="AB170" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB170" s="5"/>
       <c r="AC170" s="5"/>
     </row>
     <row r="171" spans="1:29">
@@ -12951,7 +12828,7 @@
         <v>1166</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M171" s="5">
         <v>1</v>
@@ -12969,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="R171" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S171" s="5">
         <v>0</v>
@@ -12996,9 +12873,7 @@
       <c r="AA171" s="5">
         <v>20</v>
       </c>
-      <c r="AB171" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB171" s="5"/>
       <c r="AC171" s="5"/>
     </row>
     <row r="172" spans="1:29">
@@ -13016,7 +12891,7 @@
         <v>1167</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M172" s="5">
         <v>1</v>
@@ -13034,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="R172" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S172" s="5">
         <v>0</v>
@@ -13079,7 +12954,7 @@
         <v>1168</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M173" s="5">
         <v>1</v>
@@ -13097,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="R173" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S173" s="5">
         <v>0</v>
@@ -13142,7 +13017,7 @@
         <v>1169</v>
       </c>
       <c r="L174" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M174" s="5">
         <v>1</v>
@@ -13160,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="R174" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S174" s="5">
         <v>0</v>
@@ -13205,7 +13080,7 @@
         <v>1170</v>
       </c>
       <c r="L175" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M175" s="5">
         <v>1</v>
@@ -13223,7 +13098,7 @@
         <v>0</v>
       </c>
       <c r="R175" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S175" s="5">
         <v>0</v>
@@ -13268,7 +13143,7 @@
         <v>1171</v>
       </c>
       <c r="L176" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M176" s="5">
         <v>1</v>
@@ -13286,7 +13161,7 @@
         <v>0</v>
       </c>
       <c r="R176" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S176" s="5">
         <v>0</v>
@@ -13331,7 +13206,7 @@
         <v>1172</v>
       </c>
       <c r="L177" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M177" s="5">
         <v>1</v>
@@ -13349,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="R177" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S177" s="5">
         <v>0</v>
@@ -13394,7 +13269,7 @@
         <v>1173</v>
       </c>
       <c r="L178" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M178" s="5">
         <v>1</v>
@@ -13412,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="R178" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S178" s="5">
         <v>0</v>
@@ -13457,7 +13332,7 @@
         <v>1174</v>
       </c>
       <c r="L179" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M179" s="5">
         <v>1</v>
@@ -13475,7 +13350,7 @@
         <v>0</v>
       </c>
       <c r="R179" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S179" s="5">
         <v>0</v>
@@ -13502,9 +13377,7 @@
       <c r="AA179" s="5">
         <v>20</v>
       </c>
-      <c r="AB179" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB179" s="5"/>
       <c r="AC179" s="5"/>
     </row>
     <row r="180" spans="1:29">
@@ -13522,7 +13395,7 @@
         <v>1175</v>
       </c>
       <c r="L180" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M180" s="5">
         <v>1</v>
@@ -13540,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="R180" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S180" s="5">
         <v>0</v>
@@ -13567,9 +13440,7 @@
       <c r="AA180" s="5">
         <v>20</v>
       </c>
-      <c r="AB180" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB180" s="5"/>
       <c r="AC180" s="5"/>
     </row>
     <row r="181" spans="1:29">
@@ -13587,7 +13458,7 @@
         <v>1176</v>
       </c>
       <c r="L181" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M181" s="5">
         <v>1</v>
@@ -13605,7 +13476,7 @@
         <v>0</v>
       </c>
       <c r="R181" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S181" s="5">
         <v>0</v>
@@ -13632,21 +13503,19 @@
       <c r="AA181" s="5">
         <v>20</v>
       </c>
-      <c r="AB181" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB181" s="5"/>
       <c r="AC181" s="5"/>
     </row>
     <row r="182" spans="1:29">
       <c r="A182" s="5"/>
       <c r="B182" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C182" s="5">
         <v>25</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>65</v>
@@ -13670,7 +13539,7 @@
         <v>1177</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M182" s="5">
         <v>1</v>
@@ -13688,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="R182" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S182" s="5">
         <v>0</v>
@@ -13715,9 +13584,7 @@
       <c r="AA182" s="5">
         <v>20</v>
       </c>
-      <c r="AB182" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB182" s="5"/>
       <c r="AC182" s="5"/>
     </row>
     <row r="183" spans="1:29">
@@ -13735,7 +13602,7 @@
         <v>1178</v>
       </c>
       <c r="L183" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M183" s="5">
         <v>1</v>
@@ -13753,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="R183" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S183" s="5">
         <v>0</v>
@@ -13780,9 +13647,7 @@
       <c r="AA183" s="5">
         <v>20</v>
       </c>
-      <c r="AB183" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB183" s="5"/>
       <c r="AC183" s="5"/>
     </row>
     <row r="184" spans="1:29">
@@ -13800,7 +13665,7 @@
         <v>1179</v>
       </c>
       <c r="L184" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M184" s="5">
         <v>1</v>
@@ -13818,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="R184" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S184" s="5">
         <v>0</v>
@@ -13845,9 +13710,7 @@
       <c r="AA184" s="5">
         <v>20</v>
       </c>
-      <c r="AB184" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB184" s="5"/>
       <c r="AC184" s="5"/>
     </row>
     <row r="185" spans="1:29">
@@ -13865,7 +13728,7 @@
         <v>1180</v>
       </c>
       <c r="L185" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M185" s="5">
         <v>1</v>
@@ -13883,7 +13746,7 @@
         <v>0</v>
       </c>
       <c r="R185" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S185" s="5">
         <v>0</v>
@@ -13928,7 +13791,7 @@
         <v>1181</v>
       </c>
       <c r="L186" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M186" s="5">
         <v>1</v>
@@ -13946,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="R186" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S186" s="5">
         <v>0</v>
@@ -13991,7 +13854,7 @@
         <v>1182</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M187" s="5">
         <v>1</v>
@@ -14009,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="R187" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S187" s="5">
         <v>0</v>
@@ -14054,7 +13917,7 @@
         <v>1183</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M188" s="5">
         <v>1</v>
@@ -14072,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="R188" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S188" s="5">
         <v>0</v>
@@ -14117,7 +13980,7 @@
         <v>1184</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M189" s="5">
         <v>1</v>
@@ -14135,7 +13998,7 @@
         <v>0</v>
       </c>
       <c r="R189" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S189" s="5">
         <v>0</v>
@@ -14180,7 +14043,7 @@
         <v>1185</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M190" s="5">
         <v>1</v>
@@ -14198,7 +14061,7 @@
         <v>0</v>
       </c>
       <c r="R190" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S190" s="5">
         <v>0</v>
@@ -14243,7 +14106,7 @@
         <v>1186</v>
       </c>
       <c r="L191" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M191" s="5">
         <v>1</v>
@@ -14261,7 +14124,7 @@
         <v>0</v>
       </c>
       <c r="R191" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S191" s="5">
         <v>0</v>
@@ -14306,7 +14169,7 @@
         <v>1187</v>
       </c>
       <c r="L192" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M192" s="5">
         <v>1</v>
@@ -14324,7 +14187,7 @@
         <v>0</v>
       </c>
       <c r="R192" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S192" s="5">
         <v>0</v>
@@ -14351,9 +14214,7 @@
       <c r="AA192" s="5">
         <v>20</v>
       </c>
-      <c r="AB192" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB192" s="5"/>
       <c r="AC192" s="5"/>
     </row>
     <row r="193" spans="1:29">
@@ -14371,7 +14232,7 @@
         <v>1188</v>
       </c>
       <c r="L193" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M193" s="5">
         <v>1</v>
@@ -14389,7 +14250,7 @@
         <v>0</v>
       </c>
       <c r="R193" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S193" s="5">
         <v>0</v>
@@ -14416,21 +14277,19 @@
       <c r="AA193" s="5">
         <v>20</v>
       </c>
-      <c r="AB193" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB193" s="5"/>
       <c r="AC193" s="5"/>
     </row>
     <row r="194" spans="1:29">
       <c r="A194" s="5"/>
       <c r="B194" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C194" s="5">
         <v>26</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>65</v>
@@ -14454,7 +14313,7 @@
         <v>1189</v>
       </c>
       <c r="L194" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M194" s="5">
         <v>1</v>
@@ -14472,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="R194" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S194" s="5">
         <v>0</v>
@@ -14499,9 +14358,7 @@
       <c r="AA194" s="5">
         <v>20</v>
       </c>
-      <c r="AB194" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB194" s="5"/>
       <c r="AC194" s="5"/>
     </row>
     <row r="195" spans="1:29">
@@ -14519,7 +14376,7 @@
         <v>1190</v>
       </c>
       <c r="L195" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M195" s="5">
         <v>1</v>
@@ -14537,7 +14394,7 @@
         <v>0</v>
       </c>
       <c r="R195" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S195" s="5">
         <v>0</v>
@@ -14564,9 +14421,7 @@
       <c r="AA195" s="5">
         <v>20</v>
       </c>
-      <c r="AB195" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB195" s="5"/>
       <c r="AC195" s="5"/>
     </row>
     <row r="196" spans="1:29">
@@ -14584,7 +14439,7 @@
         <v>1191</v>
       </c>
       <c r="L196" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M196" s="5">
         <v>1</v>
@@ -14602,7 +14457,7 @@
         <v>0</v>
       </c>
       <c r="R196" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S196" s="5">
         <v>0</v>
@@ -14629,9 +14484,7 @@
       <c r="AA196" s="5">
         <v>20</v>
       </c>
-      <c r="AB196" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB196" s="5"/>
       <c r="AC196" s="5"/>
     </row>
     <row r="197" spans="1:29">
@@ -14649,7 +14502,7 @@
         <v>1192</v>
       </c>
       <c r="L197" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M197" s="5">
         <v>1</v>
@@ -14667,7 +14520,7 @@
         <v>0</v>
       </c>
       <c r="R197" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S197" s="5">
         <v>0</v>
@@ -14694,9 +14547,7 @@
       <c r="AA197" s="5">
         <v>20</v>
       </c>
-      <c r="AB197" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB197" s="5"/>
       <c r="AC197" s="5"/>
     </row>
     <row r="198" spans="1:29">
@@ -14714,7 +14565,7 @@
         <v>1193</v>
       </c>
       <c r="L198" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M198" s="5">
         <v>1</v>
@@ -14732,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="R198" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S198" s="5">
         <v>0</v>
@@ -14777,7 +14628,7 @@
         <v>1194</v>
       </c>
       <c r="L199" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M199" s="5">
         <v>1</v>
@@ -14795,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="R199" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S199" s="5">
         <v>0</v>
@@ -14840,7 +14691,7 @@
         <v>1195</v>
       </c>
       <c r="L200" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M200" s="5">
         <v>1</v>
@@ -14858,7 +14709,7 @@
         <v>0</v>
       </c>
       <c r="R200" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S200" s="5">
         <v>0</v>
@@ -14903,7 +14754,7 @@
         <v>1196</v>
       </c>
       <c r="L201" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M201" s="5">
         <v>1</v>
@@ -14921,7 +14772,7 @@
         <v>0</v>
       </c>
       <c r="R201" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S201" s="5">
         <v>0</v>
@@ -14966,7 +14817,7 @@
         <v>1197</v>
       </c>
       <c r="L202" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M202" s="5">
         <v>1</v>
@@ -14984,7 +14835,7 @@
         <v>0</v>
       </c>
       <c r="R202" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S202" s="5">
         <v>0</v>
@@ -15029,7 +14880,7 @@
         <v>1198</v>
       </c>
       <c r="L203" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M203" s="5">
         <v>1</v>
@@ -15047,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="R203" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S203" s="5">
         <v>0</v>
@@ -15092,7 +14943,7 @@
         <v>1199</v>
       </c>
       <c r="L204" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M204" s="5">
         <v>1</v>
@@ -15110,7 +14961,7 @@
         <v>0</v>
       </c>
       <c r="R204" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S204" s="5">
         <v>0</v>
@@ -15155,7 +15006,7 @@
         <v>1200</v>
       </c>
       <c r="L205" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M205" s="5">
         <v>1</v>
@@ -15173,7 +15024,7 @@
         <v>0</v>
       </c>
       <c r="R205" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S205" s="5">
         <v>0</v>
@@ -15200,21 +15051,19 @@
       <c r="AA205" s="5">
         <v>20</v>
       </c>
-      <c r="AB205" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB205" s="5"/>
       <c r="AC205" s="5"/>
     </row>
     <row r="206" spans="1:29">
       <c r="A206" s="5"/>
       <c r="B206" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C206" s="5">
         <v>27</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>65</v>
@@ -15238,7 +15087,7 @@
         <v>1201</v>
       </c>
       <c r="L206" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M206" s="5">
         <v>1</v>
@@ -15256,7 +15105,7 @@
         <v>0</v>
       </c>
       <c r="R206" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S206" s="5">
         <v>0</v>
@@ -15283,9 +15132,7 @@
       <c r="AA206" s="5">
         <v>20</v>
       </c>
-      <c r="AB206" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB206" s="5"/>
       <c r="AC206" s="5"/>
     </row>
     <row r="207" spans="1:29">
@@ -15303,7 +15150,7 @@
         <v>1202</v>
       </c>
       <c r="L207" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M207" s="5">
         <v>1</v>
@@ -15321,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="R207" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S207" s="5">
         <v>0</v>
@@ -15348,9 +15195,7 @@
       <c r="AA207" s="5">
         <v>20</v>
       </c>
-      <c r="AB207" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB207" s="5"/>
       <c r="AC207" s="5"/>
     </row>
     <row r="208" spans="1:29">
@@ -15368,7 +15213,7 @@
         <v>1203</v>
       </c>
       <c r="L208" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M208" s="5">
         <v>1</v>
@@ -15386,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="R208" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S208" s="5">
         <v>0</v>
@@ -15413,9 +15258,7 @@
       <c r="AA208" s="5">
         <v>20</v>
       </c>
-      <c r="AB208" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB208" s="5"/>
       <c r="AC208" s="5"/>
     </row>
     <row r="209" spans="1:29">
@@ -15433,7 +15276,7 @@
         <v>1204</v>
       </c>
       <c r="L209" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M209" s="5">
         <v>1</v>
@@ -15451,7 +15294,7 @@
         <v>0</v>
       </c>
       <c r="R209" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S209" s="5">
         <v>0</v>
@@ -15478,9 +15321,7 @@
       <c r="AA209" s="5">
         <v>20</v>
       </c>
-      <c r="AB209" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB209" s="5"/>
       <c r="AC209" s="5"/>
     </row>
     <row r="210" spans="1:29">
@@ -15498,7 +15339,7 @@
         <v>1205</v>
       </c>
       <c r="L210" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M210" s="5">
         <v>1</v>
@@ -15516,7 +15357,7 @@
         <v>0</v>
       </c>
       <c r="R210" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S210" s="5">
         <v>0</v>
@@ -15543,9 +15384,7 @@
       <c r="AA210" s="5">
         <v>20</v>
       </c>
-      <c r="AB210" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB210" s="5"/>
       <c r="AC210" s="5"/>
     </row>
     <row r="211" spans="1:29">
@@ -15563,7 +15402,7 @@
         <v>1206</v>
       </c>
       <c r="L211" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M211" s="5">
         <v>1</v>
@@ -15581,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="R211" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S211" s="5">
         <v>0</v>
@@ -15626,7 +15465,7 @@
         <v>1207</v>
       </c>
       <c r="L212" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M212" s="5">
         <v>1</v>
@@ -15644,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="R212" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S212" s="5">
         <v>0</v>
@@ -15689,7 +15528,7 @@
         <v>1208</v>
       </c>
       <c r="L213" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M213" s="5">
         <v>1</v>
@@ -15707,7 +15546,7 @@
         <v>0</v>
       </c>
       <c r="R213" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S213" s="5">
         <v>0</v>
@@ -15752,7 +15591,7 @@
         <v>1209</v>
       </c>
       <c r="L214" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M214" s="5">
         <v>1</v>
@@ -15770,7 +15609,7 @@
         <v>0</v>
       </c>
       <c r="R214" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S214" s="5">
         <v>0</v>
@@ -15815,7 +15654,7 @@
         <v>1210</v>
       </c>
       <c r="L215" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M215" s="5">
         <v>1</v>
@@ -15833,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="R215" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S215" s="5">
         <v>0</v>
@@ -15878,7 +15717,7 @@
         <v>1211</v>
       </c>
       <c r="L216" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M216" s="5">
         <v>1</v>
@@ -15896,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="R216" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S216" s="5">
         <v>0</v>
@@ -15941,7 +15780,7 @@
         <v>1212</v>
       </c>
       <c r="L217" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M217" s="5">
         <v>1</v>
@@ -15959,7 +15798,7 @@
         <v>0</v>
       </c>
       <c r="R217" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S217" s="5">
         <v>0</v>
@@ -15992,13 +15831,13 @@
     <row r="218" spans="1:29">
       <c r="A218" s="5"/>
       <c r="B218" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C218" s="5">
         <v>28</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>65</v>
@@ -16022,7 +15861,7 @@
         <v>1213</v>
       </c>
       <c r="L218" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M218" s="5">
         <v>1</v>
@@ -16040,7 +15879,7 @@
         <v>0</v>
       </c>
       <c r="R218" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S218" s="5">
         <v>0</v>
@@ -16067,9 +15906,7 @@
       <c r="AA218" s="5">
         <v>20</v>
       </c>
-      <c r="AB218" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB218" s="5"/>
       <c r="AC218" s="5"/>
     </row>
     <row r="219" spans="1:29">
@@ -16087,7 +15924,7 @@
         <v>1214</v>
       </c>
       <c r="L219" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M219" s="5">
         <v>1</v>
@@ -16105,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="R219" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S219" s="5">
         <v>0</v>
@@ -16132,9 +15969,7 @@
       <c r="AA219" s="5">
         <v>20</v>
       </c>
-      <c r="AB219" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB219" s="5"/>
       <c r="AC219" s="5"/>
     </row>
     <row r="220" spans="1:29">
@@ -16152,7 +15987,7 @@
         <v>1215</v>
       </c>
       <c r="L220" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M220" s="5">
         <v>1</v>
@@ -16170,7 +16005,7 @@
         <v>0</v>
       </c>
       <c r="R220" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S220" s="5">
         <v>0</v>
@@ -16197,9 +16032,7 @@
       <c r="AA220" s="5">
         <v>20</v>
       </c>
-      <c r="AB220" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB220" s="5"/>
       <c r="AC220" s="5"/>
     </row>
     <row r="221" spans="1:29">
@@ -16217,7 +16050,7 @@
         <v>1216</v>
       </c>
       <c r="L221" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M221" s="5">
         <v>1</v>
@@ -16235,7 +16068,7 @@
         <v>0</v>
       </c>
       <c r="R221" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S221" s="5">
         <v>0</v>
@@ -16262,9 +16095,7 @@
       <c r="AA221" s="5">
         <v>20</v>
       </c>
-      <c r="AB221" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB221" s="5"/>
       <c r="AC221" s="5"/>
     </row>
     <row r="222" spans="1:29">
@@ -16282,7 +16113,7 @@
         <v>1217</v>
       </c>
       <c r="L222" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M222" s="5">
         <v>1</v>
@@ -16300,7 +16131,7 @@
         <v>0</v>
       </c>
       <c r="R222" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S222" s="5">
         <v>0</v>
@@ -16327,9 +16158,7 @@
       <c r="AA222" s="5">
         <v>20</v>
       </c>
-      <c r="AB222" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB222" s="5"/>
       <c r="AC222" s="5"/>
     </row>
     <row r="223" spans="1:29">
@@ -16347,7 +16176,7 @@
         <v>1218</v>
       </c>
       <c r="L223" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M223" s="5">
         <v>1</v>
@@ -16365,7 +16194,7 @@
         <v>0</v>
       </c>
       <c r="R223" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S223" s="5">
         <v>0</v>
@@ -16392,9 +16221,7 @@
       <c r="AA223" s="5">
         <v>20</v>
       </c>
-      <c r="AB223" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB223" s="5"/>
       <c r="AC223" s="5"/>
     </row>
     <row r="224" spans="1:29">
@@ -16412,7 +16239,7 @@
         <v>1219</v>
       </c>
       <c r="L224" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M224" s="5">
         <v>1</v>
@@ -16430,7 +16257,7 @@
         <v>0</v>
       </c>
       <c r="R224" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S224" s="5">
         <v>0</v>
@@ -16475,7 +16302,7 @@
         <v>1220</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M225" s="5">
         <v>1</v>
@@ -16493,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="R225" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S225" s="5">
         <v>0</v>
@@ -16538,7 +16365,7 @@
         <v>1221</v>
       </c>
       <c r="L226" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M226" s="5">
         <v>1</v>
@@ -16556,7 +16383,7 @@
         <v>0</v>
       </c>
       <c r="R226" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S226" s="5">
         <v>0</v>
@@ -16601,7 +16428,7 @@
         <v>1222</v>
       </c>
       <c r="L227" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M227" s="5">
         <v>1</v>
@@ -16619,7 +16446,7 @@
         <v>0</v>
       </c>
       <c r="R227" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S227" s="5">
         <v>0</v>
@@ -16664,7 +16491,7 @@
         <v>1223</v>
       </c>
       <c r="L228" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M228" s="5">
         <v>1</v>
@@ -16682,7 +16509,7 @@
         <v>0</v>
       </c>
       <c r="R228" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S228" s="5">
         <v>0</v>
@@ -16727,7 +16554,7 @@
         <v>1224</v>
       </c>
       <c r="L229" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M229" s="5">
         <v>1</v>
@@ -16745,7 +16572,7 @@
         <v>0</v>
       </c>
       <c r="R229" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S229" s="5">
         <v>0</v>
@@ -16778,13 +16605,13 @@
     <row r="230" spans="1:29">
       <c r="A230" s="5"/>
       <c r="B230" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C230" s="5">
         <v>29</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>65</v>
@@ -16808,7 +16635,7 @@
         <v>1225</v>
       </c>
       <c r="L230" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M230" s="5">
         <v>1</v>
@@ -16826,7 +16653,7 @@
         <v>0</v>
       </c>
       <c r="R230" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S230" s="5">
         <v>0</v>
@@ -16871,7 +16698,7 @@
         <v>1226</v>
       </c>
       <c r="L231" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M231" s="5">
         <v>1</v>
@@ -16889,7 +16716,7 @@
         <v>0</v>
       </c>
       <c r="R231" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S231" s="5">
         <v>0</v>
@@ -16916,9 +16743,7 @@
       <c r="AA231" s="5">
         <v>20</v>
       </c>
-      <c r="AB231" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB231" s="5"/>
       <c r="AC231" s="5"/>
     </row>
     <row r="232" spans="1:29">
@@ -16936,7 +16761,7 @@
         <v>1227</v>
       </c>
       <c r="L232" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M232" s="5">
         <v>1</v>
@@ -16954,7 +16779,7 @@
         <v>0</v>
       </c>
       <c r="R232" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S232" s="5">
         <v>0</v>
@@ -16981,9 +16806,7 @@
       <c r="AA232" s="5">
         <v>20</v>
       </c>
-      <c r="AB232" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB232" s="5"/>
       <c r="AC232" s="5"/>
     </row>
     <row r="233" spans="1:29">
@@ -17001,7 +16824,7 @@
         <v>1228</v>
       </c>
       <c r="L233" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M233" s="5">
         <v>1</v>
@@ -17019,7 +16842,7 @@
         <v>0</v>
       </c>
       <c r="R233" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S233" s="5">
         <v>0</v>
@@ -17046,9 +16869,7 @@
       <c r="AA233" s="5">
         <v>20</v>
       </c>
-      <c r="AB233" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB233" s="5"/>
       <c r="AC233" s="5"/>
     </row>
     <row r="234" spans="1:29">
@@ -17066,7 +16887,7 @@
         <v>1229</v>
       </c>
       <c r="L234" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M234" s="5">
         <v>1</v>
@@ -17084,7 +16905,7 @@
         <v>0</v>
       </c>
       <c r="R234" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S234" s="5">
         <v>0</v>
@@ -17111,9 +16932,7 @@
       <c r="AA234" s="5">
         <v>20</v>
       </c>
-      <c r="AB234" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB234" s="5"/>
       <c r="AC234" s="5"/>
     </row>
     <row r="235" spans="1:29">
@@ -17131,7 +16950,7 @@
         <v>1230</v>
       </c>
       <c r="L235" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M235" s="5">
         <v>1</v>
@@ -17149,7 +16968,7 @@
         <v>0</v>
       </c>
       <c r="R235" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S235" s="5">
         <v>0</v>
@@ -17176,9 +16995,7 @@
       <c r="AA235" s="5">
         <v>20</v>
       </c>
-      <c r="AB235" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB235" s="5"/>
       <c r="AC235" s="5"/>
     </row>
     <row r="236" spans="1:29">
@@ -17196,7 +17013,7 @@
         <v>1231</v>
       </c>
       <c r="L236" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M236" s="5">
         <v>1</v>
@@ -17214,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="R236" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S236" s="5">
         <v>0</v>
@@ -17241,9 +17058,7 @@
       <c r="AA236" s="5">
         <v>20</v>
       </c>
-      <c r="AB236" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB236" s="5"/>
       <c r="AC236" s="5"/>
     </row>
     <row r="237" spans="1:29">
@@ -17261,7 +17076,7 @@
         <v>1232</v>
       </c>
       <c r="L237" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M237" s="5">
         <v>1</v>
@@ -17279,7 +17094,7 @@
         <v>0</v>
       </c>
       <c r="R237" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S237" s="5">
         <v>0</v>
@@ -17324,7 +17139,7 @@
         <v>1233</v>
       </c>
       <c r="L238" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M238" s="5">
         <v>1</v>
@@ -17342,7 +17157,7 @@
         <v>0</v>
       </c>
       <c r="R238" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S238" s="5">
         <v>0</v>
@@ -17387,7 +17202,7 @@
         <v>1234</v>
       </c>
       <c r="L239" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M239" s="5">
         <v>1</v>
@@ -17405,7 +17220,7 @@
         <v>0</v>
       </c>
       <c r="R239" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S239" s="5">
         <v>0</v>
@@ -17450,7 +17265,7 @@
         <v>1235</v>
       </c>
       <c r="L240" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M240" s="5">
         <v>1</v>
@@ -17468,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="R240" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S240" s="5">
         <v>0</v>
@@ -17513,7 +17328,7 @@
         <v>1236</v>
       </c>
       <c r="L241" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M241" s="5">
         <v>1</v>
@@ -17531,7 +17346,7 @@
         <v>0</v>
       </c>
       <c r="R241" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S241" s="5">
         <v>0</v>
@@ -17564,13 +17379,13 @@
     <row r="242" spans="1:29">
       <c r="A242" s="5"/>
       <c r="B242" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C242" s="5">
         <v>30</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>65</v>
@@ -17594,7 +17409,7 @@
         <v>1237</v>
       </c>
       <c r="L242" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M242" s="5">
         <v>1</v>
@@ -17612,7 +17427,7 @@
         <v>0</v>
       </c>
       <c r="R242" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S242" s="5">
         <v>0</v>
@@ -17657,7 +17472,7 @@
         <v>1238</v>
       </c>
       <c r="L243" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M243" s="5">
         <v>1</v>
@@ -17675,7 +17490,7 @@
         <v>0</v>
       </c>
       <c r="R243" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S243" s="5">
         <v>0</v>
@@ -17720,7 +17535,7 @@
         <v>1239</v>
       </c>
       <c r="L244" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M244" s="5">
         <v>1</v>
@@ -17738,7 +17553,7 @@
         <v>0</v>
       </c>
       <c r="R244" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S244" s="5">
         <v>0</v>
@@ -17765,9 +17580,7 @@
       <c r="AA244" s="5">
         <v>20</v>
       </c>
-      <c r="AB244" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB244" s="5"/>
       <c r="AC244" s="5"/>
     </row>
     <row r="245" spans="1:29">
@@ -17785,7 +17598,7 @@
         <v>1240</v>
       </c>
       <c r="L245" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M245" s="5">
         <v>1</v>
@@ -17803,7 +17616,7 @@
         <v>0</v>
       </c>
       <c r="R245" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S245" s="5">
         <v>0</v>
@@ -17830,9 +17643,7 @@
       <c r="AA245" s="5">
         <v>20</v>
       </c>
-      <c r="AB245" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB245" s="5"/>
       <c r="AC245" s="5"/>
     </row>
     <row r="246" spans="1:29">
@@ -17850,7 +17661,7 @@
         <v>1241</v>
       </c>
       <c r="L246" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M246" s="5">
         <v>1</v>
@@ -17868,7 +17679,7 @@
         <v>0</v>
       </c>
       <c r="R246" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S246" s="5">
         <v>0</v>
@@ -17895,9 +17706,7 @@
       <c r="AA246" s="5">
         <v>20</v>
       </c>
-      <c r="AB246" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB246" s="5"/>
       <c r="AC246" s="5"/>
     </row>
     <row r="247" spans="1:29">
@@ -17915,7 +17724,7 @@
         <v>1242</v>
       </c>
       <c r="L247" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M247" s="5">
         <v>1</v>
@@ -17933,7 +17742,7 @@
         <v>0</v>
       </c>
       <c r="R247" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S247" s="5">
         <v>0</v>
@@ -17960,9 +17769,7 @@
       <c r="AA247" s="5">
         <v>20</v>
       </c>
-      <c r="AB247" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB247" s="5"/>
       <c r="AC247" s="5"/>
     </row>
     <row r="248" spans="1:29">
@@ -17980,7 +17787,7 @@
         <v>1243</v>
       </c>
       <c r="L248" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M248" s="5">
         <v>1</v>
@@ -17998,7 +17805,7 @@
         <v>0</v>
       </c>
       <c r="R248" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S248" s="5">
         <v>0</v>
@@ -18025,9 +17832,7 @@
       <c r="AA248" s="5">
         <v>20</v>
       </c>
-      <c r="AB248" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB248" s="5"/>
       <c r="AC248" s="5"/>
     </row>
     <row r="249" spans="1:29">
@@ -18045,7 +17850,7 @@
         <v>1244</v>
       </c>
       <c r="L249" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M249" s="5">
         <v>1</v>
@@ -18063,7 +17868,7 @@
         <v>0</v>
       </c>
       <c r="R249" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S249" s="5">
         <v>0</v>
@@ -18090,9 +17895,7 @@
       <c r="AA249" s="5">
         <v>20</v>
       </c>
-      <c r="AB249" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB249" s="5"/>
       <c r="AC249" s="5"/>
     </row>
     <row r="250" spans="1:29">
@@ -18110,7 +17913,7 @@
         <v>1245</v>
       </c>
       <c r="L250" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M250" s="5">
         <v>1</v>
@@ -18128,7 +17931,7 @@
         <v>0</v>
       </c>
       <c r="R250" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S250" s="5">
         <v>0</v>
@@ -18173,7 +17976,7 @@
         <v>1246</v>
       </c>
       <c r="L251" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M251" s="5">
         <v>1</v>
@@ -18191,7 +17994,7 @@
         <v>0</v>
       </c>
       <c r="R251" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S251" s="5">
         <v>0</v>
@@ -18236,7 +18039,7 @@
         <v>1247</v>
       </c>
       <c r="L252" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M252" s="5">
         <v>1</v>
@@ -18254,7 +18057,7 @@
         <v>0</v>
       </c>
       <c r="R252" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S252" s="5">
         <v>0</v>
@@ -18299,7 +18102,7 @@
         <v>1248</v>
       </c>
       <c r="L253" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M253" s="5">
         <v>1</v>
@@ -18317,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="R253" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S253" s="5">
         <v>0</v>
@@ -18350,13 +18153,13 @@
     <row r="254" spans="1:29">
       <c r="A254" s="5"/>
       <c r="B254" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C254" s="5">
         <v>31</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E254" s="5" t="s">
         <v>65</v>
@@ -18380,7 +18183,7 @@
         <v>1249</v>
       </c>
       <c r="L254" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M254" s="5">
         <v>1</v>
@@ -18398,7 +18201,7 @@
         <v>0</v>
       </c>
       <c r="R254" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S254" s="5">
         <v>0</v>
@@ -18443,7 +18246,7 @@
         <v>1250</v>
       </c>
       <c r="L255" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M255" s="5">
         <v>1</v>
@@ -18461,7 +18264,7 @@
         <v>0</v>
       </c>
       <c r="R255" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S255" s="5">
         <v>0</v>
@@ -18506,7 +18309,7 @@
         <v>1251</v>
       </c>
       <c r="L256" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M256" s="5">
         <v>1</v>
@@ -18524,7 +18327,7 @@
         <v>0</v>
       </c>
       <c r="R256" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S256" s="5">
         <v>0</v>
@@ -18569,7 +18372,7 @@
         <v>1252</v>
       </c>
       <c r="L257" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M257" s="5">
         <v>1</v>
@@ -18587,7 +18390,7 @@
         <v>0</v>
       </c>
       <c r="R257" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S257" s="5">
         <v>0</v>
@@ -18614,9 +18417,7 @@
       <c r="AA257" s="5">
         <v>20</v>
       </c>
-      <c r="AB257" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB257" s="5"/>
       <c r="AC257" s="5"/>
     </row>
     <row r="258" spans="1:29">
@@ -18634,7 +18435,7 @@
         <v>1253</v>
       </c>
       <c r="L258" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M258" s="5">
         <v>1</v>
@@ -18652,7 +18453,7 @@
         <v>0</v>
       </c>
       <c r="R258" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S258" s="5">
         <v>0</v>
@@ -18679,9 +18480,7 @@
       <c r="AA258" s="5">
         <v>20</v>
       </c>
-      <c r="AB258" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB258" s="5"/>
       <c r="AC258" s="5"/>
     </row>
     <row r="259" spans="1:29">
@@ -18699,7 +18498,7 @@
         <v>1254</v>
       </c>
       <c r="L259" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M259" s="5">
         <v>1</v>
@@ -18717,7 +18516,7 @@
         <v>0</v>
       </c>
       <c r="R259" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S259" s="5">
         <v>0</v>
@@ -18744,9 +18543,7 @@
       <c r="AA259" s="5">
         <v>20</v>
       </c>
-      <c r="AB259" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB259" s="5"/>
       <c r="AC259" s="5"/>
     </row>
     <row r="260" spans="1:29">
@@ -18764,7 +18561,7 @@
         <v>1255</v>
       </c>
       <c r="L260" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M260" s="5">
         <v>1</v>
@@ -18782,7 +18579,7 @@
         <v>0</v>
       </c>
       <c r="R260" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S260" s="5">
         <v>0</v>
@@ -18809,9 +18606,7 @@
       <c r="AA260" s="5">
         <v>20</v>
       </c>
-      <c r="AB260" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB260" s="5"/>
       <c r="AC260" s="5"/>
     </row>
     <row r="261" spans="1:29">
@@ -18829,7 +18624,7 @@
         <v>1256</v>
       </c>
       <c r="L261" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M261" s="5">
         <v>1</v>
@@ -18847,7 +18642,7 @@
         <v>0</v>
       </c>
       <c r="R261" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S261" s="5">
         <v>0</v>
@@ -18874,9 +18669,7 @@
       <c r="AA261" s="5">
         <v>20</v>
       </c>
-      <c r="AB261" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB261" s="5"/>
       <c r="AC261" s="5"/>
     </row>
     <row r="262" spans="1:29">
@@ -18894,7 +18687,7 @@
         <v>1257</v>
       </c>
       <c r="L262" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M262" s="5">
         <v>1</v>
@@ -18912,7 +18705,7 @@
         <v>0</v>
       </c>
       <c r="R262" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S262" s="5">
         <v>0</v>
@@ -18939,9 +18732,7 @@
       <c r="AA262" s="5">
         <v>20</v>
       </c>
-      <c r="AB262" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB262" s="5"/>
       <c r="AC262" s="5"/>
     </row>
     <row r="263" spans="1:29">
@@ -18959,7 +18750,7 @@
         <v>1258</v>
       </c>
       <c r="L263" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M263" s="5">
         <v>1</v>
@@ -18977,7 +18768,7 @@
         <v>0</v>
       </c>
       <c r="R263" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S263" s="5">
         <v>0</v>
@@ -19022,7 +18813,7 @@
         <v>1259</v>
       </c>
       <c r="L264" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M264" s="5">
         <v>1</v>
@@ -19040,7 +18831,7 @@
         <v>0</v>
       </c>
       <c r="R264" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S264" s="5">
         <v>0</v>
@@ -19085,7 +18876,7 @@
         <v>1260</v>
       </c>
       <c r="L265" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M265" s="5">
         <v>1</v>
@@ -19103,7 +18894,7 @@
         <v>0</v>
       </c>
       <c r="R265" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S265" s="5">
         <v>0</v>
@@ -19136,13 +18927,13 @@
     <row r="266" spans="1:29">
       <c r="A266" s="5"/>
       <c r="B266" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C266" s="5">
         <v>32</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E266" s="5" t="s">
         <v>65</v>
@@ -19166,7 +18957,7 @@
         <v>1261</v>
       </c>
       <c r="L266" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M266" s="5">
         <v>1</v>
@@ -19184,7 +18975,7 @@
         <v>0</v>
       </c>
       <c r="R266" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S266" s="5">
         <v>0</v>
@@ -19229,7 +19020,7 @@
         <v>1262</v>
       </c>
       <c r="L267" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M267" s="5">
         <v>1</v>
@@ -19247,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="R267" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S267" s="5">
         <v>0</v>
@@ -19292,7 +19083,7 @@
         <v>1263</v>
       </c>
       <c r="L268" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M268" s="5">
         <v>1</v>
@@ -19310,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="R268" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S268" s="5">
         <v>0</v>
@@ -19355,7 +19146,7 @@
         <v>1264</v>
       </c>
       <c r="L269" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M269" s="5">
         <v>1</v>
@@ -19373,7 +19164,7 @@
         <v>0</v>
       </c>
       <c r="R269" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S269" s="5">
         <v>0</v>
@@ -19418,7 +19209,7 @@
         <v>1265</v>
       </c>
       <c r="L270" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M270" s="5">
         <v>1</v>
@@ -19436,7 +19227,7 @@
         <v>0</v>
       </c>
       <c r="R270" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S270" s="5">
         <v>0</v>
@@ -19463,9 +19254,7 @@
       <c r="AA270" s="5">
         <v>20</v>
       </c>
-      <c r="AB270" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB270" s="5"/>
       <c r="AC270" s="5"/>
     </row>
     <row r="271" spans="1:29">
@@ -19483,7 +19272,7 @@
         <v>1266</v>
       </c>
       <c r="L271" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M271" s="5">
         <v>1</v>
@@ -19501,7 +19290,7 @@
         <v>0</v>
       </c>
       <c r="R271" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S271" s="5">
         <v>0</v>
@@ -19528,9 +19317,7 @@
       <c r="AA271" s="5">
         <v>20</v>
       </c>
-      <c r="AB271" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB271" s="5"/>
       <c r="AC271" s="5"/>
     </row>
     <row r="272" spans="1:29">
@@ -19548,7 +19335,7 @@
         <v>1267</v>
       </c>
       <c r="L272" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M272" s="5">
         <v>1</v>
@@ -19566,7 +19353,7 @@
         <v>0</v>
       </c>
       <c r="R272" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S272" s="5">
         <v>0</v>
@@ -19593,9 +19380,7 @@
       <c r="AA272" s="5">
         <v>20</v>
       </c>
-      <c r="AB272" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB272" s="5"/>
       <c r="AC272" s="5"/>
     </row>
     <row r="273" spans="1:29">
@@ -19613,7 +19398,7 @@
         <v>1268</v>
       </c>
       <c r="L273" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M273" s="5">
         <v>1</v>
@@ -19631,7 +19416,7 @@
         <v>0</v>
       </c>
       <c r="R273" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S273" s="5">
         <v>0</v>
@@ -19658,9 +19443,7 @@
       <c r="AA273" s="5">
         <v>20</v>
       </c>
-      <c r="AB273" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB273" s="5"/>
       <c r="AC273" s="5"/>
     </row>
     <row r="274" spans="1:29">
@@ -19678,7 +19461,7 @@
         <v>1269</v>
       </c>
       <c r="L274" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M274" s="5">
         <v>1</v>
@@ -19696,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="R274" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S274" s="5">
         <v>0</v>
@@ -19723,9 +19506,7 @@
       <c r="AA274" s="5">
         <v>20</v>
       </c>
-      <c r="AB274" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB274" s="5"/>
       <c r="AC274" s="5"/>
     </row>
     <row r="275" spans="1:29">
@@ -19743,7 +19524,7 @@
         <v>1270</v>
       </c>
       <c r="L275" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M275" s="5">
         <v>1</v>
@@ -19761,7 +19542,7 @@
         <v>0</v>
       </c>
       <c r="R275" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S275" s="5">
         <v>0</v>
@@ -19788,9 +19569,7 @@
       <c r="AA275" s="5">
         <v>20</v>
       </c>
-      <c r="AB275" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB275" s="5"/>
       <c r="AC275" s="5"/>
     </row>
     <row r="276" spans="1:29">
@@ -19808,7 +19587,7 @@
         <v>1271</v>
       </c>
       <c r="L276" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M276" s="5">
         <v>1</v>
@@ -19826,7 +19605,7 @@
         <v>0</v>
       </c>
       <c r="R276" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S276" s="5">
         <v>0</v>
@@ -19871,7 +19650,7 @@
         <v>1272</v>
       </c>
       <c r="L277" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M277" s="5">
         <v>1</v>
@@ -19889,7 +19668,7 @@
         <v>0</v>
       </c>
       <c r="R277" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S277" s="5">
         <v>0</v>
@@ -19922,13 +19701,13 @@
     <row r="278" spans="1:29">
       <c r="A278" s="5"/>
       <c r="B278" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C278" s="5">
         <v>33</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E278" s="5" t="s">
         <v>65</v>
@@ -19952,7 +19731,7 @@
         <v>1273</v>
       </c>
       <c r="L278" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M278" s="5">
         <v>1</v>
@@ -19970,7 +19749,7 @@
         <v>0</v>
       </c>
       <c r="R278" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S278" s="5">
         <v>0</v>
@@ -20015,7 +19794,7 @@
         <v>1274</v>
       </c>
       <c r="L279" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M279" s="5">
         <v>1</v>
@@ -20033,7 +19812,7 @@
         <v>0</v>
       </c>
       <c r="R279" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S279" s="5">
         <v>0</v>
@@ -20078,7 +19857,7 @@
         <v>1275</v>
       </c>
       <c r="L280" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M280" s="5">
         <v>1</v>
@@ -20096,7 +19875,7 @@
         <v>0</v>
       </c>
       <c r="R280" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S280" s="5">
         <v>0</v>
@@ -20141,7 +19920,7 @@
         <v>1276</v>
       </c>
       <c r="L281" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M281" s="5">
         <v>1</v>
@@ -20159,7 +19938,7 @@
         <v>0</v>
       </c>
       <c r="R281" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S281" s="5">
         <v>0</v>
@@ -20204,7 +19983,7 @@
         <v>1277</v>
       </c>
       <c r="L282" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M282" s="5">
         <v>1</v>
@@ -20222,7 +20001,7 @@
         <v>0</v>
       </c>
       <c r="R282" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S282" s="5">
         <v>0</v>
@@ -20267,7 +20046,7 @@
         <v>1278</v>
       </c>
       <c r="L283" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M283" s="5">
         <v>1</v>
@@ -20285,7 +20064,7 @@
         <v>0</v>
       </c>
       <c r="R283" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S283" s="5">
         <v>0</v>
@@ -20312,9 +20091,7 @@
       <c r="AA283" s="5">
         <v>20</v>
       </c>
-      <c r="AB283" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB283" s="5"/>
       <c r="AC283" s="5"/>
     </row>
     <row r="284" spans="1:29">
@@ -20332,7 +20109,7 @@
         <v>1279</v>
       </c>
       <c r="L284" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M284" s="5">
         <v>1</v>
@@ -20350,7 +20127,7 @@
         <v>0</v>
       </c>
       <c r="R284" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S284" s="5">
         <v>0</v>
@@ -20377,9 +20154,7 @@
       <c r="AA284" s="5">
         <v>20</v>
       </c>
-      <c r="AB284" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB284" s="5"/>
       <c r="AC284" s="5"/>
     </row>
     <row r="285" spans="1:29">
@@ -20397,7 +20172,7 @@
         <v>1280</v>
       </c>
       <c r="L285" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M285" s="5">
         <v>1</v>
@@ -20415,7 +20190,7 @@
         <v>0</v>
       </c>
       <c r="R285" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S285" s="5">
         <v>0</v>
@@ -20442,9 +20217,7 @@
       <c r="AA285" s="5">
         <v>20</v>
       </c>
-      <c r="AB285" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB285" s="5"/>
       <c r="AC285" s="5"/>
     </row>
     <row r="286" spans="1:29">
@@ -20462,7 +20235,7 @@
         <v>1281</v>
       </c>
       <c r="L286" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M286" s="5">
         <v>1</v>
@@ -20480,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="R286" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S286" s="5">
         <v>0</v>
@@ -20507,9 +20280,7 @@
       <c r="AA286" s="5">
         <v>20</v>
       </c>
-      <c r="AB286" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB286" s="5"/>
       <c r="AC286" s="5"/>
     </row>
     <row r="287" spans="1:29">
@@ -20527,7 +20298,7 @@
         <v>1282</v>
       </c>
       <c r="L287" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M287" s="5">
         <v>1</v>
@@ -20545,7 +20316,7 @@
         <v>0</v>
       </c>
       <c r="R287" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S287" s="5">
         <v>0</v>
@@ -20572,9 +20343,7 @@
       <c r="AA287" s="5">
         <v>20</v>
       </c>
-      <c r="AB287" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB287" s="5"/>
       <c r="AC287" s="5"/>
     </row>
     <row r="288" spans="1:29">
@@ -20592,7 +20361,7 @@
         <v>1283</v>
       </c>
       <c r="L288" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M288" s="5">
         <v>1</v>
@@ -20610,7 +20379,7 @@
         <v>0</v>
       </c>
       <c r="R288" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S288" s="5">
         <v>0</v>
@@ -20637,9 +20406,7 @@
       <c r="AA288" s="5">
         <v>20</v>
       </c>
-      <c r="AB288" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB288" s="5"/>
       <c r="AC288" s="5"/>
     </row>
     <row r="289" spans="1:29">
@@ -20657,7 +20424,7 @@
         <v>1284</v>
       </c>
       <c r="L289" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M289" s="5">
         <v>1</v>
@@ -20675,7 +20442,7 @@
         <v>0</v>
       </c>
       <c r="R289" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S289" s="5">
         <v>0</v>
@@ -20708,13 +20475,13 @@
     <row r="290" spans="1:29">
       <c r="A290" s="5"/>
       <c r="B290" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C290" s="5">
         <v>34</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E290" s="5" t="s">
         <v>65</v>
@@ -20738,7 +20505,7 @@
         <v>1285</v>
       </c>
       <c r="L290" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M290" s="5">
         <v>1</v>
@@ -20756,7 +20523,7 @@
         <v>0</v>
       </c>
       <c r="R290" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S290" s="5">
         <v>0</v>
@@ -20801,7 +20568,7 @@
         <v>1286</v>
       </c>
       <c r="L291" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M291" s="5">
         <v>1</v>
@@ -20819,7 +20586,7 @@
         <v>0</v>
       </c>
       <c r="R291" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S291" s="5">
         <v>0</v>
@@ -20864,7 +20631,7 @@
         <v>1287</v>
       </c>
       <c r="L292" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M292" s="5">
         <v>1</v>
@@ -20882,7 +20649,7 @@
         <v>0</v>
       </c>
       <c r="R292" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S292" s="5">
         <v>0</v>
@@ -20927,7 +20694,7 @@
         <v>1288</v>
       </c>
       <c r="L293" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M293" s="5">
         <v>1</v>
@@ -20945,7 +20712,7 @@
         <v>0</v>
       </c>
       <c r="R293" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S293" s="5">
         <v>0</v>
@@ -20990,7 +20757,7 @@
         <v>1289</v>
       </c>
       <c r="L294" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M294" s="5">
         <v>1</v>
@@ -21008,7 +20775,7 @@
         <v>0</v>
       </c>
       <c r="R294" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S294" s="5">
         <v>0</v>
@@ -21053,7 +20820,7 @@
         <v>1290</v>
       </c>
       <c r="L295" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M295" s="5">
         <v>1</v>
@@ -21071,7 +20838,7 @@
         <v>0</v>
       </c>
       <c r="R295" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S295" s="5">
         <v>0</v>
@@ -21116,7 +20883,7 @@
         <v>1291</v>
       </c>
       <c r="L296" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M296" s="5">
         <v>1</v>
@@ -21134,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="R296" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S296" s="5">
         <v>0</v>
@@ -21161,9 +20928,7 @@
       <c r="AA296" s="5">
         <v>20</v>
       </c>
-      <c r="AB296" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB296" s="5"/>
       <c r="AC296" s="5"/>
     </row>
     <row r="297" spans="1:29">
@@ -21181,7 +20946,7 @@
         <v>1292</v>
       </c>
       <c r="L297" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M297" s="5">
         <v>1</v>
@@ -21199,7 +20964,7 @@
         <v>0</v>
       </c>
       <c r="R297" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S297" s="5">
         <v>0</v>
@@ -21226,9 +20991,7 @@
       <c r="AA297" s="5">
         <v>20</v>
       </c>
-      <c r="AB297" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB297" s="5"/>
       <c r="AC297" s="5"/>
     </row>
     <row r="298" spans="1:29">
@@ -21246,7 +21009,7 @@
         <v>1293</v>
       </c>
       <c r="L298" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M298" s="5">
         <v>1</v>
@@ -21264,7 +21027,7 @@
         <v>0</v>
       </c>
       <c r="R298" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S298" s="5">
         <v>0</v>
@@ -21291,9 +21054,7 @@
       <c r="AA298" s="5">
         <v>20</v>
       </c>
-      <c r="AB298" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB298" s="5"/>
       <c r="AC298" s="5"/>
     </row>
     <row r="299" spans="1:29">
@@ -21311,7 +21072,7 @@
         <v>1294</v>
       </c>
       <c r="L299" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M299" s="5">
         <v>1</v>
@@ -21329,7 +21090,7 @@
         <v>0</v>
       </c>
       <c r="R299" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S299" s="5">
         <v>0</v>
@@ -21356,9 +21117,7 @@
       <c r="AA299" s="5">
         <v>20</v>
       </c>
-      <c r="AB299" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB299" s="5"/>
       <c r="AC299" s="5"/>
     </row>
     <row r="300" spans="1:29">
@@ -21376,7 +21135,7 @@
         <v>1295</v>
       </c>
       <c r="L300" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M300" s="5">
         <v>1</v>
@@ -21394,7 +21153,7 @@
         <v>0</v>
       </c>
       <c r="R300" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S300" s="5">
         <v>0</v>
@@ -21421,9 +21180,7 @@
       <c r="AA300" s="5">
         <v>20</v>
       </c>
-      <c r="AB300" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB300" s="5"/>
       <c r="AC300" s="5"/>
     </row>
     <row r="301" spans="1:29">
@@ -21441,7 +21198,7 @@
         <v>1296</v>
       </c>
       <c r="L301" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M301" s="5">
         <v>1</v>
@@ -21459,7 +21216,7 @@
         <v>0</v>
       </c>
       <c r="R301" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S301" s="5">
         <v>0</v>
@@ -21486,21 +21243,19 @@
       <c r="AA301" s="5">
         <v>20</v>
       </c>
-      <c r="AB301" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB301" s="5"/>
       <c r="AC301" s="5"/>
     </row>
     <row r="302" spans="1:29">
       <c r="A302" s="5"/>
       <c r="B302" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C302" s="5">
         <v>35</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E302" s="5" t="s">
         <v>65</v>
@@ -21524,7 +21279,7 @@
         <v>1297</v>
       </c>
       <c r="L302" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M302" s="5">
         <v>1</v>
@@ -21542,7 +21297,7 @@
         <v>0</v>
       </c>
       <c r="R302" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S302" s="5">
         <v>0</v>
@@ -21587,7 +21342,7 @@
         <v>1298</v>
       </c>
       <c r="L303" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M303" s="5">
         <v>1</v>
@@ -21605,7 +21360,7 @@
         <v>0</v>
       </c>
       <c r="R303" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S303" s="5">
         <v>0</v>
@@ -21650,7 +21405,7 @@
         <v>1299</v>
       </c>
       <c r="L304" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M304" s="5">
         <v>1</v>
@@ -21668,7 +21423,7 @@
         <v>0</v>
       </c>
       <c r="R304" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S304" s="5">
         <v>0</v>
@@ -21713,7 +21468,7 @@
         <v>1300</v>
       </c>
       <c r="L305" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M305" s="5">
         <v>1</v>
@@ -21731,7 +21486,7 @@
         <v>0</v>
       </c>
       <c r="R305" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S305" s="5">
         <v>0</v>
@@ -21776,7 +21531,7 @@
         <v>1301</v>
       </c>
       <c r="L306" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M306" s="5">
         <v>1</v>
@@ -21794,7 +21549,7 @@
         <v>0</v>
       </c>
       <c r="R306" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S306" s="5">
         <v>0</v>
@@ -21839,7 +21594,7 @@
         <v>1302</v>
       </c>
       <c r="L307" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M307" s="5">
         <v>1</v>
@@ -21857,7 +21612,7 @@
         <v>0</v>
       </c>
       <c r="R307" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S307" s="5">
         <v>0</v>
@@ -21902,7 +21657,7 @@
         <v>1303</v>
       </c>
       <c r="L308" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M308" s="5">
         <v>1</v>
@@ -21920,7 +21675,7 @@
         <v>0</v>
       </c>
       <c r="R308" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S308" s="5">
         <v>0</v>
@@ -21965,7 +21720,7 @@
         <v>1304</v>
       </c>
       <c r="L309" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M309" s="5">
         <v>1</v>
@@ -21983,7 +21738,7 @@
         <v>0</v>
       </c>
       <c r="R309" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S309" s="5">
         <v>0</v>
@@ -22010,9 +21765,7 @@
       <c r="AA309" s="5">
         <v>20</v>
       </c>
-      <c r="AB309" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB309" s="5"/>
       <c r="AC309" s="5"/>
     </row>
     <row r="310" spans="1:29">
@@ -22030,7 +21783,7 @@
         <v>1305</v>
       </c>
       <c r="L310" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M310" s="5">
         <v>1</v>
@@ -22048,7 +21801,7 @@
         <v>0</v>
       </c>
       <c r="R310" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S310" s="5">
         <v>0</v>
@@ -22075,9 +21828,7 @@
       <c r="AA310" s="5">
         <v>20</v>
       </c>
-      <c r="AB310" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB310" s="5"/>
       <c r="AC310" s="5"/>
     </row>
     <row r="311" spans="1:29">
@@ -22095,7 +21846,7 @@
         <v>1306</v>
       </c>
       <c r="L311" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M311" s="5">
         <v>1</v>
@@ -22113,7 +21864,7 @@
         <v>0</v>
       </c>
       <c r="R311" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S311" s="5">
         <v>0</v>
@@ -22140,9 +21891,7 @@
       <c r="AA311" s="5">
         <v>20</v>
       </c>
-      <c r="AB311" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB311" s="5"/>
       <c r="AC311" s="5"/>
     </row>
     <row r="312" spans="1:29">
@@ -22160,7 +21909,7 @@
         <v>1307</v>
       </c>
       <c r="L312" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M312" s="5">
         <v>1</v>
@@ -22178,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="R312" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S312" s="5">
         <v>0</v>
@@ -22205,9 +21954,7 @@
       <c r="AA312" s="5">
         <v>20</v>
       </c>
-      <c r="AB312" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB312" s="5"/>
       <c r="AC312" s="5"/>
     </row>
     <row r="313" spans="1:29">
@@ -22225,7 +21972,7 @@
         <v>1308</v>
       </c>
       <c r="L313" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M313" s="5">
         <v>1</v>
@@ -22243,7 +21990,7 @@
         <v>0</v>
       </c>
       <c r="R313" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S313" s="5">
         <v>0</v>
@@ -22270,21 +22017,19 @@
       <c r="AA313" s="5">
         <v>20</v>
       </c>
-      <c r="AB313" s="5">
-        <v>2</v>
-      </c>
+      <c r="AB313" s="5"/>
       <c r="AC313" s="5"/>
     </row>
     <row r="314" spans="1:29">
       <c r="A314" s="5"/>
       <c r="B314" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C314" s="5">
         <v>36</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E314" s="5" t="s">
         <v>65</v>
@@ -22308,7 +22053,7 @@
         <v>1309</v>
       </c>
       <c r="L314" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M314" s="5">
         <v>1</v>
@@ -22326,7 +22071,7 @@
         <v>0</v>
       </c>
       <c r="R314" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S314" s="5">
         <v>0</v>
@@ -22353,9 +22098,7 @@
       <c r="AA314" s="5">
         <v>20</v>
       </c>
-      <c r="AB314" s="5">
-        <v>3</v>
-      </c>
+      <c r="AB314" s="5"/>
       <c r="AC314" s="5"/>
     </row>
     <row r="315" spans="1:29">
@@ -22372,7 +22115,7 @@
         <v>1310</v>
       </c>
       <c r="L315" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M315" s="5">
         <v>1</v>
@@ -22390,7 +22133,7 @@
         <v>0</v>
       </c>
       <c r="R315" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S315" s="5">
         <v>0</v>
@@ -22434,7 +22177,7 @@
         <v>1311</v>
       </c>
       <c r="L316" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M316" s="5">
         <v>1</v>
@@ -22452,7 +22195,7 @@
         <v>0</v>
       </c>
       <c r="R316" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S316" s="5">
         <v>0</v>
@@ -22496,7 +22239,7 @@
         <v>1312</v>
       </c>
       <c r="L317" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M317" s="5">
         <v>1</v>
@@ -22514,7 +22257,7 @@
         <v>0</v>
       </c>
       <c r="R317" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S317" s="5">
         <v>0</v>
@@ -22558,7 +22301,7 @@
         <v>1313</v>
       </c>
       <c r="L318" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M318" s="5">
         <v>1</v>
@@ -22576,7 +22319,7 @@
         <v>0</v>
       </c>
       <c r="R318" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S318" s="5">
         <v>0</v>
@@ -22620,7 +22363,7 @@
         <v>1314</v>
       </c>
       <c r="L319" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M319" s="5">
         <v>1</v>
@@ -22638,7 +22381,7 @@
         <v>0</v>
       </c>
       <c r="R319" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S319" s="5">
         <v>0</v>
@@ -22673,7 +22416,7 @@
         <v>1315</v>
       </c>
       <c r="L320" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M320" s="5">
         <v>1</v>
@@ -22691,7 +22434,7 @@
         <v>0</v>
       </c>
       <c r="R320" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S320" s="5">
         <v>0</v>
@@ -22725,7 +22468,7 @@
         <v>1316</v>
       </c>
       <c r="L321" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M321" s="5">
         <v>1</v>
@@ -22743,7 +22486,7 @@
         <v>0</v>
       </c>
       <c r="R321" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S321" s="5">
         <v>0</v>
@@ -22777,7 +22520,7 @@
         <v>1317</v>
       </c>
       <c r="L322" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M322" s="5">
         <v>1</v>
@@ -22795,7 +22538,7 @@
         <v>0</v>
       </c>
       <c r="R322" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S322" s="5">
         <v>0</v>
@@ -22822,16 +22565,14 @@
       <c r="AA322" s="5">
         <v>20</v>
       </c>
-      <c r="AB322" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB322" s="5"/>
     </row>
     <row r="323" spans="11:28">
       <c r="K323" s="5">
         <v>1318</v>
       </c>
       <c r="L323" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M323" s="5">
         <v>1</v>
@@ -22849,7 +22590,7 @@
         <v>0</v>
       </c>
       <c r="R323" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S323" s="5">
         <v>0</v>
@@ -22876,16 +22617,14 @@
       <c r="AA323" s="5">
         <v>20</v>
       </c>
-      <c r="AB323" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB323" s="5"/>
     </row>
     <row r="324" spans="11:28">
       <c r="K324" s="5">
         <v>1319</v>
       </c>
       <c r="L324" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M324" s="5">
         <v>1</v>
@@ -22903,7 +22642,7 @@
         <v>0</v>
       </c>
       <c r="R324" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S324" s="5">
         <v>0</v>
@@ -22930,16 +22669,14 @@
       <c r="AA324" s="5">
         <v>20</v>
       </c>
-      <c r="AB324" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB324" s="5"/>
     </row>
     <row r="325" spans="11:28">
       <c r="K325" s="5">
         <v>1320</v>
       </c>
       <c r="L325" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M325" s="5">
         <v>1</v>
@@ -22957,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="R325" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S325" s="5">
         <v>0</v>
@@ -22984,19 +22721,17 @@
       <c r="AA325" s="5">
         <v>20</v>
       </c>
-      <c r="AB325" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB325" s="5"/>
     </row>
     <row r="326" spans="2:28">
       <c r="B326" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C326" s="5">
         <v>37</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E326" s="5" t="s">
         <v>65</v>
@@ -23020,7 +22755,7 @@
         <v>1321</v>
       </c>
       <c r="L326" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M326" s="5">
         <v>1</v>
@@ -23038,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="R326" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S326" s="5">
         <v>0</v>
@@ -23065,16 +22800,14 @@
       <c r="AA326" s="5">
         <v>20</v>
       </c>
-      <c r="AB326" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB326" s="5"/>
     </row>
     <row r="327" spans="11:28">
       <c r="K327" s="5">
         <v>1322</v>
       </c>
       <c r="L327" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M327" s="5">
         <v>1</v>
@@ -23092,7 +22825,7 @@
         <v>0</v>
       </c>
       <c r="R327" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S327" s="5">
         <v>0</v>
@@ -23119,16 +22852,14 @@
       <c r="AA327" s="5">
         <v>20</v>
       </c>
-      <c r="AB327" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB327" s="5"/>
     </row>
     <row r="328" spans="11:28">
       <c r="K328" s="5">
         <v>1323</v>
       </c>
       <c r="L328" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M328" s="5">
         <v>1</v>
@@ -23146,7 +22877,7 @@
         <v>0</v>
       </c>
       <c r="R328" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S328" s="5">
         <v>0</v>
@@ -23173,16 +22904,14 @@
       <c r="AA328" s="5">
         <v>20</v>
       </c>
-      <c r="AB328" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB328" s="5"/>
     </row>
     <row r="329" spans="11:28">
       <c r="K329" s="5">
         <v>1324</v>
       </c>
       <c r="L329" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M329" s="5">
         <v>1</v>
@@ -23200,7 +22929,7 @@
         <v>0</v>
       </c>
       <c r="R329" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S329" s="5">
         <v>0</v>
@@ -23227,16 +22956,14 @@
       <c r="AA329" s="5">
         <v>20</v>
       </c>
-      <c r="AB329" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB329" s="5"/>
     </row>
     <row r="330" spans="11:28">
       <c r="K330" s="5">
         <v>1325</v>
       </c>
       <c r="L330" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M330" s="5">
         <v>1</v>
@@ -23254,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="R330" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S330" s="5">
         <v>0</v>
@@ -23281,16 +23008,14 @@
       <c r="AA330" s="5">
         <v>20</v>
       </c>
-      <c r="AB330" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB330" s="5"/>
     </row>
     <row r="331" spans="11:28">
       <c r="K331" s="5">
         <v>1326</v>
       </c>
       <c r="L331" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M331" s="5">
         <v>1</v>
@@ -23308,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="R331" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S331" s="5">
         <v>0</v>
@@ -23335,16 +23060,14 @@
       <c r="AA331" s="5">
         <v>20</v>
       </c>
-      <c r="AB331" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB331" s="5"/>
     </row>
     <row r="332" spans="11:28">
       <c r="K332" s="5">
         <v>1327</v>
       </c>
       <c r="L332" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M332" s="5">
         <v>1</v>
@@ -23362,7 +23085,7 @@
         <v>0</v>
       </c>
       <c r="R332" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S332" s="5">
         <v>0</v>
@@ -23389,16 +23112,14 @@
       <c r="AA332" s="5">
         <v>20</v>
       </c>
-      <c r="AB332" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB332" s="5"/>
     </row>
     <row r="333" spans="11:28">
       <c r="K333" s="5">
         <v>1328</v>
       </c>
       <c r="L333" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M333" s="5">
         <v>1</v>
@@ -23416,7 +23137,7 @@
         <v>0</v>
       </c>
       <c r="R333" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S333" s="5">
         <v>0</v>
@@ -23443,16 +23164,14 @@
       <c r="AA333" s="5">
         <v>20</v>
       </c>
-      <c r="AB333" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB333" s="5"/>
     </row>
     <row r="334" spans="11:28">
       <c r="K334" s="5">
         <v>1329</v>
       </c>
       <c r="L334" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M334" s="5">
         <v>1</v>
@@ -23470,7 +23189,7 @@
         <v>0</v>
       </c>
       <c r="R334" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S334" s="5">
         <v>0</v>
@@ -23497,16 +23216,14 @@
       <c r="AA334" s="5">
         <v>20</v>
       </c>
-      <c r="AB334" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB334" s="5"/>
     </row>
     <row r="335" spans="11:28">
       <c r="K335" s="5">
         <v>1330</v>
       </c>
       <c r="L335" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M335" s="5">
         <v>1</v>
@@ -23524,7 +23241,7 @@
         <v>0</v>
       </c>
       <c r="R335" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S335" s="5">
         <v>0</v>
@@ -23551,16 +23268,14 @@
       <c r="AA335" s="5">
         <v>20</v>
       </c>
-      <c r="AB335" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB335" s="5"/>
     </row>
     <row r="336" spans="11:28">
       <c r="K336" s="5">
         <v>1331</v>
       </c>
       <c r="L336" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M336" s="5">
         <v>1</v>
@@ -23578,7 +23293,7 @@
         <v>0</v>
       </c>
       <c r="R336" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S336" s="5">
         <v>0</v>
@@ -23605,16 +23320,14 @@
       <c r="AA336" s="5">
         <v>20</v>
       </c>
-      <c r="AB336" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB336" s="5"/>
     </row>
     <row r="337" spans="11:28">
       <c r="K337" s="5">
         <v>1332</v>
       </c>
       <c r="L337" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M337" s="5">
         <v>1</v>
@@ -23632,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="R337" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S337" s="5">
         <v>0</v>
@@ -23659,19 +23372,17 @@
       <c r="AA337" s="5">
         <v>20</v>
       </c>
-      <c r="AB337" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB337" s="5"/>
     </row>
     <row r="338" spans="2:28">
       <c r="B338" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C338" s="5">
         <v>38</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E338" s="5" t="s">
         <v>65</v>
@@ -23695,7 +23406,7 @@
         <v>1333</v>
       </c>
       <c r="L338" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M338" s="5">
         <v>1</v>
@@ -23713,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="R338" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S338" s="5">
         <v>0</v>
@@ -23740,16 +23451,14 @@
       <c r="AA338" s="5">
         <v>20</v>
       </c>
-      <c r="AB338" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB338" s="5"/>
     </row>
     <row r="339" spans="11:28">
       <c r="K339" s="5">
         <v>1334</v>
       </c>
       <c r="L339" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M339" s="5">
         <v>1</v>
@@ -23767,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="R339" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S339" s="5">
         <v>0</v>
@@ -23794,16 +23503,14 @@
       <c r="AA339" s="5">
         <v>20</v>
       </c>
-      <c r="AB339" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB339" s="5"/>
     </row>
     <row r="340" spans="11:28">
       <c r="K340" s="5">
         <v>1335</v>
       </c>
       <c r="L340" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M340" s="5">
         <v>1</v>
@@ -23821,7 +23528,7 @@
         <v>0</v>
       </c>
       <c r="R340" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S340" s="5">
         <v>0</v>
@@ -23848,16 +23555,14 @@
       <c r="AA340" s="5">
         <v>20</v>
       </c>
-      <c r="AB340" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB340" s="5"/>
     </row>
     <row r="341" spans="11:28">
       <c r="K341" s="5">
         <v>1336</v>
       </c>
       <c r="L341" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M341" s="5">
         <v>1</v>
@@ -23875,7 +23580,7 @@
         <v>0</v>
       </c>
       <c r="R341" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S341" s="5">
         <v>0</v>
@@ -23902,16 +23607,14 @@
       <c r="AA341" s="5">
         <v>20</v>
       </c>
-      <c r="AB341" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB341" s="5"/>
     </row>
     <row r="342" spans="11:28">
       <c r="K342" s="5">
         <v>1337</v>
       </c>
       <c r="L342" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M342" s="5">
         <v>1</v>
@@ -23929,7 +23632,7 @@
         <v>0</v>
       </c>
       <c r="R342" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S342" s="5">
         <v>0</v>
@@ -23956,16 +23659,14 @@
       <c r="AA342" s="5">
         <v>20</v>
       </c>
-      <c r="AB342" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB342" s="5"/>
     </row>
     <row r="343" spans="11:28">
       <c r="K343" s="5">
         <v>1338</v>
       </c>
       <c r="L343" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M343" s="5">
         <v>1</v>
@@ -23983,7 +23684,7 @@
         <v>0</v>
       </c>
       <c r="R343" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S343" s="5">
         <v>0</v>
@@ -24010,16 +23711,14 @@
       <c r="AA343" s="5">
         <v>20</v>
       </c>
-      <c r="AB343" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB343" s="5"/>
     </row>
     <row r="344" spans="11:28">
       <c r="K344" s="5">
         <v>1339</v>
       </c>
       <c r="L344" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M344" s="5">
         <v>1</v>
@@ -24037,7 +23736,7 @@
         <v>0</v>
       </c>
       <c r="R344" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S344" s="5">
         <v>0</v>
@@ -24064,16 +23763,14 @@
       <c r="AA344" s="5">
         <v>20</v>
       </c>
-      <c r="AB344" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB344" s="5"/>
     </row>
     <row r="345" spans="11:28">
       <c r="K345" s="5">
         <v>1340</v>
       </c>
       <c r="L345" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M345" s="5">
         <v>1</v>
@@ -24091,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="R345" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S345" s="5">
         <v>0</v>
@@ -24118,16 +23815,14 @@
       <c r="AA345" s="5">
         <v>20</v>
       </c>
-      <c r="AB345" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB345" s="5"/>
     </row>
     <row r="346" spans="11:28">
       <c r="K346" s="5">
         <v>1341</v>
       </c>
       <c r="L346" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M346" s="5">
         <v>1</v>
@@ -24145,7 +23840,7 @@
         <v>0</v>
       </c>
       <c r="R346" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S346" s="5">
         <v>0</v>
@@ -24172,16 +23867,14 @@
       <c r="AA346" s="5">
         <v>20</v>
       </c>
-      <c r="AB346" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB346" s="5"/>
     </row>
     <row r="347" spans="11:28">
       <c r="K347" s="5">
         <v>1342</v>
       </c>
       <c r="L347" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M347" s="5">
         <v>1</v>
@@ -24199,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="R347" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S347" s="5">
         <v>0</v>
@@ -24226,16 +23919,14 @@
       <c r="AA347" s="5">
         <v>20</v>
       </c>
-      <c r="AB347" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB347" s="5"/>
     </row>
     <row r="348" spans="11:28">
       <c r="K348" s="5">
         <v>1343</v>
       </c>
       <c r="L348" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M348" s="5">
         <v>1</v>
@@ -24253,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="R348" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S348" s="5">
         <v>0</v>
@@ -24280,16 +23971,14 @@
       <c r="AA348" s="5">
         <v>20</v>
       </c>
-      <c r="AB348" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB348" s="5"/>
     </row>
     <row r="349" spans="11:28">
       <c r="K349" s="5">
         <v>1344</v>
       </c>
       <c r="L349" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M349" s="5">
         <v>1</v>
@@ -24307,7 +23996,7 @@
         <v>0</v>
       </c>
       <c r="R349" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S349" s="5">
         <v>0</v>
@@ -24334,19 +24023,17 @@
       <c r="AA349" s="5">
         <v>20</v>
       </c>
-      <c r="AB349" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB349" s="5"/>
     </row>
     <row r="350" spans="2:28">
       <c r="B350" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C350" s="5">
         <v>39</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E350" s="5" t="s">
         <v>65</v>
@@ -24370,7 +24057,7 @@
         <v>1345</v>
       </c>
       <c r="L350" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M350" s="5">
         <v>1</v>
@@ -24388,7 +24075,7 @@
         <v>0</v>
       </c>
       <c r="R350" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S350" s="5">
         <v>0</v>
@@ -24415,9 +24102,7 @@
       <c r="AA350" s="5">
         <v>20</v>
       </c>
-      <c r="AB350" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB350" s="5"/>
     </row>
     <row r="351" spans="2:28">
       <c r="B351" s="5"/>
@@ -24425,7 +24110,7 @@
         <v>1346</v>
       </c>
       <c r="L351" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M351" s="5">
         <v>1</v>
@@ -24443,7 +24128,7 @@
         <v>0</v>
       </c>
       <c r="R351" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S351" s="5">
         <v>0</v>
@@ -24470,16 +24155,14 @@
       <c r="AA351" s="5">
         <v>20</v>
       </c>
-      <c r="AB351" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB351" s="5"/>
     </row>
     <row r="352" spans="11:28">
       <c r="K352" s="5">
         <v>1347</v>
       </c>
       <c r="L352" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M352" s="5">
         <v>1</v>
@@ -24497,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="R352" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S352" s="5">
         <v>0</v>
@@ -24524,16 +24207,14 @@
       <c r="AA352" s="5">
         <v>20</v>
       </c>
-      <c r="AB352" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB352" s="5"/>
     </row>
     <row r="353" spans="11:28">
       <c r="K353" s="5">
         <v>1348</v>
       </c>
       <c r="L353" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M353" s="5">
         <v>1</v>
@@ -24551,7 +24232,7 @@
         <v>0</v>
       </c>
       <c r="R353" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S353" s="5">
         <v>0</v>
@@ -24578,16 +24259,14 @@
       <c r="AA353" s="5">
         <v>20</v>
       </c>
-      <c r="AB353" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB353" s="5"/>
     </row>
     <row r="354" spans="11:28">
       <c r="K354" s="5">
         <v>1349</v>
       </c>
       <c r="L354" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M354" s="5">
         <v>1</v>
@@ -24605,7 +24284,7 @@
         <v>0</v>
       </c>
       <c r="R354" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S354" s="5">
         <v>0</v>
@@ -24632,16 +24311,14 @@
       <c r="AA354" s="5">
         <v>20</v>
       </c>
-      <c r="AB354" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB354" s="5"/>
     </row>
     <row r="355" spans="11:28">
       <c r="K355" s="5">
         <v>1350</v>
       </c>
       <c r="L355" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M355" s="5">
         <v>1</v>
@@ -24659,7 +24336,7 @@
         <v>0</v>
       </c>
       <c r="R355" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S355" s="5">
         <v>0</v>
@@ -24686,16 +24363,14 @@
       <c r="AA355" s="5">
         <v>20</v>
       </c>
-      <c r="AB355" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB355" s="5"/>
     </row>
     <row r="356" spans="11:28">
       <c r="K356" s="5">
         <v>1351</v>
       </c>
       <c r="L356" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M356" s="5">
         <v>1</v>
@@ -24713,7 +24388,7 @@
         <v>0</v>
       </c>
       <c r="R356" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S356" s="5">
         <v>0</v>
@@ -24740,16 +24415,14 @@
       <c r="AA356" s="5">
         <v>20</v>
       </c>
-      <c r="AB356" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB356" s="5"/>
     </row>
     <row r="357" spans="11:28">
       <c r="K357" s="5">
         <v>1352</v>
       </c>
       <c r="L357" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M357" s="5">
         <v>1</v>
@@ -24767,7 +24440,7 @@
         <v>0</v>
       </c>
       <c r="R357" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S357" s="5">
         <v>0</v>
@@ -24794,16 +24467,14 @@
       <c r="AA357" s="5">
         <v>20</v>
       </c>
-      <c r="AB357" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB357" s="5"/>
     </row>
     <row r="358" spans="11:28">
       <c r="K358" s="5">
         <v>1353</v>
       </c>
       <c r="L358" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M358" s="5">
         <v>1</v>
@@ -24821,7 +24492,7 @@
         <v>0</v>
       </c>
       <c r="R358" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S358" s="5">
         <v>0</v>
@@ -24848,16 +24519,14 @@
       <c r="AA358" s="5">
         <v>20</v>
       </c>
-      <c r="AB358" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB358" s="5"/>
     </row>
     <row r="359" spans="11:28">
       <c r="K359" s="5">
         <v>1354</v>
       </c>
       <c r="L359" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M359" s="5">
         <v>1</v>
@@ -24875,7 +24544,7 @@
         <v>0</v>
       </c>
       <c r="R359" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S359" s="5">
         <v>0</v>
@@ -24902,16 +24571,14 @@
       <c r="AA359" s="5">
         <v>20</v>
       </c>
-      <c r="AB359" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB359" s="5"/>
     </row>
     <row r="360" spans="11:28">
       <c r="K360" s="5">
         <v>1355</v>
       </c>
       <c r="L360" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M360" s="5">
         <v>1</v>
@@ -24929,7 +24596,7 @@
         <v>0</v>
       </c>
       <c r="R360" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S360" s="5">
         <v>0</v>
@@ -24956,16 +24623,14 @@
       <c r="AA360" s="5">
         <v>20</v>
       </c>
-      <c r="AB360" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB360" s="5"/>
     </row>
     <row r="361" spans="11:28">
       <c r="K361" s="5">
         <v>1356</v>
       </c>
       <c r="L361" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M361" s="5">
         <v>1</v>
@@ -24983,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R361" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S361" s="5">
         <v>0</v>
@@ -25010,13 +24675,11 @@
       <c r="AA361" s="5">
         <v>20</v>
       </c>
-      <c r="AB361" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB361" s="5"/>
     </row>
     <row r="362" spans="2:28">
       <c r="B362" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C362" s="5">
         <v>40</v>
@@ -25044,7 +24707,7 @@
         <v>1357</v>
       </c>
       <c r="L362" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M362" s="5">
         <v>1</v>
@@ -25062,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R362" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S362" s="5">
         <v>0</v>
@@ -25089,16 +24752,14 @@
       <c r="AA362" s="5">
         <v>20</v>
       </c>
-      <c r="AB362" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB362" s="5"/>
     </row>
     <row r="363" spans="11:28">
       <c r="K363" s="5">
         <v>1358</v>
       </c>
       <c r="L363" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M363" s="5">
         <v>1</v>
@@ -25116,7 +24777,7 @@
         <v>0</v>
       </c>
       <c r="R363" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S363" s="5">
         <v>0</v>
@@ -25143,16 +24804,14 @@
       <c r="AA363" s="5">
         <v>20</v>
       </c>
-      <c r="AB363" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB363" s="5"/>
     </row>
     <row r="364" spans="11:28">
       <c r="K364" s="5">
         <v>1359</v>
       </c>
       <c r="L364" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M364" s="5">
         <v>1</v>
@@ -25170,7 +24829,7 @@
         <v>0</v>
       </c>
       <c r="R364" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S364" s="5">
         <v>0</v>
@@ -25197,16 +24856,14 @@
       <c r="AA364" s="5">
         <v>20</v>
       </c>
-      <c r="AB364" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB364" s="5"/>
     </row>
     <row r="365" spans="11:28">
       <c r="K365" s="5">
         <v>1360</v>
       </c>
       <c r="L365" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M365" s="5">
         <v>1</v>
@@ -25224,7 +24881,7 @@
         <v>0</v>
       </c>
       <c r="R365" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S365" s="5">
         <v>0</v>
@@ -25251,16 +24908,14 @@
       <c r="AA365" s="5">
         <v>20</v>
       </c>
-      <c r="AB365" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB365" s="5"/>
     </row>
     <row r="366" spans="11:28">
       <c r="K366" s="5">
         <v>1361</v>
       </c>
       <c r="L366" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M366" s="5">
         <v>1</v>
@@ -25278,7 +24933,7 @@
         <v>0</v>
       </c>
       <c r="R366" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S366" s="5">
         <v>0</v>
@@ -25305,16 +24960,14 @@
       <c r="AA366" s="5">
         <v>20</v>
       </c>
-      <c r="AB366" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB366" s="5"/>
     </row>
     <row r="367" spans="11:28">
       <c r="K367" s="5">
         <v>1362</v>
       </c>
       <c r="L367" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M367" s="5">
         <v>1</v>
@@ -25332,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="R367" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S367" s="5">
         <v>0</v>
@@ -25359,16 +25012,14 @@
       <c r="AA367" s="5">
         <v>20</v>
       </c>
-      <c r="AB367" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB367" s="5"/>
     </row>
     <row r="368" spans="11:28">
       <c r="K368" s="5">
         <v>1363</v>
       </c>
       <c r="L368" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M368" s="5">
         <v>1</v>
@@ -25386,7 +25037,7 @@
         <v>0</v>
       </c>
       <c r="R368" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S368" s="5">
         <v>0</v>
@@ -25413,16 +25064,14 @@
       <c r="AA368" s="5">
         <v>20</v>
       </c>
-      <c r="AB368" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB368" s="5"/>
     </row>
     <row r="369" spans="11:28">
       <c r="K369" s="5">
         <v>1364</v>
       </c>
       <c r="L369" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M369" s="5">
         <v>1</v>
@@ -25440,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="R369" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S369" s="5">
         <v>0</v>
@@ -25467,16 +25116,14 @@
       <c r="AA369" s="5">
         <v>20</v>
       </c>
-      <c r="AB369" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB369" s="5"/>
     </row>
     <row r="370" spans="11:28">
       <c r="K370" s="5">
         <v>1365</v>
       </c>
       <c r="L370" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M370" s="5">
         <v>1</v>
@@ -25494,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="R370" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S370" s="5">
         <v>0</v>
@@ -25521,16 +25168,14 @@
       <c r="AA370" s="5">
         <v>20</v>
       </c>
-      <c r="AB370" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB370" s="5"/>
     </row>
     <row r="371" spans="11:28">
       <c r="K371" s="5">
         <v>1366</v>
       </c>
       <c r="L371" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M371" s="5">
         <v>1</v>
@@ -25548,7 +25193,7 @@
         <v>0</v>
       </c>
       <c r="R371" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S371" s="5">
         <v>0</v>
@@ -25575,16 +25220,14 @@
       <c r="AA371" s="5">
         <v>20</v>
       </c>
-      <c r="AB371" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB371" s="5"/>
     </row>
     <row r="372" spans="11:28">
       <c r="K372" s="5">
         <v>1367</v>
       </c>
       <c r="L372" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M372" s="5">
         <v>1</v>
@@ -25602,7 +25245,7 @@
         <v>0</v>
       </c>
       <c r="R372" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S372" s="5">
         <v>0</v>
@@ -25629,16 +25272,14 @@
       <c r="AA372" s="5">
         <v>20</v>
       </c>
-      <c r="AB372" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB372" s="5"/>
     </row>
     <row r="373" spans="11:28">
       <c r="K373" s="5">
         <v>1368</v>
       </c>
       <c r="L373" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M373" s="5">
         <v>1</v>
@@ -25656,7 +25297,7 @@
         <v>0</v>
       </c>
       <c r="R373" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S373" s="5">
         <v>0</v>
@@ -25683,9 +25324,7 @@
       <c r="AA373" s="5">
         <v>20</v>
       </c>
-      <c r="AB373" s="5">
-        <v>1</v>
-      </c>
+      <c r="AB373" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -25804,7 +25443,7 @@
         <v>16</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>17</v>
@@ -25825,25 +25464,25 @@
         <v>24</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>31</v>
@@ -25852,7 +25491,7 @@
         <v>32</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AB3" s="4" t="s">
         <v>33</v>
@@ -25861,28 +25500,28 @@
         <v>34</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="28" spans="1:35">
       <c r="A4" s="7"/>
       <c r="K4" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>45</v>
@@ -25903,7 +25542,7 @@
         <v>52</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>54</v>
@@ -25915,7 +25554,7 @@
         <v>56</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>57</v>
@@ -25930,7 +25569,7 @@
         <v>60</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AB4" s="5" t="s">
         <v>61</v>
@@ -25939,22 +25578,22 @@
         <v>62</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="8:9">

--- a/Doc/ExcelConfig/Datas/dota/RoundBoardConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/RoundBoardConfig.xlsx
@@ -404,7 +404,7 @@
     <t>n1_40</t>
   </si>
   <si>
-    <t>building_enemy_40</t>
+    <t>building_boss_kingkong</t>
   </si>
   <si>
     <t>PublicEnemy</t>
@@ -492,7 +492,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +524,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -979,10 +985,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,34 +997,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,98 +1033,101 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1170,6 +1176,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1492,8 +1501,8 @@
   <sheetPr/>
   <dimension ref="A1:AL104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="P102" sqref="P102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -9923,7 +9932,7 @@
       <c r="O102" s="5">
         <v>1307</v>
       </c>
-      <c r="P102" s="5" t="s">
+      <c r="P102" s="19" t="s">
         <v>129</v>
       </c>
       <c r="Q102" s="5">
